--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="37">
   <si>
     <t>RunToTest</t>
   </si>
@@ -115,6 +115,27 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>UAT42092128</t>
+  </si>
+  <si>
+    <t>UAT42092129</t>
+  </si>
+  <si>
+    <t>UAT42092130</t>
+  </si>
+  <si>
+    <t>UAT42092131</t>
+  </si>
+  <si>
+    <t>UAT42092132</t>
+  </si>
+  <si>
+    <t>UAT42092133</t>
+  </si>
+  <si>
+    <t>UAT42092134</t>
   </si>
 </sst>
 </file>
@@ -432,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -559,7 +580,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -594,7 +615,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -694,6 +715,356 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>456</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>123</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>456</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>123</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>456</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>123</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>456</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>123</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>456</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
         <v>24</v>
       </c>
     </row>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="43">
   <si>
     <t>RunToTest</t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t>UAT42092134</t>
+  </si>
+  <si>
+    <t>UAT42092138</t>
+  </si>
+  <si>
+    <t>UAT42092140</t>
+  </si>
+  <si>
+    <t>UAT42092141</t>
+  </si>
+  <si>
+    <t>UAT42092142</t>
+  </si>
+  <si>
+    <t>UAT42092144</t>
+  </si>
+  <si>
+    <t>UAT42092143</t>
   </si>
 </sst>
 </file>
@@ -453,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1000,7 +1018,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1035,7 +1053,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -1065,6 +1083,216 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>123</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>456</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>123</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>456</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>123</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>456</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
         <v>24</v>
       </c>
     </row>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="48">
   <si>
     <t>RunToTest</t>
   </si>
@@ -154,6 +154,21 @@
   </si>
   <si>
     <t>UAT42092143</t>
+  </si>
+  <si>
+    <t>UAT42092145</t>
+  </si>
+  <si>
+    <t>UAT42092146</t>
+  </si>
+  <si>
+    <t>UAT42092147</t>
+  </si>
+  <si>
+    <t>UAT42092148</t>
+  </si>
+  <si>
+    <t>UAT42092149</t>
   </si>
 </sst>
 </file>
@@ -463,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1193,7 +1208,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
@@ -1263,7 +1278,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
@@ -1293,6 +1308,216 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>123</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>456</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>123</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>456</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>123</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>456</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
         <v>24</v>
       </c>
     </row>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="49">
   <si>
     <t>RunToTest</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>UAT42092149</t>
+  </si>
+  <si>
+    <t>UAT42092150</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1243,7 +1246,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -1278,7 +1281,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
@@ -1313,10 +1316,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1348,10 +1351,10 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1386,7 +1389,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -1421,7 +1424,7 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -1456,7 +1459,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -1491,7 +1494,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -25,153 +25,288 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="94">
   <si>
     <t>RunToTest</t>
   </si>
   <si>
+    <t>BilledTo</t>
+  </si>
+  <si>
+    <t>ConsignmentID</t>
+  </si>
+  <si>
+    <t>CELW01</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>SenderName</t>
+  </si>
+  <si>
+    <t>ReceiverName</t>
+  </si>
+  <si>
+    <t>Surekha</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ReceiverName2</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>UAT42092125</t>
+  </si>
+  <si>
+    <t>UAT42092135</t>
+  </si>
+  <si>
+    <t>ValueForCarrige</t>
+  </si>
+  <si>
+    <t>InvalidShipperReference</t>
+  </si>
+  <si>
+    <t>aaaaaa</t>
+  </si>
+  <si>
+    <t>wwww</t>
+  </si>
+  <si>
+    <t>ValidShipperReference</t>
+  </si>
+  <si>
+    <t>qqqqqqq</t>
+  </si>
+  <si>
+    <t>eeeeeee</t>
+  </si>
+  <si>
+    <t>NumberOfParcel</t>
+  </si>
+  <si>
+    <t>SecurityPack</t>
+  </si>
+  <si>
+    <t>SP12345678</t>
+  </si>
+  <si>
+    <t>UAT42092126</t>
+  </si>
+  <si>
+    <t>UAT42092136</t>
+  </si>
+  <si>
+    <t>UAT42092127</t>
+  </si>
+  <si>
+    <t>UAT42092137</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>UAT42092128</t>
+  </si>
+  <si>
+    <t>UAT42092129</t>
+  </si>
+  <si>
+    <t>UAT42092130</t>
+  </si>
+  <si>
+    <t>UAT42092131</t>
+  </si>
+  <si>
+    <t>UAT42092132</t>
+  </si>
+  <si>
+    <t>UAT42092133</t>
+  </si>
+  <si>
+    <t>UAT42092134</t>
+  </si>
+  <si>
+    <t>UAT42092138</t>
+  </si>
+  <si>
+    <t>UAT42092140</t>
+  </si>
+  <si>
+    <t>UAT42092141</t>
+  </si>
+  <si>
+    <t>UAT42092142</t>
+  </si>
+  <si>
+    <t>UAT42092144</t>
+  </si>
+  <si>
+    <t>UAT42092143</t>
+  </si>
+  <si>
+    <t>UAT42092145</t>
+  </si>
+  <si>
+    <t>UAT42092146</t>
+  </si>
+  <si>
+    <t>UAT42092147</t>
+  </si>
+  <si>
+    <t>UAT42092148</t>
+  </si>
+  <si>
+    <t>UAT42092149</t>
+  </si>
+  <si>
+    <t>UAT42092150</t>
+  </si>
+  <si>
+    <t>AIBT01</t>
+  </si>
+  <si>
+    <t>Sure</t>
+  </si>
+  <si>
+    <t>UAT42092151</t>
+  </si>
+  <si>
+    <t>UAT42092152</t>
+  </si>
+  <si>
+    <t>UAT42092153</t>
+  </si>
+  <si>
+    <t>UAT42092154</t>
+  </si>
+  <si>
+    <t>UAT42092155</t>
+  </si>
+  <si>
+    <t>UAT42092156</t>
+  </si>
+  <si>
+    <t>UAT42092157</t>
+  </si>
+  <si>
+    <t>UAT42092158</t>
+  </si>
+  <si>
+    <t>UAT42092159</t>
+  </si>
+  <si>
+    <t>UAT42092160</t>
+  </si>
+  <si>
+    <t>UAT42092161</t>
+  </si>
+  <si>
+    <t>UAT42092162</t>
+  </si>
+  <si>
+    <t>UAT42092163</t>
+  </si>
+  <si>
+    <t>UAT42092164</t>
+  </si>
+  <si>
+    <t>UAT42092165</t>
+  </si>
+  <si>
+    <t>UAT42092166</t>
+  </si>
+  <si>
+    <t>UAT42092167</t>
+  </si>
+  <si>
+    <t>UAT42092168</t>
+  </si>
+  <si>
+    <t>UAT42092169</t>
+  </si>
+  <si>
+    <t>UAT42092170</t>
+  </si>
+  <si>
+    <t>UAT42092171</t>
+  </si>
+  <si>
+    <t>UAT42092172</t>
+  </si>
+  <si>
+    <t>UAT42092173</t>
+  </si>
+  <si>
+    <t>UAT42092174</t>
+  </si>
+  <si>
+    <t>UAT42092175</t>
+  </si>
+  <si>
+    <t>UAT42092176</t>
+  </si>
+  <si>
+    <t>UAT42092177</t>
+  </si>
+  <si>
+    <t>UAT42092178</t>
+  </si>
+  <si>
+    <t>INTT02</t>
+  </si>
+  <si>
+    <t>UAT42092179</t>
+  </si>
+  <si>
+    <t>UAT42092180</t>
+  </si>
+  <si>
+    <t>UAT42092181</t>
+  </si>
+  <si>
+    <t>UAT42092182</t>
+  </si>
+  <si>
+    <t>UAT42092183</t>
+  </si>
+  <si>
+    <t>UAT42092184</t>
+  </si>
+  <si>
+    <t>UAT42092185</t>
+  </si>
+  <si>
+    <t>UAT42092186</t>
+  </si>
+  <si>
+    <t>UAT42092187</t>
+  </si>
+  <si>
+    <t>UAT42092189</t>
+  </si>
+  <si>
+    <t>UAT42092190</t>
+  </si>
+  <si>
+    <t>UAT42092191</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>BilledTo</t>
-  </si>
-  <si>
-    <t>ConsignmentID</t>
-  </si>
-  <si>
-    <t>CELW01</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>SenderName</t>
-  </si>
-  <si>
-    <t>ReceiverName</t>
-  </si>
-  <si>
-    <t>Surekha</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>ReceiverName2</t>
-  </si>
-  <si>
-    <t>Anand</t>
-  </si>
-  <si>
-    <t>UAT42092125</t>
-  </si>
-  <si>
-    <t>UAT42092135</t>
-  </si>
-  <si>
-    <t>ValueForCarrige</t>
-  </si>
-  <si>
-    <t>InvalidShipperReference</t>
-  </si>
-  <si>
-    <t>aaaaaa</t>
-  </si>
-  <si>
-    <t>wwww</t>
-  </si>
-  <si>
-    <t>ValidShipperReference</t>
-  </si>
-  <si>
-    <t>qqqqqqq</t>
-  </si>
-  <si>
-    <t>eeeeeee</t>
-  </si>
-  <si>
-    <t>NumberOfParcel</t>
-  </si>
-  <si>
-    <t>SecurityPack</t>
-  </si>
-  <si>
-    <t>SP12345678</t>
-  </si>
-  <si>
-    <t>UAT42092126</t>
-  </si>
-  <si>
-    <t>UAT42092136</t>
-  </si>
-  <si>
-    <t>UAT42092127</t>
-  </si>
-  <si>
-    <t>UAT42092137</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>UAT42092128</t>
-  </si>
-  <si>
-    <t>UAT42092129</t>
-  </si>
-  <si>
-    <t>UAT42092130</t>
-  </si>
-  <si>
-    <t>UAT42092131</t>
-  </si>
-  <si>
-    <t>UAT42092132</t>
-  </si>
-  <si>
-    <t>UAT42092133</t>
-  </si>
-  <si>
-    <t>UAT42092134</t>
-  </si>
-  <si>
-    <t>UAT42092138</t>
-  </si>
-  <si>
-    <t>UAT42092140</t>
-  </si>
-  <si>
-    <t>UAT42092141</t>
-  </si>
-  <si>
-    <t>UAT42092142</t>
-  </si>
-  <si>
-    <t>UAT42092144</t>
-  </si>
-  <si>
-    <t>UAT42092143</t>
-  </si>
-  <si>
-    <t>UAT42092145</t>
-  </si>
-  <si>
-    <t>UAT42092146</t>
-  </si>
-  <si>
-    <t>UAT42092147</t>
-  </si>
-  <si>
-    <t>UAT42092148</t>
-  </si>
-  <si>
-    <t>UAT42092149</t>
-  </si>
-  <si>
-    <t>UAT42092150</t>
+    <t>DIGI20</t>
+  </si>
+  <si>
+    <t>CELL</t>
   </si>
 </sst>
 </file>
@@ -489,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,1014 +649,2449 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
         <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>456</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>456</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>456</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>456</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>456</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>123</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>456</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <v>456</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16">
         <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>456</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18">
         <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>456</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20">
         <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>456</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23">
         <v>456</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24">
         <v>123</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>456</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26">
         <v>123</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27">
         <v>456</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28">
         <v>123</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29">
         <v>456</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>456</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>456</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>456</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>456</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>456</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>456</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>456</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>456</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <v>456</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>456</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>456</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>456</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>456</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>456</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>456</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>456</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <v>456</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>456</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>456</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>456</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <v>456</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>456</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>456</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>456</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>456</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>456</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>456</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57">
+        <v>456</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58">
+        <v>456</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>456</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60">
+        <v>456</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>456</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>456</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63">
+        <v>456</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>456</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>456</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>456</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>456</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68">
+        <v>456</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <v>456</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70">
+        <v>456</v>
+      </c>
+      <c r="H70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="101">
   <si>
     <t>RunToTest</t>
   </si>
@@ -307,6 +307,27 @@
   </si>
   <si>
     <t>CELL</t>
+  </si>
+  <si>
+    <t>SAGO44</t>
+  </si>
+  <si>
+    <t>SCOIN</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>UAT42092188</t>
+  </si>
+  <si>
+    <t>UAT42092192</t>
+  </si>
+  <si>
+    <t>UAT42092193</t>
+  </si>
+  <si>
+    <t>UAT42092194</t>
   </si>
 </sst>
 </file>
@@ -624,10 +645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2746,7 +2768,7 @@
     </row>
     <row r="61" spans="1:11" ht="13.5" customHeight="1">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
         <v>82</v>
@@ -2787,16 +2809,16 @@
         <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="G62">
         <v>456</v>
@@ -2822,16 +2844,16 @@
         <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="G63">
         <v>456</v>
@@ -2857,16 +2879,16 @@
         <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D64" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="G64">
         <v>456</v>
@@ -2892,16 +2914,16 @@
         <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="G65">
         <v>456</v>
@@ -2919,7 +2941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="13.5" customHeight="1">
+    <row r="66" spans="1:11" ht="12.75" customHeight="1">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -2927,16 +2949,16 @@
         <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D66" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="G66">
         <v>456</v>
@@ -2959,19 +2981,19 @@
         <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="G67">
         <v>456</v>
@@ -2985,8 +3007,8 @@
       <c r="J67">
         <v>1</v>
       </c>
-      <c r="K67" t="s">
-        <v>23</v>
+      <c r="K67">
+        <v>12345678</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="13.5" customHeight="1">
@@ -2994,19 +3016,19 @@
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D68" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="G68">
         <v>456</v>
@@ -3029,19 +3051,19 @@
         <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="G69">
         <v>456</v>
@@ -3061,22 +3083,22 @@
     </row>
     <row r="70" spans="1:11" ht="13.5" customHeight="1">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
         <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="G70">
         <v>456</v>
@@ -3091,6 +3113,111 @@
         <v>1</v>
       </c>
       <c r="K70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G71">
+        <v>456</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72">
+        <v>456</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73">
+        <v>456</v>
+      </c>
+      <c r="H73" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
         <v>23</v>
       </c>
     </row>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -649,7 +649,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="70" spans="1:11" ht="13.5" customHeight="1">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
         <v>90</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="72" spans="1:11" ht="13.5" customHeight="1">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
         <v>99</v>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="ConsignmentID" sheetId="4" r:id="rId1"/>
+    <sheet name="consignmentInbound" sheetId="5" r:id="rId2"/>
+    <sheet name="ConsignmentInbound2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="187">
   <si>
     <t>RunToTest</t>
   </si>
@@ -328,19 +330,284 @@
   </si>
   <si>
     <t>UAT42092194</t>
+  </si>
+  <si>
+    <t>NewSenderName</t>
+  </si>
+  <si>
+    <t>Not exist</t>
+  </si>
+  <si>
+    <t>InvalidSenderName</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>UAT08000100</t>
+  </si>
+  <si>
+    <t>CreateNewSender</t>
+  </si>
+  <si>
+    <t>AutomationVida</t>
+  </si>
+  <si>
+    <t>Individual First Name</t>
+  </si>
+  <si>
+    <t>Individual Last Name</t>
+  </si>
+  <si>
+    <t>Individual Your Name</t>
+  </si>
+  <si>
+    <t>NTL100</t>
+  </si>
+  <si>
+    <t>DeliveryAddress</t>
+  </si>
+  <si>
+    <t>27 Wrench Road, Isando, Kempton Park, South Africa</t>
+  </si>
+  <si>
+    <t>PrimaryNumber</t>
+  </si>
+  <si>
+    <t>NewEmailAddress</t>
+  </si>
+  <si>
+    <t>Nasreen.Khan@ram.co.za</t>
+  </si>
+  <si>
+    <t>NewReceiverName</t>
+  </si>
+  <si>
+    <t>NewBusinessGroupName</t>
+  </si>
+  <si>
+    <t>RAM Hand to Hand Couriers</t>
+  </si>
+  <si>
+    <t>NewBusinessName</t>
+  </si>
+  <si>
+    <t>RAM Business Office</t>
+  </si>
+  <si>
+    <t>IMEINumber</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Automation testing</t>
+  </si>
+  <si>
+    <t>GAMM02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportmans </t>
+  </si>
+  <si>
+    <t>ICCIDNumber</t>
+  </si>
+  <si>
+    <t>bnmgfdfg</t>
+  </si>
+  <si>
+    <t>1Da5g</t>
+  </si>
+  <si>
+    <t>UpdateEmailAddress</t>
+  </si>
+  <si>
+    <t>Nasreen.Khan@winjit.com</t>
+  </si>
+  <si>
+    <t>Nasreen2</t>
+  </si>
+  <si>
+    <t>UAT07000100</t>
+  </si>
+  <si>
+    <t>RetailChainName</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>RetailStoreName</t>
+  </si>
+  <si>
+    <t>RetailChainDest</t>
+  </si>
+  <si>
+    <t>Nasreen</t>
+  </si>
+  <si>
+    <t>NewSenderContactFirstName</t>
+  </si>
+  <si>
+    <t>NewSenderContactLastName</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>RcvNewContactFirstName</t>
+  </si>
+  <si>
+    <t>RcvNewContactLastName</t>
+  </si>
+  <si>
+    <t>RcvNewContactPrimaryTelNumber</t>
+  </si>
+  <si>
+    <t>RcvNewContactEmailAddress</t>
+  </si>
+  <si>
+    <t>Nasreen.Khan@gmail.com</t>
+  </si>
+  <si>
+    <t>SpecialInstruction</t>
+  </si>
+  <si>
+    <t>Automation test</t>
+  </si>
+  <si>
+    <t>UAT08000101</t>
+  </si>
+  <si>
+    <t>TestLast</t>
+  </si>
+  <si>
+    <t>Nasreen5</t>
+  </si>
+  <si>
+    <t>TestLast6</t>
+  </si>
+  <si>
+    <t>UAT08000102</t>
+  </si>
+  <si>
+    <t>Nasreen6</t>
+  </si>
+  <si>
+    <t>TestLast7</t>
+  </si>
+  <si>
+    <t>Ddsd23</t>
+  </si>
+  <si>
+    <t>FNAutomation7</t>
+  </si>
+  <si>
+    <t>LNAutomation7</t>
+  </si>
+  <si>
+    <t>UAT07000101</t>
+  </si>
+  <si>
+    <t>UAT07000102</t>
+  </si>
+  <si>
+    <t>FNAutomation8</t>
+  </si>
+  <si>
+    <t>UAT08000103</t>
+  </si>
+  <si>
+    <t>Nasreen7</t>
+  </si>
+  <si>
+    <t>TestLast8</t>
+  </si>
+  <si>
+    <t>LNAutomation8</t>
+  </si>
+  <si>
+    <t>UAT07000103</t>
+  </si>
+  <si>
+    <t>FNAutomation9</t>
+  </si>
+  <si>
+    <t>LNAutomation9</t>
+  </si>
+  <si>
+    <t>UAT08000104</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>ValidSenderName</t>
+  </si>
+  <si>
+    <t>Scoin</t>
+  </si>
+  <si>
+    <t>GAMMATEK</t>
+  </si>
+  <si>
+    <t>UAT42092195</t>
+  </si>
+  <si>
+    <t>UAT42092196</t>
+  </si>
+  <si>
+    <t>UAT42092197</t>
+  </si>
+  <si>
+    <t>UAT42092198</t>
+  </si>
+  <si>
+    <t>Nasreen9</t>
+  </si>
+  <si>
+    <t>TestLast10</t>
+  </si>
+  <si>
+    <t>UAT07000104</t>
+  </si>
+  <si>
+    <t>FNAutomation10</t>
+  </si>
+  <si>
+    <t>LNAutomation11</t>
+  </si>
+  <si>
+    <t>UAT08000105</t>
+  </si>
+  <si>
+    <t>Nasreen10</t>
+  </si>
+  <si>
+    <t>TestLast11</t>
+  </si>
+  <si>
+    <t>UAT42092199</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -360,13 +627,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -637,7 +916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -645,11 +924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,16 +936,17 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,28 +960,34 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -714,29 +1000,29 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2">
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2">
         <v>123</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -749,29 +1035,29 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="G3">
-        <v>456</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
+      <c r="I3">
+        <v>456</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -784,29 +1070,29 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4">
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4">
         <v>123</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -819,29 +1105,29 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="G5">
-        <v>456</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+      <c r="I5">
+        <v>456</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -854,29 +1140,29 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6">
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6">
         <v>123</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>19</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -889,29 +1175,29 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="G7">
-        <v>456</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+      <c r="I7">
+        <v>456</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -924,29 +1210,29 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8">
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8">
         <v>123</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -959,29 +1245,29 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="G9">
-        <v>456</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
+      <c r="I9">
+        <v>456</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -994,29 +1280,29 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10">
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10">
         <v>123</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>16</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>19</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1029,29 +1315,29 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>11</v>
       </c>
-      <c r="G11">
-        <v>456</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
+      <c r="I11">
+        <v>456</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1064,29 +1350,29 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12">
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12">
         <v>123</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>19</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1099,29 +1385,29 @@
       <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>11</v>
       </c>
-      <c r="G13">
-        <v>456</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
+      <c r="I13">
+        <v>456</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1134,29 +1420,29 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14">
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14">
         <v>123</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>16</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>19</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1169,29 +1455,29 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>11</v>
       </c>
-      <c r="G15">
-        <v>456</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
+      <c r="I15">
+        <v>456</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1204,29 +1490,29 @@
       <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16">
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16">
         <v>123</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>16</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>19</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1239,29 +1525,29 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>11</v>
       </c>
-      <c r="G17">
-        <v>456</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
+      <c r="I17">
+        <v>456</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1274,29 +1560,29 @@
       <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18">
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18">
         <v>123</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>16</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>19</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1309,29 +1595,29 @@
       <c r="D19" t="s">
         <v>4</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>11</v>
       </c>
-      <c r="G19">
-        <v>456</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
+      <c r="I19">
+        <v>456</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1344,29 +1630,29 @@
       <c r="D20" t="s">
         <v>4</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>8</v>
       </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20">
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20">
         <v>123</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>16</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>19</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1379,29 +1665,29 @@
       <c r="D21" t="s">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>11</v>
       </c>
-      <c r="G21">
-        <v>456</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
+      <c r="I21">
+        <v>456</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1414,29 +1700,29 @@
       <c r="D22" t="s">
         <v>4</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>8</v>
       </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22">
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22">
         <v>123</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>16</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>19</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1449,29 +1735,29 @@
       <c r="D23" t="s">
         <v>4</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>11</v>
       </c>
-      <c r="G23">
-        <v>456</v>
-      </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
+      <c r="I23">
+        <v>456</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1484,29 +1770,29 @@
       <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>8</v>
       </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24">
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24">
         <v>123</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>16</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>19</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1519,29 +1805,29 @@
       <c r="D25" t="s">
         <v>4</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>11</v>
       </c>
-      <c r="G25">
-        <v>456</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
+      <c r="I25">
+        <v>456</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1554,29 +1840,29 @@
       <c r="D26" t="s">
         <v>49</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>8</v>
       </c>
-      <c r="F26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26">
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26">
         <v>123</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>16</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>19</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1589,29 +1875,29 @@
       <c r="D27" t="s">
         <v>49</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>9</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>11</v>
       </c>
-      <c r="G27">
-        <v>456</v>
-      </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
+      <c r="I27">
+        <v>456</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1624,29 +1910,29 @@
       <c r="D28" t="s">
         <v>49</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>8</v>
       </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28">
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28">
         <v>123</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>16</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>19</v>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1659,29 +1945,29 @@
       <c r="D29" t="s">
         <v>49</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>9</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>11</v>
       </c>
-      <c r="G29">
-        <v>456</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
+      <c r="I29">
+        <v>456</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1694,29 +1980,29 @@
       <c r="D30" t="s">
         <v>49</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>9</v>
       </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30">
-        <v>456</v>
-      </c>
       <c r="H30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>456</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1729,29 +2015,29 @@
       <c r="D31" t="s">
         <v>49</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>9</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>11</v>
       </c>
-      <c r="G31">
-        <v>456</v>
-      </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
+      <c r="I31">
+        <v>456</v>
+      </c>
+      <c r="J31" t="s">
+        <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1764,29 +2050,29 @@
       <c r="D32" t="s">
         <v>49</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>9</v>
       </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32">
-        <v>456</v>
-      </c>
       <c r="H32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>456</v>
+      </c>
+      <c r="J32" t="s">
+        <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1799,29 +2085,29 @@
       <c r="D33" t="s">
         <v>49</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>9</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>11</v>
       </c>
-      <c r="G33">
-        <v>456</v>
-      </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
+      <c r="I33">
+        <v>456</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1834,29 +2120,29 @@
       <c r="D34" t="s">
         <v>49</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>9</v>
       </c>
-      <c r="F34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34">
-        <v>456</v>
-      </c>
       <c r="H34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>456</v>
+      </c>
+      <c r="J34" t="s">
+        <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1869,29 +2155,29 @@
       <c r="D35" t="s">
         <v>49</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>9</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>11</v>
       </c>
-      <c r="G35">
-        <v>456</v>
-      </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
+      <c r="I35">
+        <v>456</v>
+      </c>
+      <c r="J35" t="s">
+        <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1904,29 +2190,29 @@
       <c r="D36" t="s">
         <v>49</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>9</v>
       </c>
-      <c r="F36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36">
-        <v>456</v>
-      </c>
       <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I36">
+        <v>456</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1939,29 +2225,29 @@
       <c r="D37" t="s">
         <v>49</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>9</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>11</v>
       </c>
-      <c r="G37">
-        <v>456</v>
-      </c>
-      <c r="H37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
+      <c r="I37">
+        <v>456</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1974,29 +2260,29 @@
       <c r="D38" t="s">
         <v>49</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>9</v>
       </c>
-      <c r="F38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38">
-        <v>456</v>
-      </c>
       <c r="H38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>456</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
       </c>
       <c r="K38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2009,29 +2295,29 @@
       <c r="D39" t="s">
         <v>49</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>9</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>11</v>
       </c>
-      <c r="G39">
-        <v>456</v>
-      </c>
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
+      <c r="I39">
+        <v>456</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="13.5" customHeight="1">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -2044,29 +2330,29 @@
       <c r="D40" t="s">
         <v>49</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>9</v>
       </c>
-      <c r="F40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40">
-        <v>456</v>
-      </c>
       <c r="H40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>456</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -2079,29 +2365,29 @@
       <c r="D41" t="s">
         <v>49</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>9</v>
       </c>
-      <c r="F41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41">
-        <v>456</v>
-      </c>
       <c r="H41" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>456</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
       </c>
       <c r="K41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="13.5" customHeight="1">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -2114,29 +2400,29 @@
       <c r="D42" t="s">
         <v>49</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>9</v>
       </c>
-      <c r="F42" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42">
-        <v>456</v>
-      </c>
       <c r="H42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>456</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -2149,29 +2435,29 @@
       <c r="D43" t="s">
         <v>49</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>9</v>
       </c>
-      <c r="F43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43">
-        <v>456</v>
-      </c>
       <c r="H43" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>456</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -2184,29 +2470,29 @@
       <c r="D44" t="s">
         <v>49</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>9</v>
       </c>
-      <c r="F44" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44">
-        <v>456</v>
-      </c>
       <c r="H44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I44">
+        <v>456</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="13.5" customHeight="1">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -2219,29 +2505,29 @@
       <c r="D45" t="s">
         <v>49</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>9</v>
       </c>
-      <c r="F45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45">
-        <v>456</v>
-      </c>
       <c r="H45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>456</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -2254,29 +2540,29 @@
       <c r="D46" t="s">
         <v>49</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>9</v>
       </c>
-      <c r="F46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46">
-        <v>456</v>
-      </c>
       <c r="H46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>456</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="13.5" customHeight="1">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -2289,29 +2575,29 @@
       <c r="D47" t="s">
         <v>49</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>9</v>
       </c>
-      <c r="F47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47">
-        <v>456</v>
-      </c>
       <c r="H47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>456</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -2324,29 +2610,29 @@
       <c r="D48" t="s">
         <v>49</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>9</v>
       </c>
-      <c r="F48" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48">
-        <v>456</v>
-      </c>
       <c r="H48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>456</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="13.5" customHeight="1">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2359,29 +2645,29 @@
       <c r="D49" t="s">
         <v>49</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>9</v>
       </c>
-      <c r="F49" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49">
-        <v>456</v>
-      </c>
       <c r="H49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <v>456</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -2394,29 +2680,29 @@
       <c r="D50" t="s">
         <v>49</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>9</v>
       </c>
-      <c r="F50" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50">
-        <v>456</v>
-      </c>
       <c r="H50" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I50">
+        <v>456</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="13.5" customHeight="1">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -2429,29 +2715,29 @@
       <c r="D51" t="s">
         <v>49</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>9</v>
       </c>
-      <c r="F51" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51">
-        <v>456</v>
-      </c>
       <c r="H51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I51">
+        <v>456</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -2464,29 +2750,29 @@
       <c r="D52" t="s">
         <v>49</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>9</v>
       </c>
-      <c r="F52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52">
-        <v>456</v>
-      </c>
       <c r="H52" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I52">
+        <v>456</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="13.5" customHeight="1">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -2499,29 +2785,29 @@
       <c r="D53" t="s">
         <v>49</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>9</v>
       </c>
-      <c r="F53" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53">
-        <v>456</v>
-      </c>
       <c r="H53" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I53">
+        <v>456</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -2534,29 +2820,29 @@
       <c r="D54" t="s">
         <v>49</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>9</v>
       </c>
-      <c r="F54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54">
-        <v>456</v>
-      </c>
       <c r="H54" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>456</v>
+      </c>
+      <c r="J54" t="s">
+        <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="13.5" customHeight="1">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -2569,29 +2855,29 @@
       <c r="D55" t="s">
         <v>49</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>9</v>
       </c>
-      <c r="F55" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55">
-        <v>456</v>
-      </c>
       <c r="H55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>456</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -2604,29 +2890,29 @@
       <c r="D56" t="s">
         <v>49</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>9</v>
       </c>
-      <c r="F56" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56">
-        <v>456</v>
-      </c>
       <c r="H56" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I56">
+        <v>456</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
       </c>
       <c r="K56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="13.5" customHeight="1">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -2639,29 +2925,29 @@
       <c r="D57" t="s">
         <v>49</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>9</v>
       </c>
-      <c r="F57" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57">
-        <v>456</v>
-      </c>
       <c r="H57" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I57">
+        <v>456</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="13.5" customHeight="1">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -2674,29 +2960,29 @@
       <c r="D58" t="s">
         <v>49</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>9</v>
       </c>
-      <c r="F58" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58">
-        <v>456</v>
-      </c>
       <c r="H58" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I58">
+        <v>456</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="13.5" customHeight="1">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -2709,29 +2995,29 @@
       <c r="D59" t="s">
         <v>49</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>9</v>
       </c>
-      <c r="F59" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59">
-        <v>456</v>
-      </c>
       <c r="H59" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>456</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
       </c>
       <c r="K59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="13.5" customHeight="1">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -2744,29 +3030,29 @@
       <c r="D60" t="s">
         <v>49</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>9</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>93</v>
       </c>
-      <c r="G60">
-        <v>456</v>
-      </c>
-      <c r="H60" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
+      <c r="I60">
+        <v>456</v>
+      </c>
+      <c r="J60" t="s">
+        <v>17</v>
       </c>
       <c r="K60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="13.5" customHeight="1">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -2779,29 +3065,29 @@
       <c r="D61" t="s">
         <v>49</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>9</v>
       </c>
-      <c r="F61" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61">
-        <v>456</v>
-      </c>
       <c r="H61" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I61">
+        <v>456</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
       </c>
       <c r="K61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="13.5" customHeight="1">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -2814,29 +3100,29 @@
       <c r="D62" t="s">
         <v>95</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" t="s">
         <v>9</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
         <v>96</v>
       </c>
-      <c r="G62">
-        <v>456</v>
-      </c>
-      <c r="H62" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
+      <c r="I62">
+        <v>456</v>
+      </c>
+      <c r="J62" t="s">
+        <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="13.5" customHeight="1">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -2849,29 +3135,29 @@
       <c r="D63" t="s">
         <v>95</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>9</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
         <v>96</v>
       </c>
-      <c r="G63">
-        <v>456</v>
-      </c>
-      <c r="H63" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
+      <c r="I63">
+        <v>456</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="13.5" customHeight="1">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -2884,29 +3170,29 @@
       <c r="D64" t="s">
         <v>95</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>9</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>96</v>
       </c>
-      <c r="G64">
-        <v>456</v>
-      </c>
-      <c r="H64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
+      <c r="I64">
+        <v>456</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="13.5" customHeight="1">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -2919,29 +3205,29 @@
       <c r="D65" t="s">
         <v>95</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>9</v>
       </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
         <v>96</v>
       </c>
-      <c r="G65">
-        <v>456</v>
-      </c>
-      <c r="H65" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
+      <c r="I65">
+        <v>456</v>
+      </c>
+      <c r="J65" t="s">
+        <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="12.75" customHeight="1">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -2954,29 +3240,29 @@
       <c r="D66" t="s">
         <v>95</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" t="s">
         <v>9</v>
       </c>
-      <c r="F66" t="s">
+      <c r="H66" t="s">
         <v>96</v>
       </c>
-      <c r="G66">
-        <v>456</v>
-      </c>
-      <c r="H66" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
+      <c r="I66">
+        <v>456</v>
+      </c>
+      <c r="J66" t="s">
+        <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="13.5" customHeight="1">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -2989,29 +3275,29 @@
       <c r="D67" t="s">
         <v>95</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G67" t="s">
         <v>9</v>
       </c>
-      <c r="F67" t="s">
+      <c r="H67" t="s">
         <v>96</v>
       </c>
-      <c r="G67">
-        <v>456</v>
-      </c>
-      <c r="H67" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
+      <c r="I67">
+        <v>456</v>
+      </c>
+      <c r="J67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
         <v>12345678</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="13.5" customHeight="1">
+    <row r="68" spans="1:13" ht="13.5" customHeight="1">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -3024,29 +3310,29 @@
       <c r="D68" t="s">
         <v>95</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G68" t="s">
         <v>9</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
         <v>96</v>
       </c>
-      <c r="G68">
-        <v>456</v>
-      </c>
-      <c r="H68" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
+      <c r="I68">
+        <v>456</v>
+      </c>
+      <c r="J68" t="s">
+        <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="13.5" customHeight="1">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -3059,29 +3345,29 @@
       <c r="D69" t="s">
         <v>95</v>
       </c>
-      <c r="E69" t="s">
+      <c r="G69" t="s">
         <v>9</v>
       </c>
-      <c r="F69" t="s">
+      <c r="H69" t="s">
         <v>96</v>
       </c>
-      <c r="G69">
-        <v>456</v>
-      </c>
-      <c r="H69" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" t="s">
-        <v>20</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
+      <c r="I69">
+        <v>456</v>
+      </c>
+      <c r="J69" t="s">
+        <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="13.5" customHeight="1">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -3094,29 +3380,29 @@
       <c r="D70" t="s">
         <v>95</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
         <v>9</v>
       </c>
-      <c r="F70" t="s">
+      <c r="H70" t="s">
         <v>96</v>
       </c>
-      <c r="G70">
-        <v>456</v>
-      </c>
-      <c r="H70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
+      <c r="I70">
+        <v>456</v>
+      </c>
+      <c r="J70" t="s">
+        <v>17</v>
       </c>
       <c r="K70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="13.5" customHeight="1">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -3129,31 +3415,31 @@
       <c r="D71" t="s">
         <v>95</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
         <v>9</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>96</v>
       </c>
-      <c r="G71">
-        <v>456</v>
-      </c>
-      <c r="H71" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71">
+      <c r="I71">
+        <v>456</v>
+      </c>
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
         <v>12345678</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="13.5" customHeight="1">
+    <row r="72" spans="1:13" ht="13.5" customHeight="1">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
         <v>99</v>
@@ -3162,31 +3448,37 @@
         <v>94</v>
       </c>
       <c r="D72" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="E72" t="s">
+        <v>170</v>
+      </c>
+      <c r="F72" t="s">
+        <v>172</v>
+      </c>
+      <c r="G72" t="s">
         <v>9</v>
       </c>
-      <c r="F72" t="s">
+      <c r="H72" t="s">
         <v>96</v>
       </c>
-      <c r="G72">
-        <v>456</v>
-      </c>
-      <c r="H72" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
+      <c r="I72">
+        <v>456</v>
+      </c>
+      <c r="J72" t="s">
+        <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="13.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="13.5" customHeight="1">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -3197,27 +3489,238 @@
         <v>94</v>
       </c>
       <c r="D73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" t="s">
+        <v>170</v>
+      </c>
+      <c r="F73" t="s">
         <v>95</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G73" t="s">
         <v>9</v>
       </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>96</v>
       </c>
-      <c r="G73">
-        <v>456</v>
-      </c>
-      <c r="H73" t="s">
-        <v>17</v>
-      </c>
-      <c r="I73" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
+      <c r="I73">
+        <v>456</v>
+      </c>
+      <c r="J73" t="s">
+        <v>17</v>
       </c>
       <c r="K73" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" t="s">
+        <v>96</v>
+      </c>
+      <c r="I74">
+        <v>456</v>
+      </c>
+      <c r="J74" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" t="s">
+        <v>170</v>
+      </c>
+      <c r="F75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" t="s">
+        <v>96</v>
+      </c>
+      <c r="I75">
+        <v>456</v>
+      </c>
+      <c r="J75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F76" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" t="s">
+        <v>96</v>
+      </c>
+      <c r="I76">
+        <v>456</v>
+      </c>
+      <c r="J76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" t="s">
+        <v>173</v>
+      </c>
+      <c r="E77" t="s">
+        <v>170</v>
+      </c>
+      <c r="F77" t="s">
+        <v>95</v>
+      </c>
+      <c r="G77" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" t="s">
+        <v>96</v>
+      </c>
+      <c r="I77">
+        <v>456</v>
+      </c>
+      <c r="J77" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" t="s">
+        <v>170</v>
+      </c>
+      <c r="F78" t="s">
+        <v>95</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" t="s">
+        <v>96</v>
+      </c>
+      <c r="I78">
+        <v>456</v>
+      </c>
+      <c r="J78" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3225,4 +3728,3454 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="20100" topLeftCell="X1"/>
+      <selection activeCell="I7" sqref="I7"/>
+      <selection pane="topRight" activeCell="X1" sqref="X1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" customWidth="1"/>
+    <col min="6" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="13" width="18.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="20" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="30">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="45">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2">
+        <v>123</v>
+      </c>
+      <c r="R2">
+        <v>987545555555555</v>
+      </c>
+      <c r="S2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2">
+        <v>1.11188888888888E+18</v>
+      </c>
+      <c r="U2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" t="s">
+        <v>129</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="45">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3">
+        <v>123</v>
+      </c>
+      <c r="R3">
+        <v>987545555555555</v>
+      </c>
+      <c r="S3" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3">
+        <v>1.11188888888888E+18</v>
+      </c>
+      <c r="U3" t="s">
+        <v>128</v>
+      </c>
+      <c r="V3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="45">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4">
+        <v>123</v>
+      </c>
+      <c r="R4">
+        <v>987545555555555</v>
+      </c>
+      <c r="S4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T4">
+        <v>1.11188888888888E+18</v>
+      </c>
+      <c r="U4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="45">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5">
+        <v>123</v>
+      </c>
+      <c r="R5">
+        <v>987545555555555</v>
+      </c>
+      <c r="S5" t="s">
+        <v>124</v>
+      </c>
+      <c r="T5">
+        <v>1.11188888888888E+18</v>
+      </c>
+      <c r="U5" t="s">
+        <v>128</v>
+      </c>
+      <c r="V5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="45">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6">
+        <v>123</v>
+      </c>
+      <c r="R6">
+        <v>987545555555555</v>
+      </c>
+      <c r="S6" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6">
+        <v>1.11188888888888E+18</v>
+      </c>
+      <c r="U6" t="s">
+        <v>128</v>
+      </c>
+      <c r="V6" t="s">
+        <v>129</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="45">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7">
+        <v>123</v>
+      </c>
+      <c r="R7">
+        <v>987545555555555</v>
+      </c>
+      <c r="S7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7">
+        <v>1.11188888888888E+18</v>
+      </c>
+      <c r="U7" t="s">
+        <v>128</v>
+      </c>
+      <c r="V7" t="s">
+        <v>129</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>123</v>
+      </c>
+      <c r="U8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>456</v>
+      </c>
+      <c r="U9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V9" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>123</v>
+      </c>
+      <c r="U10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11">
+        <v>456</v>
+      </c>
+      <c r="U11" t="s">
+        <v>17</v>
+      </c>
+      <c r="V11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>123</v>
+      </c>
+      <c r="U12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>456</v>
+      </c>
+      <c r="U13" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>123</v>
+      </c>
+      <c r="U14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" t="s">
+        <v>19</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15">
+        <v>456</v>
+      </c>
+      <c r="U15" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>123</v>
+      </c>
+      <c r="U16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17">
+        <v>456</v>
+      </c>
+      <c r="U17" t="s">
+        <v>17</v>
+      </c>
+      <c r="V17" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18">
+        <v>123</v>
+      </c>
+      <c r="U18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19">
+        <v>456</v>
+      </c>
+      <c r="U19" t="s">
+        <v>17</v>
+      </c>
+      <c r="V19" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20">
+        <v>123</v>
+      </c>
+      <c r="U20" t="s">
+        <v>16</v>
+      </c>
+      <c r="V20" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21">
+        <v>456</v>
+      </c>
+      <c r="U21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V21" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22">
+        <v>123</v>
+      </c>
+      <c r="U22" t="s">
+        <v>16</v>
+      </c>
+      <c r="V22" t="s">
+        <v>19</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23">
+        <v>456</v>
+      </c>
+      <c r="U23" t="s">
+        <v>17</v>
+      </c>
+      <c r="V23" t="s">
+        <v>20</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="N24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24">
+        <v>123</v>
+      </c>
+      <c r="U24" t="s">
+        <v>16</v>
+      </c>
+      <c r="V24" t="s">
+        <v>19</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="N25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25">
+        <v>456</v>
+      </c>
+      <c r="U25" t="s">
+        <v>17</v>
+      </c>
+      <c r="V25" t="s">
+        <v>20</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26">
+        <v>123</v>
+      </c>
+      <c r="U26" t="s">
+        <v>16</v>
+      </c>
+      <c r="V26" t="s">
+        <v>19</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27">
+        <v>456</v>
+      </c>
+      <c r="U27" t="s">
+        <v>17</v>
+      </c>
+      <c r="V27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="N28" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>123</v>
+      </c>
+      <c r="U28" t="s">
+        <v>16</v>
+      </c>
+      <c r="V28" t="s">
+        <v>19</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="N29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29">
+        <v>456</v>
+      </c>
+      <c r="U29" t="s">
+        <v>17</v>
+      </c>
+      <c r="V29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q30">
+        <v>456</v>
+      </c>
+      <c r="U30" t="s">
+        <v>17</v>
+      </c>
+      <c r="V30" t="s">
+        <v>20</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="N31" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31">
+        <v>456</v>
+      </c>
+      <c r="U31" t="s">
+        <v>17</v>
+      </c>
+      <c r="V31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q32">
+        <v>456</v>
+      </c>
+      <c r="U32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V32" t="s">
+        <v>20</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="N33" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q33">
+        <v>456</v>
+      </c>
+      <c r="U33" t="s">
+        <v>17</v>
+      </c>
+      <c r="V33" t="s">
+        <v>20</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="N34" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q34">
+        <v>456</v>
+      </c>
+      <c r="U34" t="s">
+        <v>17</v>
+      </c>
+      <c r="V34" t="s">
+        <v>20</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="N35" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35">
+        <v>456</v>
+      </c>
+      <c r="U35" t="s">
+        <v>17</v>
+      </c>
+      <c r="V35" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="N36" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36">
+        <v>456</v>
+      </c>
+      <c r="U36" t="s">
+        <v>17</v>
+      </c>
+      <c r="V36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="N37" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q37">
+        <v>456</v>
+      </c>
+      <c r="U37" t="s">
+        <v>17</v>
+      </c>
+      <c r="V37" t="s">
+        <v>20</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="N38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38">
+        <v>456</v>
+      </c>
+      <c r="U38" t="s">
+        <v>17</v>
+      </c>
+      <c r="V38" t="s">
+        <v>20</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="N39" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q39">
+        <v>456</v>
+      </c>
+      <c r="U39" t="s">
+        <v>17</v>
+      </c>
+      <c r="V39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N40" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q40">
+        <v>456</v>
+      </c>
+      <c r="U40" t="s">
+        <v>17</v>
+      </c>
+      <c r="V40" t="s">
+        <v>20</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="N41" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q41">
+        <v>456</v>
+      </c>
+      <c r="U41" t="s">
+        <v>17</v>
+      </c>
+      <c r="V41" t="s">
+        <v>20</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="N42" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q42">
+        <v>456</v>
+      </c>
+      <c r="U42" t="s">
+        <v>17</v>
+      </c>
+      <c r="V42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="N43" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q43">
+        <v>456</v>
+      </c>
+      <c r="U43" t="s">
+        <v>17</v>
+      </c>
+      <c r="V43" t="s">
+        <v>20</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="N44" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>456</v>
+      </c>
+      <c r="U44" t="s">
+        <v>17</v>
+      </c>
+      <c r="V44" t="s">
+        <v>20</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="N45" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q45">
+        <v>456</v>
+      </c>
+      <c r="U45" t="s">
+        <v>17</v>
+      </c>
+      <c r="V45" t="s">
+        <v>20</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="N46" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q46">
+        <v>456</v>
+      </c>
+      <c r="U46" t="s">
+        <v>17</v>
+      </c>
+      <c r="V46" t="s">
+        <v>20</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="N47" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q47">
+        <v>456</v>
+      </c>
+      <c r="U47" t="s">
+        <v>17</v>
+      </c>
+      <c r="V47" t="s">
+        <v>20</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="N48" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q48">
+        <v>456</v>
+      </c>
+      <c r="U48" t="s">
+        <v>17</v>
+      </c>
+      <c r="V48" t="s">
+        <v>20</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="N49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q49">
+        <v>456</v>
+      </c>
+      <c r="U49" t="s">
+        <v>17</v>
+      </c>
+      <c r="V49" t="s">
+        <v>20</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="N50" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q50">
+        <v>456</v>
+      </c>
+      <c r="U50" t="s">
+        <v>17</v>
+      </c>
+      <c r="V50" t="s">
+        <v>20</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="N51" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q51">
+        <v>456</v>
+      </c>
+      <c r="U51" t="s">
+        <v>17</v>
+      </c>
+      <c r="V51" t="s">
+        <v>20</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="N52" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q52">
+        <v>456</v>
+      </c>
+      <c r="U52" t="s">
+        <v>17</v>
+      </c>
+      <c r="V52" t="s">
+        <v>20</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="N53" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q53">
+        <v>456</v>
+      </c>
+      <c r="U53" t="s">
+        <v>17</v>
+      </c>
+      <c r="V53" t="s">
+        <v>20</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="N54" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q54">
+        <v>456</v>
+      </c>
+      <c r="U54" t="s">
+        <v>17</v>
+      </c>
+      <c r="V54" t="s">
+        <v>20</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="N55" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q55">
+        <v>456</v>
+      </c>
+      <c r="U55" t="s">
+        <v>17</v>
+      </c>
+      <c r="V55" t="s">
+        <v>20</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
+      <c r="N56" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q56">
+        <v>456</v>
+      </c>
+      <c r="U56" t="s">
+        <v>17</v>
+      </c>
+      <c r="V56" t="s">
+        <v>20</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="N57" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q57">
+        <v>456</v>
+      </c>
+      <c r="U57" t="s">
+        <v>17</v>
+      </c>
+      <c r="V57" t="s">
+        <v>20</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+      <c r="N58" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q58">
+        <v>456</v>
+      </c>
+      <c r="U58" t="s">
+        <v>17</v>
+      </c>
+      <c r="V58" t="s">
+        <v>20</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="N59" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q59">
+        <v>456</v>
+      </c>
+      <c r="U59" t="s">
+        <v>17</v>
+      </c>
+      <c r="V59" t="s">
+        <v>20</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="N60" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q60">
+        <v>456</v>
+      </c>
+      <c r="U60" t="s">
+        <v>17</v>
+      </c>
+      <c r="V60" t="s">
+        <v>20</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+      <c r="N61" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q61">
+        <v>456</v>
+      </c>
+      <c r="U61" t="s">
+        <v>17</v>
+      </c>
+      <c r="V61" t="s">
+        <v>20</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62" t="s">
+        <v>95</v>
+      </c>
+      <c r="N62" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q62">
+        <v>456</v>
+      </c>
+      <c r="U62" t="s">
+        <v>17</v>
+      </c>
+      <c r="V62" t="s">
+        <v>20</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N63" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q63">
+        <v>456</v>
+      </c>
+      <c r="U63" t="s">
+        <v>17</v>
+      </c>
+      <c r="V63" t="s">
+        <v>20</v>
+      </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" t="s">
+        <v>95</v>
+      </c>
+      <c r="N64" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q64">
+        <v>456</v>
+      </c>
+      <c r="U64" t="s">
+        <v>17</v>
+      </c>
+      <c r="V64" t="s">
+        <v>20</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65" t="s">
+        <v>95</v>
+      </c>
+      <c r="N65" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q65">
+        <v>456</v>
+      </c>
+      <c r="U65" t="s">
+        <v>17</v>
+      </c>
+      <c r="V65" t="s">
+        <v>20</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" t="s">
+        <v>95</v>
+      </c>
+      <c r="N66" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q66">
+        <v>456</v>
+      </c>
+      <c r="U66" t="s">
+        <v>17</v>
+      </c>
+      <c r="V66" t="s">
+        <v>20</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" t="s">
+        <v>95</v>
+      </c>
+      <c r="N67" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q67">
+        <v>456</v>
+      </c>
+      <c r="U67" t="s">
+        <v>17</v>
+      </c>
+      <c r="V67" t="s">
+        <v>20</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F68" t="s">
+        <v>95</v>
+      </c>
+      <c r="N68" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q68">
+        <v>456</v>
+      </c>
+      <c r="U68" t="s">
+        <v>17</v>
+      </c>
+      <c r="V68" t="s">
+        <v>20</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" t="s">
+        <v>95</v>
+      </c>
+      <c r="N69" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q69">
+        <v>456</v>
+      </c>
+      <c r="U69" t="s">
+        <v>17</v>
+      </c>
+      <c r="V69" t="s">
+        <v>20</v>
+      </c>
+      <c r="W69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" t="s">
+        <v>95</v>
+      </c>
+      <c r="N70" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q70">
+        <v>456</v>
+      </c>
+      <c r="U70" t="s">
+        <v>17</v>
+      </c>
+      <c r="V70" t="s">
+        <v>20</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" t="s">
+        <v>95</v>
+      </c>
+      <c r="N71" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q71">
+        <v>456</v>
+      </c>
+      <c r="U71" t="s">
+        <v>17</v>
+      </c>
+      <c r="V71" t="s">
+        <v>20</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" t="s">
+        <v>95</v>
+      </c>
+      <c r="N72" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q72">
+        <v>456</v>
+      </c>
+      <c r="U72" t="s">
+        <v>17</v>
+      </c>
+      <c r="V72" t="s">
+        <v>20</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" t="s">
+        <v>95</v>
+      </c>
+      <c r="N73" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q73">
+        <v>456</v>
+      </c>
+      <c r="U73" t="s">
+        <v>17</v>
+      </c>
+      <c r="V73" t="s">
+        <v>20</v>
+      </c>
+      <c r="W73">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="X2" r:id="rId2"/>
+    <hyperlink ref="M3" r:id="rId3"/>
+    <hyperlink ref="X3" r:id="rId4"/>
+    <hyperlink ref="M4" r:id="rId5"/>
+    <hyperlink ref="X4" r:id="rId6"/>
+    <hyperlink ref="M5" r:id="rId7"/>
+    <hyperlink ref="X5" r:id="rId8"/>
+    <hyperlink ref="M6" r:id="rId9"/>
+    <hyperlink ref="X6" r:id="rId10"/>
+    <hyperlink ref="M7" r:id="rId11"/>
+    <hyperlink ref="X7" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S73"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="1" customWidth="1"/>
+    <col min="15" max="18" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="30">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="30">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2">
+        <v>9876543210</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2">
+        <v>107</v>
+      </c>
+      <c r="P2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3">
+        <v>9876543210</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O3">
+        <v>107</v>
+      </c>
+      <c r="P3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" t="s">
+        <v>148</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="30">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4">
+        <v>9876543210</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O4">
+        <v>107</v>
+      </c>
+      <c r="P4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>129</v>
+      </c>
+      <c r="R4" t="s">
+        <v>148</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5">
+        <v>9876543210</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O5">
+        <v>107</v>
+      </c>
+      <c r="P5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" t="s">
+        <v>148</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L6" t="s">
+        <v>182</v>
+      </c>
+      <c r="M6">
+        <v>9876543210</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O6">
+        <v>107</v>
+      </c>
+      <c r="P6" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>129</v>
+      </c>
+      <c r="R6" t="s">
+        <v>148</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="1">
+        <v>456</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="1">
+        <v>123</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="1">
+        <v>456</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="1">
+        <v>123</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="1">
+        <v>456</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="1">
+        <v>123</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="1">
+        <v>456</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="1">
+        <v>123</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="1">
+        <v>456</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="1">
+        <v>123</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="1">
+        <v>456</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="1">
+        <v>123</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="1">
+        <v>456</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="1">
+        <v>123</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" s="1">
+        <v>456</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" s="1">
+        <v>123</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" s="1">
+        <v>456</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="N24" s="1">
+        <v>123</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="N25" s="1">
+        <v>456</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="1">
+        <v>123</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="1">
+        <v>456</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="N28" s="1">
+        <v>123</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="N29" s="1">
+        <v>456</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30" s="1">
+        <v>456</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="N31" s="1">
+        <v>456</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32" s="1">
+        <v>456</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="N33" s="1">
+        <v>456</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="N34" s="1">
+        <v>456</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="N35" s="1">
+        <v>456</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="N36" s="1">
+        <v>456</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="N37" s="1">
+        <v>456</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="N38" s="1">
+        <v>456</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="N39" s="1">
+        <v>456</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N40" s="1">
+        <v>456</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="N41" s="1">
+        <v>456</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="N42" s="1">
+        <v>456</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="N43" s="1">
+        <v>456</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="N44" s="1">
+        <v>456</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="N45" s="1">
+        <v>456</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="N46" s="1">
+        <v>456</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="N47" s="1">
+        <v>456</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="N48" s="1">
+        <v>456</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="N49" s="1">
+        <v>456</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="N50" s="1">
+        <v>456</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="N51" s="1">
+        <v>456</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="N52" s="1">
+        <v>456</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="N53" s="1">
+        <v>456</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="N54" s="1">
+        <v>456</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="N55" s="1">
+        <v>456</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
+      <c r="N56" s="1">
+        <v>456</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="N57" s="1">
+        <v>456</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+      <c r="N58" s="1">
+        <v>456</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="N59" s="1">
+        <v>456</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="N60" s="1">
+        <v>456</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+      <c r="N61" s="1">
+        <v>456</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>94</v>
+      </c>
+      <c r="N62" s="1">
+        <v>456</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>94</v>
+      </c>
+      <c r="N63" s="1">
+        <v>456</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
+      <c r="N64" s="1">
+        <v>456</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="N65" s="1">
+        <v>456</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="N66" s="1">
+        <v>456</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>94</v>
+      </c>
+      <c r="N67" s="1">
+        <v>456</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>94</v>
+      </c>
+      <c r="N68" s="1">
+        <v>456</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+      <c r="N69" s="1">
+        <v>456</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>94</v>
+      </c>
+      <c r="N70" s="1">
+        <v>456</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" t="s">
+        <v>94</v>
+      </c>
+      <c r="N71" s="1">
+        <v>456</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>94</v>
+      </c>
+      <c r="N72" s="1">
+        <v>456</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
+      <c r="N73" s="1">
+        <v>456</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="N3" r:id="rId4"/>
+    <hyperlink ref="J4" r:id="rId5"/>
+    <hyperlink ref="N4" r:id="rId6"/>
+    <hyperlink ref="J5" r:id="rId7"/>
+    <hyperlink ref="N5" r:id="rId8"/>
+    <hyperlink ref="J6" r:id="rId9"/>
+    <hyperlink ref="N6" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+</worksheet>
 </file>
--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ConsignmentID" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="196">
   <si>
     <t>RunToTest</t>
   </si>
@@ -588,6 +588,33 @@
   </si>
   <si>
     <t>UAT42092199</t>
+  </si>
+  <si>
+    <t>UAT08000106</t>
+  </si>
+  <si>
+    <t>TestLast12</t>
+  </si>
+  <si>
+    <t>Nasreen11</t>
+  </si>
+  <si>
+    <t>UAT07000105</t>
+  </si>
+  <si>
+    <t>FNAutomation11</t>
+  </si>
+  <si>
+    <t>LNAutomation12</t>
+  </si>
+  <si>
+    <t>UAT42092202</t>
+  </si>
+  <si>
+    <t>UAT42092203</t>
+  </si>
+  <si>
+    <t>UAT42092204</t>
   </si>
 </sst>
 </file>
@@ -924,11 +951,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3685,7 +3712,7 @@
     </row>
     <row r="78" spans="1:13" ht="13.5" customHeight="1">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
         <v>186</v>
@@ -3721,6 +3748,129 @@
         <v>1</v>
       </c>
       <c r="M78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" t="s">
+        <v>95</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" t="s">
+        <v>96</v>
+      </c>
+      <c r="I79">
+        <v>456</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" t="s">
+        <v>173</v>
+      </c>
+      <c r="E80" t="s">
+        <v>170</v>
+      </c>
+      <c r="F80" t="s">
+        <v>95</v>
+      </c>
+      <c r="G80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" t="s">
+        <v>96</v>
+      </c>
+      <c r="I80">
+        <v>456</v>
+      </c>
+      <c r="J80" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81" t="s">
+        <v>170</v>
+      </c>
+      <c r="F81" t="s">
+        <v>95</v>
+      </c>
+      <c r="G81" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" t="s">
+        <v>96</v>
+      </c>
+      <c r="I81">
+        <v>456</v>
+      </c>
+      <c r="J81" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3734,9 +3884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="20100" topLeftCell="X1"/>
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H8" sqref="H8"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -4202,7 +4352,7 @@
     </row>
     <row r="7" spans="1:24" ht="45">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>183</v>
@@ -4274,27 +4424,78 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" ht="45">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" t="s">
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>123</v>
       </c>
+      <c r="R8">
+        <v>987545555555555</v>
+      </c>
+      <c r="S8" t="s">
+        <v>124</v>
+      </c>
+      <c r="T8">
+        <v>1.11188888888888E+18</v>
+      </c>
       <c r="U8" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="V8" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="W8">
         <v>1</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -5842,9 +6043,11 @@
     <hyperlink ref="X6" r:id="rId10"/>
     <hyperlink ref="M7" r:id="rId11"/>
     <hyperlink ref="X7" r:id="rId12"/>
+    <hyperlink ref="M8" r:id="rId13"/>
+    <hyperlink ref="X8" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -5852,8 +6055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6167,7 +6370,7 @@
     </row>
     <row r="6" spans="1:19" ht="30">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>180</v>
@@ -6224,18 +6427,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" ht="30">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7">
+        <v>9876543210</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O7">
+        <v>107</v>
+      </c>
+      <c r="P7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R7" t="s">
+        <v>148</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -7174,8 +7422,10 @@
     <hyperlink ref="N5" r:id="rId8"/>
     <hyperlink ref="J6" r:id="rId9"/>
     <hyperlink ref="N6" r:id="rId10"/>
+    <hyperlink ref="J7" r:id="rId11"/>
+    <hyperlink ref="N7" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="ConsignmentID" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="209">
   <si>
     <t>RunToTest</t>
   </si>
@@ -615,6 +615,45 @@
   </si>
   <si>
     <t>UAT42092204</t>
+  </si>
+  <si>
+    <t>UAT42092205</t>
+  </si>
+  <si>
+    <t>UAT08000107</t>
+  </si>
+  <si>
+    <t>UAT07000106</t>
+  </si>
+  <si>
+    <t>FNAutomation12</t>
+  </si>
+  <si>
+    <t>LNAutomation13</t>
+  </si>
+  <si>
+    <t>Nasreen13</t>
+  </si>
+  <si>
+    <t>TestLast14</t>
+  </si>
+  <si>
+    <t>Nasreen14</t>
+  </si>
+  <si>
+    <t>TestLast15</t>
+  </si>
+  <si>
+    <t>UAT07000107</t>
+  </si>
+  <si>
+    <t>FNAutomation13</t>
+  </si>
+  <si>
+    <t>LNAutomation14</t>
+  </si>
+  <si>
+    <t>UAT42092206</t>
   </si>
 </sst>
 </file>
@@ -943,7 +982,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -951,11 +990,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3835,7 +3874,7 @@
     </row>
     <row r="81" spans="1:13" ht="13.5" customHeight="1">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
         <v>195</v>
@@ -3871,6 +3910,88 @@
         <v>1</v>
       </c>
       <c r="M81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" t="s">
+        <v>170</v>
+      </c>
+      <c r="F82" t="s">
+        <v>95</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" t="s">
+        <v>96</v>
+      </c>
+      <c r="I82">
+        <v>456</v>
+      </c>
+      <c r="J82" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" t="s">
+        <v>170</v>
+      </c>
+      <c r="F83" t="s">
+        <v>95</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" t="s">
+        <v>96</v>
+      </c>
+      <c r="I83">
+        <v>456</v>
+      </c>
+      <c r="J83" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3884,9 +4005,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="20100" topLeftCell="X1"/>
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I10" sqref="I10"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -4426,7 +4547,7 @@
     </row>
     <row r="8" spans="1:24" ht="45">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>187</v>
@@ -4498,50 +4619,152 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" ht="45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
+      <c r="B9" t="s">
+        <v>197</v>
+      </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" t="s">
+        <v>202</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N9" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" t="s">
+        <v>121</v>
       </c>
       <c r="Q9">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R9">
+        <v>987545555555555</v>
+      </c>
+      <c r="S9" t="s">
+        <v>124</v>
+      </c>
+      <c r="T9">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U9" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V9" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="X9" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="45">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" t="s">
+        <v>204</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N10" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" t="s">
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>123</v>
       </c>
+      <c r="R10">
+        <v>987545555555555</v>
+      </c>
+      <c r="S10" t="s">
+        <v>124</v>
+      </c>
+      <c r="T10">
+        <v>1.11188888888888E+18</v>
+      </c>
       <c r="U10" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="V10" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="W10">
         <v>1</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -6045,9 +6268,13 @@
     <hyperlink ref="X7" r:id="rId12"/>
     <hyperlink ref="M8" r:id="rId13"/>
     <hyperlink ref="X8" r:id="rId14"/>
+    <hyperlink ref="M9" r:id="rId15"/>
+    <hyperlink ref="X9" r:id="rId16"/>
+    <hyperlink ref="M10" r:id="rId17"/>
+    <hyperlink ref="X10" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -6055,8 +6282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6429,7 +6656,7 @@
     </row>
     <row r="7" spans="1:19" ht="30">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>190</v>
@@ -6486,32 +6713,122 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" ht="30">
       <c r="A8" t="s">
         <v>28</v>
       </c>
+      <c r="B8" t="s">
+        <v>198</v>
+      </c>
       <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="N8" s="1">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M8">
+        <v>9876543210</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O8">
+        <v>107</v>
+      </c>
+      <c r="P8" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>129</v>
+      </c>
+      <c r="R8" t="s">
+        <v>148</v>
       </c>
       <c r="S8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9">
+        <v>9876543210</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O9">
+        <v>107</v>
+      </c>
+      <c r="P9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>129</v>
+      </c>
+      <c r="R9" t="s">
+        <v>148</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7424,8 +7741,12 @@
     <hyperlink ref="N6" r:id="rId10"/>
     <hyperlink ref="J7" r:id="rId11"/>
     <hyperlink ref="N7" r:id="rId12"/>
+    <hyperlink ref="J8" r:id="rId13"/>
+    <hyperlink ref="N8" r:id="rId14"/>
+    <hyperlink ref="J9" r:id="rId15"/>
+    <hyperlink ref="N9" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
 </worksheet>
 </file>
--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="223">
   <si>
     <t>RunToTest</t>
   </si>
@@ -654,6 +654,48 @@
   </si>
   <si>
     <t>UAT42092206</t>
+  </si>
+  <si>
+    <t>UAT42092207</t>
+  </si>
+  <si>
+    <t>UAT08000108</t>
+  </si>
+  <si>
+    <t>Nasreen15</t>
+  </si>
+  <si>
+    <t>TestLast16</t>
+  </si>
+  <si>
+    <t>UAT07000108</t>
+  </si>
+  <si>
+    <t>FNAutomation14</t>
+  </si>
+  <si>
+    <t>LNAutomation15</t>
+  </si>
+  <si>
+    <t>UAT07000109</t>
+  </si>
+  <si>
+    <t>FNAutomation15</t>
+  </si>
+  <si>
+    <t>LNAutomation16</t>
+  </si>
+  <si>
+    <t>UAT08000109</t>
+  </si>
+  <si>
+    <t>Nasreen16</t>
+  </si>
+  <si>
+    <t>TestLast17</t>
+  </si>
+  <si>
+    <t>UAT42092208</t>
   </si>
 </sst>
 </file>
@@ -982,7 +1024,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -990,11 +1032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3956,7 +3998,7 @@
     </row>
     <row r="83" spans="1:13" ht="13.5" customHeight="1">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
         <v>208</v>
@@ -3992,6 +4034,88 @@
         <v>1</v>
       </c>
       <c r="M83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84" t="s">
+        <v>170</v>
+      </c>
+      <c r="F84" t="s">
+        <v>95</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" t="s">
+        <v>96</v>
+      </c>
+      <c r="I84">
+        <v>456</v>
+      </c>
+      <c r="J84" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" t="s">
+        <v>173</v>
+      </c>
+      <c r="E85" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" t="s">
+        <v>95</v>
+      </c>
+      <c r="G85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" t="s">
+        <v>96</v>
+      </c>
+      <c r="I85">
+        <v>456</v>
+      </c>
+      <c r="J85" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4007,7 +4131,7 @@
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="20100" topLeftCell="X1"/>
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I12" sqref="I12"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -4695,7 +4819,7 @@
     </row>
     <row r="10" spans="1:24" ht="45">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>197</v>
@@ -4767,50 +4891,152 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" ht="45">
       <c r="A11" t="s">
         <v>28</v>
       </c>
+      <c r="B11" t="s">
+        <v>210</v>
+      </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N11" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="O11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" t="s">
+        <v>121</v>
       </c>
       <c r="Q11">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R11">
+        <v>987545555555555</v>
+      </c>
+      <c r="S11" t="s">
+        <v>124</v>
+      </c>
+      <c r="T11">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U11" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V11" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="X11" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="45">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N12" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O12" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" t="s">
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>123</v>
       </c>
+      <c r="R12">
+        <v>987545555555555</v>
+      </c>
+      <c r="S12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T12">
+        <v>1.11188888888888E+18</v>
+      </c>
       <c r="U12" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="V12" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="W12">
         <v>1</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -6272,9 +6498,13 @@
     <hyperlink ref="X9" r:id="rId16"/>
     <hyperlink ref="M10" r:id="rId17"/>
     <hyperlink ref="X10" r:id="rId18"/>
+    <hyperlink ref="M11" r:id="rId19"/>
+    <hyperlink ref="X11" r:id="rId20"/>
+    <hyperlink ref="M12" r:id="rId21"/>
+    <hyperlink ref="X12" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -6282,8 +6512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6774,7 +7004,7 @@
     </row>
     <row r="9" spans="1:19" ht="30">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>205</v>
@@ -6831,32 +7061,122 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" t="s">
         <v>28</v>
       </c>
+      <c r="B10" t="s">
+        <v>213</v>
+      </c>
       <c r="C10" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" s="1">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" t="s">
+        <v>214</v>
+      </c>
+      <c r="L10" t="s">
+        <v>215</v>
+      </c>
+      <c r="M10">
+        <v>9876543210</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O10">
+        <v>107</v>
+      </c>
+      <c r="P10" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>129</v>
+      </c>
+      <c r="R10" t="s">
+        <v>148</v>
       </c>
       <c r="S10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
-      </c>
-      <c r="N11" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>217</v>
+      </c>
+      <c r="L11" t="s">
+        <v>218</v>
+      </c>
+      <c r="M11">
+        <v>9876543210</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O11">
+        <v>107</v>
+      </c>
+      <c r="P11" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>129</v>
+      </c>
+      <c r="R11" t="s">
+        <v>148</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7745,8 +8065,12 @@
     <hyperlink ref="N8" r:id="rId14"/>
     <hyperlink ref="J9" r:id="rId15"/>
     <hyperlink ref="N9" r:id="rId16"/>
+    <hyperlink ref="J10" r:id="rId17"/>
+    <hyperlink ref="N10" r:id="rId18"/>
+    <hyperlink ref="J11" r:id="rId19"/>
+    <hyperlink ref="N11" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
 </worksheet>
 </file>
--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConsignmentID" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="315">
   <si>
     <t>RunToTest</t>
   </si>
@@ -696,6 +696,282 @@
   </si>
   <si>
     <t>UAT42092208</t>
+  </si>
+  <si>
+    <t>UAT42092209</t>
+  </si>
+  <si>
+    <t>UAT08000110</t>
+  </si>
+  <si>
+    <t>TestLast18</t>
+  </si>
+  <si>
+    <t>Nasreen17</t>
+  </si>
+  <si>
+    <t>FNAutomation16</t>
+  </si>
+  <si>
+    <t>LNAutomation17</t>
+  </si>
+  <si>
+    <t>UAT42092210</t>
+  </si>
+  <si>
+    <t>UAT42092211</t>
+  </si>
+  <si>
+    <t>UAT42092212</t>
+  </si>
+  <si>
+    <t>UAT42092213</t>
+  </si>
+  <si>
+    <t>UAT42092214</t>
+  </si>
+  <si>
+    <t>UAT42092215</t>
+  </si>
+  <si>
+    <t>UAT42092216</t>
+  </si>
+  <si>
+    <t>UAT42092217</t>
+  </si>
+  <si>
+    <t>UAT42092218</t>
+  </si>
+  <si>
+    <t>UAT42092219</t>
+  </si>
+  <si>
+    <t>UAT42092220</t>
+  </si>
+  <si>
+    <t>UAT08000111</t>
+  </si>
+  <si>
+    <t>UAT08000112</t>
+  </si>
+  <si>
+    <t>UAT08000113</t>
+  </si>
+  <si>
+    <t>UAT08000114</t>
+  </si>
+  <si>
+    <t>UAT08000115</t>
+  </si>
+  <si>
+    <t>UAT08000116</t>
+  </si>
+  <si>
+    <t>UAT08000117</t>
+  </si>
+  <si>
+    <t>UAT08000118</t>
+  </si>
+  <si>
+    <t>UAT08000119</t>
+  </si>
+  <si>
+    <t>UAT08000120</t>
+  </si>
+  <si>
+    <t>UAT08000121</t>
+  </si>
+  <si>
+    <t>UAT08000122</t>
+  </si>
+  <si>
+    <t>UAT08000123</t>
+  </si>
+  <si>
+    <t>TestLast19</t>
+  </si>
+  <si>
+    <t>TestLast20</t>
+  </si>
+  <si>
+    <t>TestLast21</t>
+  </si>
+  <si>
+    <t>TestLast22</t>
+  </si>
+  <si>
+    <t>TestLast23</t>
+  </si>
+  <si>
+    <t>TestLast24</t>
+  </si>
+  <si>
+    <t>TestLast25</t>
+  </si>
+  <si>
+    <t>TestLast26</t>
+  </si>
+  <si>
+    <t>TestLast27</t>
+  </si>
+  <si>
+    <t>TestLast28</t>
+  </si>
+  <si>
+    <t>TestLast29</t>
+  </si>
+  <si>
+    <t>TestLast30</t>
+  </si>
+  <si>
+    <t>TestLast31</t>
+  </si>
+  <si>
+    <t>Nasreen18</t>
+  </si>
+  <si>
+    <t>Nasreen19</t>
+  </si>
+  <si>
+    <t>Nasreen20</t>
+  </si>
+  <si>
+    <t>Nasreen21</t>
+  </si>
+  <si>
+    <t>Nasreen22</t>
+  </si>
+  <si>
+    <t>Nasreen23</t>
+  </si>
+  <si>
+    <t>Nasreen24</t>
+  </si>
+  <si>
+    <t>Nasreen25</t>
+  </si>
+  <si>
+    <t>Nasreen26</t>
+  </si>
+  <si>
+    <t>Nasreen27</t>
+  </si>
+  <si>
+    <t>Nasreen28</t>
+  </si>
+  <si>
+    <t>Nasreen29</t>
+  </si>
+  <si>
+    <t>Nasreen30</t>
+  </si>
+  <si>
+    <t>UAT07000110</t>
+  </si>
+  <si>
+    <t>UAT07000111</t>
+  </si>
+  <si>
+    <t>UAT07000112</t>
+  </si>
+  <si>
+    <t>UAT07000113</t>
+  </si>
+  <si>
+    <t>UAT07000114</t>
+  </si>
+  <si>
+    <t>UAT07000115</t>
+  </si>
+  <si>
+    <t>UAT07000116</t>
+  </si>
+  <si>
+    <t>UAT07000117</t>
+  </si>
+  <si>
+    <t>UAT07000118</t>
+  </si>
+  <si>
+    <t>UAT07000119</t>
+  </si>
+  <si>
+    <t>UAT07000120</t>
+  </si>
+  <si>
+    <t>UAT07000121</t>
+  </si>
+  <si>
+    <t>FNAutomation17</t>
+  </si>
+  <si>
+    <t>FNAutomation18</t>
+  </si>
+  <si>
+    <t>FNAutomation19</t>
+  </si>
+  <si>
+    <t>FNAutomation20</t>
+  </si>
+  <si>
+    <t>FNAutomation21</t>
+  </si>
+  <si>
+    <t>FNAutomation22</t>
+  </si>
+  <si>
+    <t>FNAutomation23</t>
+  </si>
+  <si>
+    <t>FNAutomation24</t>
+  </si>
+  <si>
+    <t>FNAutomation25</t>
+  </si>
+  <si>
+    <t>FNAutomation26</t>
+  </si>
+  <si>
+    <t>FNAutomation27</t>
+  </si>
+  <si>
+    <t>FNAutomation28</t>
+  </si>
+  <si>
+    <t>LNAutomation18</t>
+  </si>
+  <si>
+    <t>LNAutomation19</t>
+  </si>
+  <si>
+    <t>LNAutomation20</t>
+  </si>
+  <si>
+    <t>LNAutomation21</t>
+  </si>
+  <si>
+    <t>LNAutomation22</t>
+  </si>
+  <si>
+    <t>LNAutomation23</t>
+  </si>
+  <si>
+    <t>LNAutomation24</t>
+  </si>
+  <si>
+    <t>LNAutomation25</t>
+  </si>
+  <si>
+    <t>LNAutomation26</t>
+  </si>
+  <si>
+    <t>LNAutomation27</t>
+  </si>
+  <si>
+    <t>LNAutomation28</t>
+  </si>
+  <si>
+    <t>LNAutomation29</t>
   </si>
 </sst>
 </file>
@@ -1032,11 +1308,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4119,6 +4395,536 @@
         <v>23</v>
       </c>
     </row>
+    <row r="86" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" t="s">
+        <v>96</v>
+      </c>
+      <c r="I86">
+        <v>456</v>
+      </c>
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" t="s">
+        <v>223</v>
+      </c>
+      <c r="C87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
+        <v>95</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" t="s">
+        <v>96</v>
+      </c>
+      <c r="I87">
+        <v>456</v>
+      </c>
+      <c r="J87" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>229</v>
+      </c>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" t="s">
+        <v>173</v>
+      </c>
+      <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
+        <v>95</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" t="s">
+        <v>96</v>
+      </c>
+      <c r="I88">
+        <v>456</v>
+      </c>
+      <c r="J88" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
+        <v>95</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" t="s">
+        <v>96</v>
+      </c>
+      <c r="I89">
+        <v>456</v>
+      </c>
+      <c r="J89" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" t="s">
+        <v>231</v>
+      </c>
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" t="s">
+        <v>173</v>
+      </c>
+      <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
+        <v>95</v>
+      </c>
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" t="s">
+        <v>96</v>
+      </c>
+      <c r="I90">
+        <v>456</v>
+      </c>
+      <c r="J90" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" t="s">
+        <v>20</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" t="s">
+        <v>232</v>
+      </c>
+      <c r="C91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" t="s">
+        <v>95</v>
+      </c>
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" t="s">
+        <v>96</v>
+      </c>
+      <c r="I91">
+        <v>456</v>
+      </c>
+      <c r="J91" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" t="s">
+        <v>20</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>233</v>
+      </c>
+      <c r="C92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" t="s">
+        <v>173</v>
+      </c>
+      <c r="E92" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" t="s">
+        <v>95</v>
+      </c>
+      <c r="G92" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" t="s">
+        <v>96</v>
+      </c>
+      <c r="I92">
+        <v>456</v>
+      </c>
+      <c r="J92" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" t="s">
+        <v>20</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" t="s">
+        <v>173</v>
+      </c>
+      <c r="E93" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" t="s">
+        <v>95</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" t="s">
+        <v>96</v>
+      </c>
+      <c r="I93">
+        <v>456</v>
+      </c>
+      <c r="J93" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" t="s">
+        <v>173</v>
+      </c>
+      <c r="E94" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94" t="s">
+        <v>95</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" t="s">
+        <v>96</v>
+      </c>
+      <c r="I94">
+        <v>456</v>
+      </c>
+      <c r="J94" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" t="s">
+        <v>20</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B95" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" t="s">
+        <v>173</v>
+      </c>
+      <c r="E95" t="s">
+        <v>170</v>
+      </c>
+      <c r="F95" t="s">
+        <v>95</v>
+      </c>
+      <c r="G95" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" t="s">
+        <v>96</v>
+      </c>
+      <c r="I95">
+        <v>456</v>
+      </c>
+      <c r="J95" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" t="s">
+        <v>20</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" t="s">
+        <v>173</v>
+      </c>
+      <c r="E96" t="s">
+        <v>170</v>
+      </c>
+      <c r="F96" t="s">
+        <v>95</v>
+      </c>
+      <c r="G96" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" t="s">
+        <v>96</v>
+      </c>
+      <c r="I96">
+        <v>456</v>
+      </c>
+      <c r="J96" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" t="s">
+        <v>173</v>
+      </c>
+      <c r="E97" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97" t="s">
+        <v>95</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" t="s">
+        <v>96</v>
+      </c>
+      <c r="I97">
+        <v>456</v>
+      </c>
+      <c r="J97" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F98" t="s">
+        <v>95</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" t="s">
+        <v>96</v>
+      </c>
+      <c r="I98">
+        <v>456</v>
+      </c>
+      <c r="J98" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" t="s">
+        <v>20</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4129,9 +4935,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <pane xSplit="20100" topLeftCell="X1"/>
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A22" sqref="A22"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -5039,329 +5845,1040 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" ht="45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
+      <c r="B13" t="s">
+        <v>224</v>
+      </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N13" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="O13" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" t="s">
+        <v>121</v>
       </c>
       <c r="Q13">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R13">
+        <v>987545555555555</v>
+      </c>
+      <c r="S13" t="s">
+        <v>124</v>
+      </c>
+      <c r="T13">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U13" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V13" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="X13" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="45">
       <c r="A14" t="s">
         <v>28</v>
       </c>
+      <c r="B14" t="s">
+        <v>240</v>
+      </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" t="s">
+        <v>253</v>
+      </c>
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N14" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O14" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" t="s">
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>123</v>
       </c>
+      <c r="R14">
+        <v>987545555555555</v>
+      </c>
+      <c r="S14" t="s">
+        <v>124</v>
+      </c>
+      <c r="T14">
+        <v>1.11188888888888E+18</v>
+      </c>
       <c r="U14" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="V14" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="W14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="X14" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="45">
       <c r="A15" t="s">
         <v>28</v>
       </c>
+      <c r="B15" t="s">
+        <v>241</v>
+      </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" t="s">
+        <v>254</v>
+      </c>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N15" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="O15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P15" t="s">
+        <v>121</v>
       </c>
       <c r="Q15">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R15">
+        <v>987545555555555</v>
+      </c>
+      <c r="S15" t="s">
+        <v>124</v>
+      </c>
+      <c r="T15">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U15" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V15" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="X15" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
+      <c r="B16" t="s">
+        <v>242</v>
+      </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" t="s">
+        <v>268</v>
+      </c>
+      <c r="I16" t="s">
+        <v>255</v>
+      </c>
+      <c r="J16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N16" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O16" t="s">
+        <v>119</v>
+      </c>
+      <c r="P16" t="s">
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>123</v>
       </c>
+      <c r="R16">
+        <v>987545555555555</v>
+      </c>
+      <c r="S16" t="s">
+        <v>124</v>
+      </c>
+      <c r="T16">
+        <v>1.11188888888888E+18</v>
+      </c>
       <c r="U16" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="V16" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="W16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="45">
       <c r="A17" t="s">
         <v>28</v>
       </c>
+      <c r="B17" t="s">
+        <v>243</v>
+      </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17" t="s">
+        <v>256</v>
+      </c>
+      <c r="J17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N17" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="O17" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" t="s">
+        <v>121</v>
       </c>
       <c r="Q17">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R17">
+        <v>987545555555555</v>
+      </c>
+      <c r="S17" t="s">
+        <v>124</v>
+      </c>
+      <c r="T17">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U17" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V17" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="45">
       <c r="A18" t="s">
         <v>28</v>
       </c>
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" t="s">
+        <v>270</v>
+      </c>
+      <c r="I18" t="s">
+        <v>257</v>
+      </c>
+      <c r="J18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N18" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O18" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" t="s">
+        <v>121</v>
       </c>
       <c r="Q18">
         <v>123</v>
       </c>
+      <c r="R18">
+        <v>987545555555555</v>
+      </c>
+      <c r="S18" t="s">
+        <v>124</v>
+      </c>
+      <c r="T18">
+        <v>1.11188888888888E+18</v>
+      </c>
       <c r="U18" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="V18" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="W18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="45">
       <c r="A19" t="s">
         <v>28</v>
       </c>
+      <c r="B19" t="s">
+        <v>245</v>
+      </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
+        <v>271</v>
+      </c>
+      <c r="I19" t="s">
+        <v>258</v>
+      </c>
+      <c r="J19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N19" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="O19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" t="s">
+        <v>121</v>
       </c>
       <c r="Q19">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R19">
+        <v>987545555555555</v>
+      </c>
+      <c r="S19" t="s">
+        <v>124</v>
+      </c>
+      <c r="T19">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U19" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V19" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="45">
       <c r="A20" t="s">
         <v>28</v>
       </c>
+      <c r="B20" t="s">
+        <v>246</v>
+      </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" t="s">
+        <v>272</v>
+      </c>
+      <c r="I20" t="s">
+        <v>259</v>
+      </c>
+      <c r="J20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N20" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" t="s">
+        <v>121</v>
       </c>
       <c r="Q20">
         <v>123</v>
       </c>
+      <c r="R20">
+        <v>987545555555555</v>
+      </c>
+      <c r="S20" t="s">
+        <v>124</v>
+      </c>
+      <c r="T20">
+        <v>1.11188888888888E+18</v>
+      </c>
       <c r="U20" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="V20" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="W20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="45">
       <c r="A21" t="s">
         <v>28</v>
       </c>
+      <c r="B21" t="s">
+        <v>247</v>
+      </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" t="s">
+        <v>273</v>
+      </c>
+      <c r="I21" t="s">
+        <v>260</v>
+      </c>
+      <c r="J21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L21" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N21" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="O21" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" t="s">
+        <v>121</v>
       </c>
       <c r="Q21">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R21">
+        <v>987545555555555</v>
+      </c>
+      <c r="S21" t="s">
+        <v>124</v>
+      </c>
+      <c r="T21">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U21" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V21" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" t="s">
-        <v>28</v>
+      <c r="X21" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="45">
+      <c r="B22" t="s">
+        <v>248</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" t="s">
+        <v>274</v>
+      </c>
+      <c r="I22" t="s">
+        <v>261</v>
+      </c>
+      <c r="J22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N22" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O22" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" t="s">
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>123</v>
       </c>
+      <c r="R22">
+        <v>987545555555555</v>
+      </c>
+      <c r="S22" t="s">
+        <v>124</v>
+      </c>
+      <c r="T22">
+        <v>1.11188888888888E+18</v>
+      </c>
       <c r="U22" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="V22" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="W22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="45">
       <c r="A23" t="s">
         <v>28</v>
       </c>
+      <c r="B23" t="s">
+        <v>249</v>
+      </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" t="s">
+        <v>275</v>
+      </c>
+      <c r="I23" t="s">
+        <v>262</v>
+      </c>
+      <c r="J23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N23" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="O23" t="s">
+        <v>119</v>
+      </c>
+      <c r="P23" t="s">
+        <v>121</v>
       </c>
       <c r="Q23">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R23">
+        <v>987545555555555</v>
+      </c>
+      <c r="S23" t="s">
+        <v>124</v>
+      </c>
+      <c r="T23">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U23" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V23" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="45">
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="B24" t="s">
+        <v>250</v>
+      </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" t="s">
+        <v>276</v>
+      </c>
+      <c r="I24" t="s">
+        <v>263</v>
+      </c>
+      <c r="J24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N24" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O24" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" t="s">
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>123</v>
       </c>
+      <c r="R24">
+        <v>987545555555555</v>
+      </c>
+      <c r="S24" t="s">
+        <v>124</v>
+      </c>
+      <c r="T24">
+        <v>1.11188888888888E+18</v>
+      </c>
       <c r="U24" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="V24" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="W24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="45">
       <c r="A25" t="s">
         <v>28</v>
       </c>
+      <c r="B25" t="s">
+        <v>251</v>
+      </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" t="s">
+        <v>264</v>
+      </c>
+      <c r="J25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N25" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="O25" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" t="s">
+        <v>121</v>
       </c>
       <c r="Q25">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R25">
+        <v>987545555555555</v>
+      </c>
+      <c r="S25" t="s">
+        <v>124</v>
+      </c>
+      <c r="T25">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U25" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V25" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="45">
       <c r="A26" t="s">
         <v>28</v>
       </c>
+      <c r="B26" t="s">
+        <v>252</v>
+      </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" t="s">
+        <v>278</v>
+      </c>
+      <c r="I26" t="s">
+        <v>265</v>
+      </c>
+      <c r="J26" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N26" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O26" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" t="s">
+        <v>121</v>
       </c>
       <c r="Q26">
         <v>123</v>
       </c>
+      <c r="R26">
+        <v>987545555555555</v>
+      </c>
+      <c r="S26" t="s">
+        <v>124</v>
+      </c>
+      <c r="T26">
+        <v>1.11188888888888E+18</v>
+      </c>
       <c r="U26" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="V26" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="W26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -5384,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -5407,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5430,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5453,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -5476,7 +6993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -6502,9 +8019,37 @@
     <hyperlink ref="X11" r:id="rId20"/>
     <hyperlink ref="M12" r:id="rId21"/>
     <hyperlink ref="X12" r:id="rId22"/>
+    <hyperlink ref="M13" r:id="rId23"/>
+    <hyperlink ref="X13" r:id="rId24"/>
+    <hyperlink ref="M14" r:id="rId25"/>
+    <hyperlink ref="M15" r:id="rId26"/>
+    <hyperlink ref="M16" r:id="rId27"/>
+    <hyperlink ref="M17" r:id="rId28"/>
+    <hyperlink ref="M18" r:id="rId29"/>
+    <hyperlink ref="M19" r:id="rId30"/>
+    <hyperlink ref="M20" r:id="rId31"/>
+    <hyperlink ref="M21" r:id="rId32"/>
+    <hyperlink ref="M22" r:id="rId33"/>
+    <hyperlink ref="M23" r:id="rId34"/>
+    <hyperlink ref="M24" r:id="rId35"/>
+    <hyperlink ref="M25" r:id="rId36"/>
+    <hyperlink ref="M26" r:id="rId37"/>
+    <hyperlink ref="X14" r:id="rId38"/>
+    <hyperlink ref="X15" r:id="rId39"/>
+    <hyperlink ref="X16" r:id="rId40"/>
+    <hyperlink ref="X17" r:id="rId41"/>
+    <hyperlink ref="X18" r:id="rId42"/>
+    <hyperlink ref="X19" r:id="rId43"/>
+    <hyperlink ref="X20" r:id="rId44"/>
+    <hyperlink ref="X21" r:id="rId45"/>
+    <hyperlink ref="X22" r:id="rId46"/>
+    <hyperlink ref="X23" r:id="rId47"/>
+    <hyperlink ref="X24" r:id="rId48"/>
+    <hyperlink ref="X25" r:id="rId49"/>
+    <hyperlink ref="X26" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>
 </worksheet>
 </file>
 
@@ -6512,8 +8057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7122,7 +8667,7 @@
     </row>
     <row r="11" spans="1:19" ht="30">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>216</v>
@@ -7179,186 +8724,768 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" ht="30">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
-      </c>
-      <c r="N12" s="1">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>227</v>
+      </c>
+      <c r="L12" t="s">
+        <v>228</v>
+      </c>
+      <c r="M12">
+        <v>9876543210</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O12">
+        <v>107</v>
+      </c>
+      <c r="P12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>129</v>
+      </c>
+      <c r="R12" t="s">
+        <v>148</v>
       </c>
       <c r="S12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="30">
       <c r="A13" t="s">
         <v>28</v>
       </c>
+      <c r="B13" t="s">
+        <v>279</v>
+      </c>
       <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>291</v>
+      </c>
+      <c r="L13" t="s">
+        <v>303</v>
+      </c>
+      <c r="M13">
+        <v>9876543210</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O13">
+        <v>107</v>
+      </c>
+      <c r="P13" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>129</v>
+      </c>
+      <c r="R13" t="s">
+        <v>148</v>
       </c>
       <c r="S13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30">
       <c r="A14" t="s">
         <v>28</v>
       </c>
+      <c r="B14" t="s">
+        <v>280</v>
+      </c>
       <c r="C14" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="1">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>292</v>
+      </c>
+      <c r="L14" t="s">
+        <v>304</v>
+      </c>
+      <c r="M14">
+        <v>9876543210</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14">
+        <v>107</v>
+      </c>
+      <c r="P14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>129</v>
+      </c>
+      <c r="R14" t="s">
+        <v>148</v>
       </c>
       <c r="S14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="30">
       <c r="A15" t="s">
         <v>28</v>
       </c>
+      <c r="B15" t="s">
+        <v>281</v>
+      </c>
       <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>293</v>
+      </c>
+      <c r="L15" t="s">
+        <v>305</v>
+      </c>
+      <c r="M15">
+        <v>9876543210</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15">
+        <v>107</v>
+      </c>
+      <c r="P15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>129</v>
+      </c>
+      <c r="R15" t="s">
+        <v>148</v>
       </c>
       <c r="S15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30">
       <c r="A16" t="s">
         <v>28</v>
       </c>
+      <c r="B16" t="s">
+        <v>282</v>
+      </c>
       <c r="C16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N16" s="1">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>294</v>
+      </c>
+      <c r="L16" t="s">
+        <v>306</v>
+      </c>
+      <c r="M16">
+        <v>9876543210</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16">
+        <v>107</v>
+      </c>
+      <c r="P16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>129</v>
+      </c>
+      <c r="R16" t="s">
+        <v>148</v>
       </c>
       <c r="S16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="30">
       <c r="A17" t="s">
         <v>28</v>
       </c>
+      <c r="B17" t="s">
+        <v>283</v>
+      </c>
       <c r="C17" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s">
+        <v>295</v>
+      </c>
+      <c r="L17" t="s">
+        <v>307</v>
+      </c>
+      <c r="M17">
+        <v>9876543210</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17">
+        <v>107</v>
+      </c>
+      <c r="P17" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>129</v>
+      </c>
+      <c r="R17" t="s">
+        <v>148</v>
       </c>
       <c r="S17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="30">
       <c r="A18" t="s">
         <v>28</v>
       </c>
+      <c r="B18" t="s">
+        <v>284</v>
+      </c>
       <c r="C18" t="s">
-        <v>94</v>
-      </c>
-      <c r="N18" s="1">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s">
+        <v>296</v>
+      </c>
+      <c r="L18" t="s">
+        <v>308</v>
+      </c>
+      <c r="M18">
+        <v>9876543210</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18">
+        <v>107</v>
+      </c>
+      <c r="P18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>129</v>
+      </c>
+      <c r="R18" t="s">
+        <v>148</v>
       </c>
       <c r="S18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="30">
+      <c r="B19" t="s">
+        <v>285</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N19" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s">
+        <v>297</v>
+      </c>
+      <c r="L19" t="s">
+        <v>309</v>
+      </c>
+      <c r="M19">
+        <v>9876543210</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O19">
+        <v>107</v>
+      </c>
+      <c r="P19" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>129</v>
+      </c>
+      <c r="R19" t="s">
+        <v>148</v>
       </c>
       <c r="S19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="30">
       <c r="A20" t="s">
         <v>28</v>
       </c>
+      <c r="B20" t="s">
+        <v>286</v>
+      </c>
       <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N20" s="1">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" t="s">
+        <v>298</v>
+      </c>
+      <c r="L20" t="s">
+        <v>310</v>
+      </c>
+      <c r="M20">
+        <v>9876543210</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O20">
+        <v>107</v>
+      </c>
+      <c r="P20" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>129</v>
+      </c>
+      <c r="R20" t="s">
+        <v>148</v>
       </c>
       <c r="S20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="30">
       <c r="A21" t="s">
         <v>28</v>
       </c>
+      <c r="B21" t="s">
+        <v>287</v>
+      </c>
       <c r="C21" t="s">
-        <v>94</v>
-      </c>
-      <c r="N21" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" t="s">
+        <v>299</v>
+      </c>
+      <c r="L21" t="s">
+        <v>311</v>
+      </c>
+      <c r="M21">
+        <v>9876543210</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O21">
+        <v>107</v>
+      </c>
+      <c r="P21" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>129</v>
+      </c>
+      <c r="R21" t="s">
+        <v>148</v>
       </c>
       <c r="S21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="30">
       <c r="A22" t="s">
         <v>28</v>
       </c>
+      <c r="B22" t="s">
+        <v>288</v>
+      </c>
       <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="N22" s="1">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" t="s">
+        <v>300</v>
+      </c>
+      <c r="L22" t="s">
+        <v>312</v>
+      </c>
+      <c r="M22">
+        <v>9876543210</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O22">
+        <v>107</v>
+      </c>
+      <c r="P22" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>129</v>
+      </c>
+      <c r="R22" t="s">
+        <v>148</v>
       </c>
       <c r="S22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="30">
       <c r="A23" t="s">
         <v>28</v>
       </c>
+      <c r="B23" t="s">
+        <v>289</v>
+      </c>
       <c r="C23" t="s">
-        <v>94</v>
-      </c>
-      <c r="N23" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" t="s">
+        <v>301</v>
+      </c>
+      <c r="L23" t="s">
+        <v>313</v>
+      </c>
+      <c r="M23">
+        <v>9876543210</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O23">
+        <v>107</v>
+      </c>
+      <c r="P23" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>129</v>
+      </c>
+      <c r="R23" t="s">
+        <v>148</v>
       </c>
       <c r="S23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="30">
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="B24" t="s">
+        <v>290</v>
+      </c>
       <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="N24" s="1">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" t="s">
+        <v>302</v>
+      </c>
+      <c r="L24" t="s">
+        <v>314</v>
+      </c>
+      <c r="M24">
+        <v>9876543210</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O24">
+        <v>107</v>
+      </c>
+      <c r="P24" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>129</v>
+      </c>
+      <c r="R24" t="s">
+        <v>148</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -8069,8 +10196,34 @@
     <hyperlink ref="N10" r:id="rId18"/>
     <hyperlink ref="J11" r:id="rId19"/>
     <hyperlink ref="N11" r:id="rId20"/>
+    <hyperlink ref="J12" r:id="rId21"/>
+    <hyperlink ref="N12" r:id="rId22"/>
+    <hyperlink ref="J13" r:id="rId23"/>
+    <hyperlink ref="J14" r:id="rId24"/>
+    <hyperlink ref="J15" r:id="rId25"/>
+    <hyperlink ref="J16" r:id="rId26"/>
+    <hyperlink ref="J17" r:id="rId27"/>
+    <hyperlink ref="J18" r:id="rId28"/>
+    <hyperlink ref="J19" r:id="rId29"/>
+    <hyperlink ref="J20" r:id="rId30"/>
+    <hyperlink ref="J21" r:id="rId31"/>
+    <hyperlink ref="J22" r:id="rId32"/>
+    <hyperlink ref="J23" r:id="rId33"/>
+    <hyperlink ref="J24" r:id="rId34"/>
+    <hyperlink ref="N13" r:id="rId35"/>
+    <hyperlink ref="N14" r:id="rId36"/>
+    <hyperlink ref="N15" r:id="rId37"/>
+    <hyperlink ref="N16" r:id="rId38"/>
+    <hyperlink ref="N17" r:id="rId39"/>
+    <hyperlink ref="N18" r:id="rId40"/>
+    <hyperlink ref="N19" r:id="rId41"/>
+    <hyperlink ref="N20" r:id="rId42"/>
+    <hyperlink ref="N21" r:id="rId43"/>
+    <hyperlink ref="N22" r:id="rId44"/>
+    <hyperlink ref="N23" r:id="rId45"/>
+    <hyperlink ref="N24" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId47"/>
 </worksheet>
 </file>
--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="ConsignmentID" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="315">
   <si>
     <t>RunToTest</t>
   </si>
@@ -1310,9 +1310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="85" spans="1:13" ht="13.5" customHeight="1">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
         <v>222</v>
@@ -4765,6 +4765,9 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
       <c r="B95" t="s">
         <v>236</v>
       </c>
@@ -4804,7 +4807,7 @@
     </row>
     <row r="96" spans="1:13" ht="13.5" customHeight="1">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
         <v>237</v>
@@ -4935,7 +4938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <pane xSplit="20100" topLeftCell="X1"/>
       <selection activeCell="A22" sqref="A22"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
@@ -5773,7 +5776,7 @@
     </row>
     <row r="12" spans="1:24" ht="45">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>219</v>
@@ -6512,6 +6515,9 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="45">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
       <c r="B22" t="s">
         <v>248</v>
       </c>
@@ -8057,7 +8063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -8726,7 +8732,7 @@
     </row>
     <row r="12" spans="1:19" ht="30">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>216</v>
@@ -9138,6 +9144,9 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="30">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
       <c r="B19" t="s">
         <v>285</v>
       </c>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConsignmentID" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="316">
   <si>
     <t>RunToTest</t>
   </si>
@@ -972,6 +972,9 @@
   </si>
   <si>
     <t>LNAutomation29</t>
+  </si>
+  <si>
+    <t>UAT42092221</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1303,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1308,26 +1311,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4356,7 +4359,7 @@
     </row>
     <row r="85" spans="1:13" ht="13.5" customHeight="1">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
         <v>222</v>
@@ -4765,6 +4768,9 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
       <c r="B95" t="s">
         <v>236</v>
       </c>
@@ -4922,6 +4928,47 @@
         <v>1</v>
       </c>
       <c r="M98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A99" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" t="s">
+        <v>315</v>
+      </c>
+      <c r="C99" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" t="s">
+        <v>170</v>
+      </c>
+      <c r="F99" t="s">
+        <v>95</v>
+      </c>
+      <c r="G99" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" t="s">
+        <v>96</v>
+      </c>
+      <c r="I99">
+        <v>456</v>
+      </c>
+      <c r="J99" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" t="s">
+        <v>20</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4935,29 +4982,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="20100" topLeftCell="X1"/>
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <pane xSplit="20112" topLeftCell="X1"/>
+      <selection activeCell="A24" sqref="A24"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" customWidth="1"/>
-    <col min="6" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="13" width="18.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="20" width="15.28515625" customWidth="1"/>
-    <col min="21" max="21" width="22.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" customWidth="1"/>
+    <col min="6" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="13" width="18.88671875" style="1" customWidth="1"/>
+    <col min="14" max="16" width="18.44140625" customWidth="1"/>
+    <col min="17" max="20" width="15.33203125" customWidth="1"/>
+    <col min="21" max="21" width="22.44140625" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30">
+    <row r="1" spans="1:24" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5031,7 +5078,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="45">
+    <row r="2" spans="1:24" ht="43.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -5105,7 +5152,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="45">
+    <row r="3" spans="1:24" ht="43.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -5179,7 +5226,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="45">
+    <row r="4" spans="1:24" ht="43.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -5253,7 +5300,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="45">
+    <row r="5" spans="1:24" ht="43.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5327,7 +5374,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="45">
+    <row r="6" spans="1:24" ht="43.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -5401,7 +5448,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="45">
+    <row r="7" spans="1:24" ht="43.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5475,7 +5522,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="45">
+    <row r="8" spans="1:24" ht="43.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -5549,7 +5596,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="45">
+    <row r="9" spans="1:24" ht="43.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5623,7 +5670,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="45">
+    <row r="10" spans="1:24" ht="43.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5697,7 +5744,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="45">
+    <row r="11" spans="1:24" ht="43.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5771,9 +5818,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="45">
+    <row r="12" spans="1:24" ht="43.2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>219</v>
@@ -5845,7 +5892,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="45">
+    <row r="13" spans="1:24" ht="43.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -5919,7 +5966,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="45">
+    <row r="14" spans="1:24" ht="43.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -5993,7 +6040,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="45">
+    <row r="15" spans="1:24" ht="43.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -6067,7 +6114,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="45">
+    <row r="16" spans="1:24" ht="43.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -6141,7 +6188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="45">
+    <row r="17" spans="1:24" ht="43.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -6215,7 +6262,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="45">
+    <row r="18" spans="1:24" ht="43.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -6289,7 +6336,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="45">
+    <row r="19" spans="1:24" ht="43.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -6363,7 +6410,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="45">
+    <row r="20" spans="1:24" ht="43.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -6437,7 +6484,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="45">
+    <row r="21" spans="1:24" ht="43.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -6511,7 +6558,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="45">
+    <row r="22" spans="1:24" ht="43.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
       <c r="B22" t="s">
         <v>248</v>
       </c>
@@ -6582,7 +6632,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="45">
+    <row r="23" spans="1:24" ht="43.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -6656,9 +6706,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="45">
+    <row r="24" spans="1:24" ht="43.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
         <v>250</v>
@@ -6730,7 +6780,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="45">
+    <row r="25" spans="1:24" ht="43.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -6804,7 +6854,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="45">
+    <row r="26" spans="1:24" ht="43.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -8057,25 +8107,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="1" customWidth="1"/>
-    <col min="15" max="18" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="10" width="18.88671875" style="1" customWidth="1"/>
+    <col min="11" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15" max="18" width="15.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <row r="1" spans="1:19" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8134,7 +8184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30">
+    <row r="2" spans="1:19" ht="28.8">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -8193,7 +8243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30">
+    <row r="3" spans="1:19" ht="28.8">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -8252,7 +8302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30">
+    <row r="4" spans="1:19" ht="28.8">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8311,7 +8361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30">
+    <row r="5" spans="1:19" ht="28.8">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -8370,7 +8420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="30">
+    <row r="6" spans="1:19" ht="28.8">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -8429,7 +8479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30">
+    <row r="7" spans="1:19" ht="28.8">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -8488,7 +8538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30">
+    <row r="8" spans="1:19" ht="28.8">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -8547,7 +8597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30">
+    <row r="9" spans="1:19" ht="28.8">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -8606,7 +8656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30">
+    <row r="10" spans="1:19" ht="28.8">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -8665,7 +8715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="30">
+    <row r="11" spans="1:19" ht="28.8">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -8724,9 +8774,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="30">
+    <row r="12" spans="1:19" ht="28.8">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>216</v>
@@ -8783,7 +8833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30">
+    <row r="13" spans="1:19" ht="28.8">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -8842,7 +8892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="30">
+    <row r="14" spans="1:19" ht="28.8">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -8901,7 +8951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30">
+    <row r="15" spans="1:19" ht="28.8">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -8960,7 +9010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30">
+    <row r="16" spans="1:19" ht="28.8">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -9019,7 +9069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="30">
+    <row r="17" spans="1:19" ht="28.8">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -9078,7 +9128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="30">
+    <row r="18" spans="1:19" ht="28.8">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -9137,7 +9187,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="30">
+    <row r="19" spans="1:19" ht="28.8">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
       <c r="B19" t="s">
         <v>285</v>
       </c>
@@ -9193,9 +9246,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="30">
+    <row r="20" spans="1:19" ht="28.8">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
         <v>286</v>
@@ -9252,7 +9305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="30">
+    <row r="21" spans="1:19" ht="28.8">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -9311,7 +9364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="30">
+    <row r="22" spans="1:19" ht="28.8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -9370,7 +9423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="30">
+    <row r="23" spans="1:19" ht="28.8">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -9429,7 +9482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="30">
+    <row r="24" spans="1:19" ht="28.8">
       <c r="A24" t="s">
         <v>28</v>
       </c>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="316">
   <si>
     <t>RunToTest</t>
   </si>
@@ -1311,11 +1311,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="99" spans="1:13" ht="13.5" customHeight="1">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
         <v>315</v>
@@ -4969,6 +4969,47 @@
         <v>1</v>
       </c>
       <c r="M99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A100" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" t="s">
+        <v>315</v>
+      </c>
+      <c r="C100" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" t="s">
+        <v>173</v>
+      </c>
+      <c r="E100" t="s">
+        <v>170</v>
+      </c>
+      <c r="F100" t="s">
+        <v>95</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" t="s">
+        <v>96</v>
+      </c>
+      <c r="I100">
+        <v>456</v>
+      </c>
+      <c r="J100" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" t="s">
+        <v>20</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4984,7 +5025,7 @@
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <pane xSplit="20112" topLeftCell="X1"/>
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A26" sqref="A26"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -6708,7 +6749,7 @@
     </row>
     <row r="24" spans="1:24" ht="43.2">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>250</v>
@@ -6856,7 +6897,7 @@
     </row>
     <row r="26" spans="1:24" ht="43.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
         <v>252</v>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="320">
   <si>
     <t>RunToTest</t>
   </si>
@@ -975,6 +975,18 @@
   </si>
   <si>
     <t>UAT42092221</t>
+  </si>
+  <si>
+    <t>UAT42092222</t>
+  </si>
+  <si>
+    <t>UAT08000124</t>
+  </si>
+  <si>
+    <t>Nasreen31</t>
+  </si>
+  <si>
+    <t>TestLast32</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1311,11 +1323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4974,7 +4986,7 @@
     </row>
     <row r="100" spans="1:13" ht="13.5" customHeight="1">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
         <v>315</v>
@@ -5010,6 +5022,47 @@
         <v>1</v>
       </c>
       <c r="M100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" t="s">
+        <v>316</v>
+      </c>
+      <c r="C101" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" t="s">
+        <v>173</v>
+      </c>
+      <c r="E101" t="s">
+        <v>170</v>
+      </c>
+      <c r="F101" t="s">
+        <v>95</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" t="s">
+        <v>96</v>
+      </c>
+      <c r="I101">
+        <v>456</v>
+      </c>
+      <c r="J101" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" t="s">
+        <v>20</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5023,9 +5076,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <pane xSplit="20112" topLeftCell="X1"/>
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="I27" sqref="I27"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -6897,7 +6950,7 @@
     </row>
     <row r="26" spans="1:24" ht="43.2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>252</v>
@@ -6969,27 +7022,78 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" ht="43.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>317</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" t="s">
+        <v>318</v>
+      </c>
+      <c r="I27" t="s">
+        <v>319</v>
+      </c>
+      <c r="J27" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N27" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="O27" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" t="s">
+        <v>121</v>
       </c>
       <c r="Q27">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R27">
+        <v>987545555555555</v>
+      </c>
+      <c r="S27" t="s">
+        <v>124</v>
+      </c>
+      <c r="T27">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U27" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V27" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W27">
         <v>1</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -8138,9 +8242,11 @@
     <hyperlink ref="X24" r:id="rId48"/>
     <hyperlink ref="X25" r:id="rId49"/>
     <hyperlink ref="X26" r:id="rId50"/>
+    <hyperlink ref="M27" r:id="rId51"/>
+    <hyperlink ref="X27" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId53"/>
 </worksheet>
 </file>
 
@@ -8149,7 +8255,7 @@
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9289,7 +9395,7 @@
     </row>
     <row r="20" spans="1:19" ht="28.8">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>286</v>
@@ -9348,7 +9454,7 @@
     </row>
     <row r="21" spans="1:19" ht="28.8">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
         <v>287</v>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F51FE1-8BD7-4F6C-AD58-DD33269BF796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977591B6-3966-4E05-8600-92E1FC50C7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="883" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3348" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="460">
   <si>
     <t>RunToTest</t>
   </si>
@@ -1393,6 +1393,24 @@
   </si>
   <si>
     <t>LNAutomation39</t>
+  </si>
+  <si>
+    <t>UAT08000134</t>
+  </si>
+  <si>
+    <t>Nasreen42</t>
+  </si>
+  <si>
+    <t>TestLast43</t>
+  </si>
+  <si>
+    <t>UAT07000131</t>
+  </si>
+  <si>
+    <t>FNAutomation39</t>
+  </si>
+  <si>
+    <t>LNAutomation40</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1756,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1992,7 +2010,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>401</v>
@@ -2000,7 +2018,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
         <v>402</v>
@@ -2049,7 +2067,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6938,7 +6956,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B130" t="s">
         <v>401</v>
@@ -6979,7 +6997,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B131" t="s">
         <v>402</v>
@@ -9648,8 +9666,8 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12260,7 +12278,7 @@
     </row>
     <row r="36" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>448</v>
@@ -12332,27 +12350,78 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>454</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" t="s">
+        <v>455</v>
+      </c>
+      <c r="I37" t="s">
+        <v>456</v>
+      </c>
+      <c r="J37" t="s">
+        <v>111</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L37" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N37" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="O37" t="s">
+        <v>119</v>
+      </c>
+      <c r="P37" t="s">
+        <v>121</v>
       </c>
       <c r="Q37">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R37">
+        <v>987545555555555</v>
+      </c>
+      <c r="S37" t="s">
+        <v>124</v>
+      </c>
+      <c r="T37">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U37" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V37" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W37">
         <v>1</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
@@ -13291,9 +13360,11 @@
     <hyperlink ref="X35" r:id="rId68" xr:uid="{A238C700-6BD6-4A26-A081-CD84E25288ED}"/>
     <hyperlink ref="M36" r:id="rId69" xr:uid="{A9D4079E-1FDE-4B8C-A071-3482E1199727}"/>
     <hyperlink ref="X36" r:id="rId70" xr:uid="{B6B67919-C764-4E4C-AE7F-7B1D7B0D128D}"/>
+    <hyperlink ref="M37" r:id="rId71" xr:uid="{3536920E-9140-482A-88B2-59BC367F11B8}"/>
+    <hyperlink ref="X37" r:id="rId72" xr:uid="{73B7F698-FDA8-4524-B671-F285EF95F479}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId71"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId73"/>
 </worksheet>
 </file>
 
@@ -13301,8 +13372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15150,7 +15221,7 @@
     </row>
     <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>451</v>
@@ -15207,18 +15278,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>457</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
-      </c>
-      <c r="N33" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" t="s">
+        <v>458</v>
+      </c>
+      <c r="L33" t="s">
+        <v>459</v>
+      </c>
+      <c r="M33">
+        <v>9876543210</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O33">
+        <v>107</v>
+      </c>
+      <c r="P33" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>129</v>
+      </c>
+      <c r="R33" t="s">
+        <v>148</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -15845,8 +15961,10 @@
     <hyperlink ref="N31" r:id="rId60" xr:uid="{25E4DD05-3367-42F2-8C02-2788221C129B}"/>
     <hyperlink ref="J32" r:id="rId61" xr:uid="{89B17850-2D69-480A-8B0F-E4AE8FD653F6}"/>
     <hyperlink ref="N32" r:id="rId62" xr:uid="{366C0470-F340-4D4F-A082-0308CCF3C69D}"/>
+    <hyperlink ref="J33" r:id="rId63" xr:uid="{1214DBD1-B565-4446-AA43-AFC07BB815F1}"/>
+    <hyperlink ref="N33" r:id="rId64" xr:uid="{7953C27C-5A89-45F5-A05C-0A1E62994517}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId63"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId65"/>
 </worksheet>
 </file>
--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977591B6-3966-4E05-8600-92E1FC50C7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD409CE-26F8-4050-AA36-A46636564AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="883" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="883" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditConsignmentUAT" sheetId="10" r:id="rId1"/>
@@ -2065,9 +2065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
+      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13372,7 +13372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+    <sheetView topLeftCell="C25" workbookViewId="0">
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD409CE-26F8-4050-AA36-A46636564AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87342966-FB76-4456-ACC5-A1F9B027B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="883" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="883" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditConsignmentUAT" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="466">
   <si>
     <t>RunToTest</t>
   </si>
@@ -1411,6 +1411,24 @@
   </si>
   <si>
     <t>LNAutomation40</t>
+  </si>
+  <si>
+    <t>UAT08000135</t>
+  </si>
+  <si>
+    <t>Nasreen43</t>
+  </si>
+  <si>
+    <t>TestLast44</t>
+  </si>
+  <si>
+    <t>UAT07000132</t>
+  </si>
+  <si>
+    <t>FNAutomation40</t>
+  </si>
+  <si>
+    <t>LNAutomation41</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1774,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2018,7 +2036,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>402</v>
@@ -2026,7 +2044,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
         <v>403</v>
@@ -2065,9 +2083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6997,7 +7015,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B131" t="s">
         <v>402</v>
@@ -7038,7 +7056,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B132" t="s">
         <v>403</v>
@@ -9667,7 +9685,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12352,7 +12370,7 @@
     </row>
     <row r="37" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
         <v>454</v>
@@ -12424,27 +12442,78 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>460</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" t="s">
+        <v>461</v>
+      </c>
+      <c r="I38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L38" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N38" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O38" t="s">
+        <v>119</v>
+      </c>
+      <c r="P38" t="s">
+        <v>121</v>
       </c>
       <c r="Q38">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R38">
+        <v>987545555555555</v>
+      </c>
+      <c r="S38" t="s">
+        <v>124</v>
+      </c>
+      <c r="T38">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U38" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V38" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W38">
         <v>1</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
@@ -13362,9 +13431,11 @@
     <hyperlink ref="X36" r:id="rId70" xr:uid="{B6B67919-C764-4E4C-AE7F-7B1D7B0D128D}"/>
     <hyperlink ref="M37" r:id="rId71" xr:uid="{3536920E-9140-482A-88B2-59BC367F11B8}"/>
     <hyperlink ref="X37" r:id="rId72" xr:uid="{73B7F698-FDA8-4524-B671-F285EF95F479}"/>
+    <hyperlink ref="M38" r:id="rId73" xr:uid="{0E6DB531-58FE-4A44-9682-631C365C79B8}"/>
+    <hyperlink ref="X38" r:id="rId74" xr:uid="{DB8376BA-BCCC-4088-B32B-81E87DB9C814}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId73"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId75"/>
 </worksheet>
 </file>
 
@@ -13372,8 +13443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15280,7 +15351,7 @@
     </row>
     <row r="33" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
         <v>457</v>
@@ -15337,18 +15408,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
+        <v>463</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
-      </c>
-      <c r="N34" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" t="s">
+        <v>464</v>
+      </c>
+      <c r="L34" t="s">
+        <v>465</v>
+      </c>
+      <c r="M34">
+        <v>9876543210</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O34">
+        <v>107</v>
+      </c>
+      <c r="P34" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>129</v>
+      </c>
+      <c r="R34" t="s">
+        <v>148</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -15963,8 +16079,10 @@
     <hyperlink ref="N32" r:id="rId62" xr:uid="{366C0470-F340-4D4F-A082-0308CCF3C69D}"/>
     <hyperlink ref="J33" r:id="rId63" xr:uid="{1214DBD1-B565-4446-AA43-AFC07BB815F1}"/>
     <hyperlink ref="N33" r:id="rId64" xr:uid="{7953C27C-5A89-45F5-A05C-0A1E62994517}"/>
+    <hyperlink ref="J34" r:id="rId65" xr:uid="{1B9A4AFB-945B-48AF-A725-77D756323CD0}"/>
+    <hyperlink ref="N34" r:id="rId66" xr:uid="{01B859B6-7C7C-4D77-839E-7E48CED78722}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId65"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId67"/>
 </worksheet>
 </file>
--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87342966-FB76-4456-ACC5-A1F9B027B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F556ADE-4E09-4BC6-85FC-104D4E8A74B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="883" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="472">
   <si>
     <t>RunToTest</t>
   </si>
@@ -1429,6 +1429,24 @@
   </si>
   <si>
     <t>LNAutomation41</t>
+  </si>
+  <si>
+    <t>UAT08000136</t>
+  </si>
+  <si>
+    <t>Nasreen44</t>
+  </si>
+  <si>
+    <t>TestLast45</t>
+  </si>
+  <si>
+    <t>UAT07000133</t>
+  </si>
+  <si>
+    <t>FNAutomation41</t>
+  </si>
+  <si>
+    <t>LNAutomation42</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1792,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2044,7 +2062,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>403</v>
@@ -2052,7 +2070,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
         <v>404</v>
@@ -2085,7 +2103,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7056,7 +7074,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B132" t="s">
         <v>403</v>
@@ -7097,7 +7115,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B133" t="s">
         <v>404</v>
@@ -9685,7 +9703,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12444,7 +12462,7 @@
     </row>
     <row r="38" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
         <v>460</v>
@@ -12516,27 +12534,78 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B39" t="s">
+        <v>466</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" t="s">
+        <v>467</v>
+      </c>
+      <c r="I39" t="s">
+        <v>468</v>
+      </c>
+      <c r="J39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L39" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N39" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="O39" t="s">
+        <v>119</v>
+      </c>
+      <c r="P39" t="s">
+        <v>121</v>
       </c>
       <c r="Q39">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R39">
+        <v>987545555555555</v>
+      </c>
+      <c r="S39" t="s">
+        <v>124</v>
+      </c>
+      <c r="T39">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U39" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V39" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W39">
         <v>1</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13433,9 +13502,11 @@
     <hyperlink ref="X37" r:id="rId72" xr:uid="{73B7F698-FDA8-4524-B671-F285EF95F479}"/>
     <hyperlink ref="M38" r:id="rId73" xr:uid="{0E6DB531-58FE-4A44-9682-631C365C79B8}"/>
     <hyperlink ref="X38" r:id="rId74" xr:uid="{DB8376BA-BCCC-4088-B32B-81E87DB9C814}"/>
+    <hyperlink ref="M39" r:id="rId75" xr:uid="{CF78F9CD-86F6-4572-AA01-CA1DF58C34B7}"/>
+    <hyperlink ref="X39" r:id="rId76" xr:uid="{70E64F9F-28E1-4BA0-B96F-079C8C211FED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId75"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId77"/>
 </worksheet>
 </file>
 
@@ -13444,7 +13515,7 @@
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15410,7 +15481,7 @@
     </row>
     <row r="34" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>463</v>
@@ -15467,18 +15538,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>469</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
-      </c>
-      <c r="N35" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35" t="s">
+        <v>470</v>
+      </c>
+      <c r="L35" t="s">
+        <v>471</v>
+      </c>
+      <c r="M35">
+        <v>9876543210</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O35">
+        <v>107</v>
+      </c>
+      <c r="P35" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>129</v>
+      </c>
+      <c r="R35" t="s">
+        <v>148</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -16081,8 +16197,10 @@
     <hyperlink ref="N33" r:id="rId64" xr:uid="{7953C27C-5A89-45F5-A05C-0A1E62994517}"/>
     <hyperlink ref="J34" r:id="rId65" xr:uid="{1B9A4AFB-945B-48AF-A725-77D756323CD0}"/>
     <hyperlink ref="N34" r:id="rId66" xr:uid="{01B859B6-7C7C-4D77-839E-7E48CED78722}"/>
+    <hyperlink ref="J35" r:id="rId67" xr:uid="{F1DEEB81-665A-4663-AF9F-866F53A0D629}"/>
+    <hyperlink ref="N35" r:id="rId68" xr:uid="{C934C417-A810-44C8-AC90-E6CC95E29E83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId69"/>
 </worksheet>
 </file>
--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F556ADE-4E09-4BC6-85FC-104D4E8A74B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B1F454-2836-4069-95FB-199FE4A56A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="883" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="883" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditConsignmentUAT" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="485">
   <si>
     <t>RunToTest</t>
   </si>
@@ -1447,6 +1447,45 @@
   </si>
   <si>
     <t>LNAutomation42</t>
+  </si>
+  <si>
+    <t>PROD00001001</t>
+  </si>
+  <si>
+    <t>PROD00001002</t>
+  </si>
+  <si>
+    <t>PROD00001003</t>
+  </si>
+  <si>
+    <t>PROD00001004</t>
+  </si>
+  <si>
+    <t>HQ5</t>
+  </si>
+  <si>
+    <t>PROD00001005</t>
+  </si>
+  <si>
+    <t>PROD00011004</t>
+  </si>
+  <si>
+    <t>PROD00021003</t>
+  </si>
+  <si>
+    <t>HQ11</t>
+  </si>
+  <si>
+    <t>HQ12</t>
+  </si>
+  <si>
+    <t>PROD00011005</t>
+  </si>
+  <si>
+    <t>PROD00031006</t>
+  </si>
+  <si>
+    <t>PROD00021004</t>
   </si>
 </sst>
 </file>
@@ -7247,7 +7286,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7517,7 +7556,7 @@
     </row>
     <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>370</v>
@@ -7547,6 +7586,146 @@
         <v>338</v>
       </c>
       <c r="K8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="1">
+        <v>400</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H10" s="1">
+        <v>400</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H11" s="1">
+        <v>400</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H12" s="1">
+        <v>400</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K12" s="1">
         <v>3</v>
       </c>
     </row>
@@ -7613,8 +7792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1FC442-2A76-4913-8893-A0FD6FAA9326}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8375,7 +8554,7 @@
     </row>
     <row r="11" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>375</v>
@@ -8447,20 +8626,224 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M12" s="2"/>
+    <row r="12" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>474</v>
+      </c>
+      <c r="C12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F12" t="s">
+        <v>332</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" t="s">
+        <v>359</v>
+      </c>
+      <c r="O12" t="s">
+        <v>343</v>
+      </c>
+      <c r="P12" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q12">
+        <v>123</v>
+      </c>
+      <c r="R12">
+        <v>987545555555555</v>
+      </c>
+      <c r="S12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T12">
+        <v>1.11188888888888E+18</v>
+      </c>
+      <c r="U12" t="s">
+        <v>128</v>
+      </c>
+      <c r="V12" t="s">
+        <v>129</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
       <c r="X12" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M13" s="2"/>
+    <row r="13" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>478</v>
+      </c>
+      <c r="C13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" t="s">
+        <v>332</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" t="s">
+        <v>359</v>
+      </c>
+      <c r="O13" t="s">
+        <v>343</v>
+      </c>
+      <c r="P13" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q13">
+        <v>123</v>
+      </c>
+      <c r="R13">
+        <v>987545555555555</v>
+      </c>
+      <c r="S13" t="s">
+        <v>124</v>
+      </c>
+      <c r="T13">
+        <v>1.11188888888888E+18</v>
+      </c>
+      <c r="U13" t="s">
+        <v>128</v>
+      </c>
+      <c r="V13" t="s">
+        <v>129</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
       <c r="X13" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M14" s="2"/>
+    <row r="14" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" t="s">
+        <v>359</v>
+      </c>
+      <c r="O14" t="s">
+        <v>343</v>
+      </c>
+      <c r="P14" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q14">
+        <v>123</v>
+      </c>
+      <c r="R14">
+        <v>987545555555555</v>
+      </c>
+      <c r="S14" t="s">
+        <v>124</v>
+      </c>
+      <c r="T14">
+        <v>1.11188888888888E+18</v>
+      </c>
+      <c r="U14" t="s">
+        <v>128</v>
+      </c>
+      <c r="V14" t="s">
+        <v>129</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
       <c r="X14" s="3" t="s">
         <v>116</v>
       </c>
@@ -8578,41 +8961,44 @@
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{358998FA-15FF-431B-99C1-DF0C84EFB86F}"/>
     <hyperlink ref="X2" r:id="rId2" xr:uid="{AE14EEEB-3B83-40AE-9BDF-EA985C28F832}"/>
-    <hyperlink ref="X12" r:id="rId3" xr:uid="{D4CBCCF0-A6CA-4C93-B487-B2DB060A4667}"/>
-    <hyperlink ref="X13" r:id="rId4" xr:uid="{E5F55173-58AB-4B16-ADFC-C5FD3850EB72}"/>
-    <hyperlink ref="X14" r:id="rId5" xr:uid="{3C2CA6EE-CE2B-4757-9E93-13AF7B492DB0}"/>
-    <hyperlink ref="X15" r:id="rId6" xr:uid="{DAF1D1C9-089E-49E4-9D9E-E10F75BDD751}"/>
-    <hyperlink ref="X16" r:id="rId7" xr:uid="{19361FA6-9504-453F-92E7-DF6E9F4FA63D}"/>
-    <hyperlink ref="X17" r:id="rId8" xr:uid="{F402E61A-6BC9-41B2-87DF-C3A27E532E13}"/>
-    <hyperlink ref="X18" r:id="rId9" xr:uid="{43A3EAE1-5CC3-4836-A288-2BF5FC280717}"/>
-    <hyperlink ref="X19" r:id="rId10" xr:uid="{6F5EC072-9F18-4EC5-8DB2-2DF2CBF01CB0}"/>
-    <hyperlink ref="X20" r:id="rId11" xr:uid="{4CA5FEE5-0C07-4808-9248-B660743F3774}"/>
-    <hyperlink ref="X21" r:id="rId12" xr:uid="{ED490A4D-F92A-47BE-9867-4314A59BC6B7}"/>
-    <hyperlink ref="X22" r:id="rId13" xr:uid="{46880446-6A4E-403B-ADFA-CE8197023B30}"/>
-    <hyperlink ref="X23" r:id="rId14" xr:uid="{9524D2D4-0229-4303-A39E-B5869A5AB6F9}"/>
-    <hyperlink ref="X24" r:id="rId15" xr:uid="{918DE3BD-31B5-4450-94FD-FF0C378CE62A}"/>
-    <hyperlink ref="X25" r:id="rId16" xr:uid="{6DCC4064-F791-487D-8795-51EDAB204E8F}"/>
-    <hyperlink ref="X26" r:id="rId17" xr:uid="{CDB54460-A79F-4C90-B70B-EEBEE40D5E15}"/>
-    <hyperlink ref="X27" r:id="rId18" xr:uid="{020E49A6-F847-4012-A984-5906C66B24C2}"/>
-    <hyperlink ref="X28" r:id="rId19" xr:uid="{116CD7FA-45D6-45D0-9F78-90290FDE7EC3}"/>
-    <hyperlink ref="M3" r:id="rId20" xr:uid="{B6C5C0C4-A5CD-4989-9129-C8A7A85B04B8}"/>
-    <hyperlink ref="X3" r:id="rId21" xr:uid="{2F3B3A48-891E-47E7-8670-CEDB6572CA2B}"/>
-    <hyperlink ref="M4" r:id="rId22" xr:uid="{6A74C82A-96E6-471E-8814-621213BF313E}"/>
-    <hyperlink ref="X4" r:id="rId23" xr:uid="{FD29A6B0-0DCE-4017-BE5D-844FE8F434EA}"/>
-    <hyperlink ref="M5" r:id="rId24" xr:uid="{06767FBB-30D3-4571-B179-8F6EB3FEC4B4}"/>
-    <hyperlink ref="X5" r:id="rId25" xr:uid="{8840BE2F-FC00-482D-8632-9DB48E041BCA}"/>
-    <hyperlink ref="M6" r:id="rId26" xr:uid="{0A59FE27-88F7-4F24-A496-311F958815C8}"/>
-    <hyperlink ref="X6" r:id="rId27" xr:uid="{8DC3250D-4424-4A6C-B68D-FEC080B637FA}"/>
-    <hyperlink ref="M7" r:id="rId28" xr:uid="{4DC610F6-9A84-4368-BDF1-FF9BB2560852}"/>
-    <hyperlink ref="X7" r:id="rId29" xr:uid="{0FC8FA66-5837-4A59-BD4F-2E68649B972A}"/>
-    <hyperlink ref="M8" r:id="rId30" xr:uid="{88F825E6-41C8-4F6A-96AE-F0685382C2FB}"/>
-    <hyperlink ref="X8" r:id="rId31" xr:uid="{BF022674-73DC-417D-AA01-42951A83A5A9}"/>
-    <hyperlink ref="M9" r:id="rId32" xr:uid="{FA4C93BE-D55C-4CEF-901E-0EE7890E7319}"/>
-    <hyperlink ref="X9" r:id="rId33" xr:uid="{FE2E5242-2733-429A-B446-49922A127C38}"/>
-    <hyperlink ref="M10" r:id="rId34" xr:uid="{38AAA3EB-9E30-46B7-9C48-8E21BCE16101}"/>
-    <hyperlink ref="X10" r:id="rId35" xr:uid="{465D83FD-48FF-48EE-A4AA-EE7AF90F5BBD}"/>
-    <hyperlink ref="M11" r:id="rId36" xr:uid="{175F9C8E-DB2C-48B2-B5D8-B249A4302B95}"/>
-    <hyperlink ref="X11" r:id="rId37" xr:uid="{A8D2FF8B-A2A9-4B6F-B217-2E14C6EE9235}"/>
+    <hyperlink ref="X15" r:id="rId3" xr:uid="{DAF1D1C9-089E-49E4-9D9E-E10F75BDD751}"/>
+    <hyperlink ref="X16" r:id="rId4" xr:uid="{19361FA6-9504-453F-92E7-DF6E9F4FA63D}"/>
+    <hyperlink ref="X17" r:id="rId5" xr:uid="{F402E61A-6BC9-41B2-87DF-C3A27E532E13}"/>
+    <hyperlink ref="X18" r:id="rId6" xr:uid="{43A3EAE1-5CC3-4836-A288-2BF5FC280717}"/>
+    <hyperlink ref="X19" r:id="rId7" xr:uid="{6F5EC072-9F18-4EC5-8DB2-2DF2CBF01CB0}"/>
+    <hyperlink ref="X20" r:id="rId8" xr:uid="{4CA5FEE5-0C07-4808-9248-B660743F3774}"/>
+    <hyperlink ref="X21" r:id="rId9" xr:uid="{ED490A4D-F92A-47BE-9867-4314A59BC6B7}"/>
+    <hyperlink ref="X22" r:id="rId10" xr:uid="{46880446-6A4E-403B-ADFA-CE8197023B30}"/>
+    <hyperlink ref="X23" r:id="rId11" xr:uid="{9524D2D4-0229-4303-A39E-B5869A5AB6F9}"/>
+    <hyperlink ref="X24" r:id="rId12" xr:uid="{918DE3BD-31B5-4450-94FD-FF0C378CE62A}"/>
+    <hyperlink ref="X25" r:id="rId13" xr:uid="{6DCC4064-F791-487D-8795-51EDAB204E8F}"/>
+    <hyperlink ref="X26" r:id="rId14" xr:uid="{CDB54460-A79F-4C90-B70B-EEBEE40D5E15}"/>
+    <hyperlink ref="X27" r:id="rId15" xr:uid="{020E49A6-F847-4012-A984-5906C66B24C2}"/>
+    <hyperlink ref="X28" r:id="rId16" xr:uid="{116CD7FA-45D6-45D0-9F78-90290FDE7EC3}"/>
+    <hyperlink ref="M3" r:id="rId17" xr:uid="{B6C5C0C4-A5CD-4989-9129-C8A7A85B04B8}"/>
+    <hyperlink ref="X3" r:id="rId18" xr:uid="{2F3B3A48-891E-47E7-8670-CEDB6572CA2B}"/>
+    <hyperlink ref="M4" r:id="rId19" xr:uid="{6A74C82A-96E6-471E-8814-621213BF313E}"/>
+    <hyperlink ref="X4" r:id="rId20" xr:uid="{FD29A6B0-0DCE-4017-BE5D-844FE8F434EA}"/>
+    <hyperlink ref="M5" r:id="rId21" xr:uid="{06767FBB-30D3-4571-B179-8F6EB3FEC4B4}"/>
+    <hyperlink ref="X5" r:id="rId22" xr:uid="{8840BE2F-FC00-482D-8632-9DB48E041BCA}"/>
+    <hyperlink ref="M6" r:id="rId23" xr:uid="{0A59FE27-88F7-4F24-A496-311F958815C8}"/>
+    <hyperlink ref="X6" r:id="rId24" xr:uid="{8DC3250D-4424-4A6C-B68D-FEC080B637FA}"/>
+    <hyperlink ref="M7" r:id="rId25" xr:uid="{4DC610F6-9A84-4368-BDF1-FF9BB2560852}"/>
+    <hyperlink ref="X7" r:id="rId26" xr:uid="{0FC8FA66-5837-4A59-BD4F-2E68649B972A}"/>
+    <hyperlink ref="M8" r:id="rId27" xr:uid="{88F825E6-41C8-4F6A-96AE-F0685382C2FB}"/>
+    <hyperlink ref="X8" r:id="rId28" xr:uid="{BF022674-73DC-417D-AA01-42951A83A5A9}"/>
+    <hyperlink ref="M9" r:id="rId29" xr:uid="{FA4C93BE-D55C-4CEF-901E-0EE7890E7319}"/>
+    <hyperlink ref="X9" r:id="rId30" xr:uid="{FE2E5242-2733-429A-B446-49922A127C38}"/>
+    <hyperlink ref="M10" r:id="rId31" xr:uid="{38AAA3EB-9E30-46B7-9C48-8E21BCE16101}"/>
+    <hyperlink ref="X10" r:id="rId32" xr:uid="{465D83FD-48FF-48EE-A4AA-EE7AF90F5BBD}"/>
+    <hyperlink ref="X11" r:id="rId33" xr:uid="{A8D2FF8B-A2A9-4B6F-B217-2E14C6EE9235}"/>
+    <hyperlink ref="M11" r:id="rId34" xr:uid="{175F9C8E-DB2C-48B2-B5D8-B249A4302B95}"/>
+    <hyperlink ref="X12" r:id="rId35" xr:uid="{E8D52455-2D02-474B-887B-F66CB5AB7BF3}"/>
+    <hyperlink ref="M12" r:id="rId36" xr:uid="{E9C6333C-597D-41EE-B1FC-1EE6178B208F}"/>
+    <hyperlink ref="X13" r:id="rId37" xr:uid="{8F2202D7-9DB8-441F-A802-398ADF2EFB9B}"/>
+    <hyperlink ref="M13" r:id="rId38" xr:uid="{5D30A358-A0BD-4F64-98E8-9F16E791B106}"/>
+    <hyperlink ref="X14" r:id="rId39" xr:uid="{104DBC51-97D1-4A7F-9676-DA2144C8BCF2}"/>
+    <hyperlink ref="M14" r:id="rId40" xr:uid="{D24A006E-62D8-4CFC-ADF2-379D45B10FF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8622,8 +9008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BB1AD0-E1E7-4AA3-8FBD-385271ECBB27}">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9075,7 +9461,7 @@
     </row>
     <row r="8" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>374</v>
@@ -9135,20 +9521,191 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="O11" s="2"/>
+    <row r="9" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L9" t="s">
+        <v>335</v>
+      </c>
+      <c r="M9" t="s">
+        <v>476</v>
+      </c>
+      <c r="N9">
+        <v>9876543210</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P9">
+        <v>107</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>156</v>
+      </c>
+      <c r="R9" t="s">
+        <v>129</v>
+      </c>
+      <c r="S9" t="s">
+        <v>148</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L10" t="s">
+        <v>335</v>
+      </c>
+      <c r="M10" t="s">
+        <v>480</v>
+      </c>
+      <c r="N10">
+        <v>9876543210</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P10">
+        <v>107</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>156</v>
+      </c>
+      <c r="R10" t="s">
+        <v>129</v>
+      </c>
+      <c r="S10" t="s">
+        <v>148</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L11" t="s">
+        <v>335</v>
+      </c>
+      <c r="M11" t="s">
+        <v>481</v>
+      </c>
+      <c r="N11">
+        <v>9876543210</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P11">
+        <v>107</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>156</v>
+      </c>
+      <c r="R11" t="s">
+        <v>129</v>
+      </c>
+      <c r="S11" t="s">
+        <v>148</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
@@ -9692,6 +10249,12 @@
     <hyperlink ref="O7" r:id="rId12" xr:uid="{05395EF7-A1A2-4271-A86F-9B8EC89F202D}"/>
     <hyperlink ref="J8" r:id="rId13" xr:uid="{6CB0AD4A-1724-4A48-BDF1-93658B3AE07D}"/>
     <hyperlink ref="O8" r:id="rId14" xr:uid="{FCE13D2B-56E2-460C-9081-9D86CD6EBB45}"/>
+    <hyperlink ref="J9" r:id="rId15" xr:uid="{C412B927-1818-4E68-AFAA-02086E91523F}"/>
+    <hyperlink ref="O9" r:id="rId16" xr:uid="{6881FE8A-C6DC-4176-8349-951677F0A1FE}"/>
+    <hyperlink ref="J10" r:id="rId17" xr:uid="{1613AD63-A186-40ED-962A-394233620153}"/>
+    <hyperlink ref="O10" r:id="rId18" xr:uid="{2978520C-692F-4F6A-BB66-55014E0D1FDC}"/>
+    <hyperlink ref="J11" r:id="rId19" xr:uid="{0C97C406-10C7-42E9-A025-9BF10F910D66}"/>
+    <hyperlink ref="O11" r:id="rId20" xr:uid="{8E6AE659-D4DD-487A-BF0E-EC0DA4B55CF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13514,7 +14077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B1F454-2836-4069-95FB-199FE4A56A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D6991C-5C9E-44D6-A7F6-02750A86A756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="883" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="883" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditConsignmentUAT" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="487">
   <si>
     <t>RunToTest</t>
   </si>
@@ -1476,9 +1476,6 @@
     <t>HQ11</t>
   </si>
   <si>
-    <t>HQ12</t>
-  </si>
-  <si>
     <t>PROD00011005</t>
   </si>
   <si>
@@ -1486,6 +1483,15 @@
   </si>
   <si>
     <t>PROD00021004</t>
+  </si>
+  <si>
+    <t>PROD00021005</t>
+  </si>
+  <si>
+    <t>PROD00011006</t>
+  </si>
+  <si>
+    <t>HQ13</t>
   </si>
 </sst>
 </file>
@@ -7285,8 +7291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE03A24-5145-4BFC-B798-CD5C2D481D00}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7696,10 +7702,10 @@
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>337</v>
@@ -7726,6 +7732,41 @@
         <v>338</v>
       </c>
       <c r="K12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H13" s="1">
+        <v>400</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K13" s="1">
         <v>3</v>
       </c>
     </row>
@@ -7793,7 +7834,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8776,10 +8817,10 @@
     </row>
     <row r="14" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C14" t="s">
         <v>346</v>
@@ -8848,8 +8889,76 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M15" s="2"/>
+    <row r="15" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>485</v>
+      </c>
+      <c r="C15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" t="s">
+        <v>342</v>
+      </c>
+      <c r="F15" t="s">
+        <v>332</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" t="s">
+        <v>359</v>
+      </c>
+      <c r="O15" t="s">
+        <v>343</v>
+      </c>
+      <c r="P15" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q15">
+        <v>123</v>
+      </c>
+      <c r="R15">
+        <v>987545555555555</v>
+      </c>
+      <c r="S15" t="s">
+        <v>124</v>
+      </c>
+      <c r="T15">
+        <v>1.11188888888888E+18</v>
+      </c>
+      <c r="U15" t="s">
+        <v>128</v>
+      </c>
+      <c r="V15" t="s">
+        <v>129</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
       <c r="X15" s="3" t="s">
         <v>116</v>
       </c>
@@ -8961,44 +9070,45 @@
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{358998FA-15FF-431B-99C1-DF0C84EFB86F}"/>
     <hyperlink ref="X2" r:id="rId2" xr:uid="{AE14EEEB-3B83-40AE-9BDF-EA985C28F832}"/>
-    <hyperlink ref="X15" r:id="rId3" xr:uid="{DAF1D1C9-089E-49E4-9D9E-E10F75BDD751}"/>
-    <hyperlink ref="X16" r:id="rId4" xr:uid="{19361FA6-9504-453F-92E7-DF6E9F4FA63D}"/>
-    <hyperlink ref="X17" r:id="rId5" xr:uid="{F402E61A-6BC9-41B2-87DF-C3A27E532E13}"/>
-    <hyperlink ref="X18" r:id="rId6" xr:uid="{43A3EAE1-5CC3-4836-A288-2BF5FC280717}"/>
-    <hyperlink ref="X19" r:id="rId7" xr:uid="{6F5EC072-9F18-4EC5-8DB2-2DF2CBF01CB0}"/>
-    <hyperlink ref="X20" r:id="rId8" xr:uid="{4CA5FEE5-0C07-4808-9248-B660743F3774}"/>
-    <hyperlink ref="X21" r:id="rId9" xr:uid="{ED490A4D-F92A-47BE-9867-4314A59BC6B7}"/>
-    <hyperlink ref="X22" r:id="rId10" xr:uid="{46880446-6A4E-403B-ADFA-CE8197023B30}"/>
-    <hyperlink ref="X23" r:id="rId11" xr:uid="{9524D2D4-0229-4303-A39E-B5869A5AB6F9}"/>
-    <hyperlink ref="X24" r:id="rId12" xr:uid="{918DE3BD-31B5-4450-94FD-FF0C378CE62A}"/>
-    <hyperlink ref="X25" r:id="rId13" xr:uid="{6DCC4064-F791-487D-8795-51EDAB204E8F}"/>
-    <hyperlink ref="X26" r:id="rId14" xr:uid="{CDB54460-A79F-4C90-B70B-EEBEE40D5E15}"/>
-    <hyperlink ref="X27" r:id="rId15" xr:uid="{020E49A6-F847-4012-A984-5906C66B24C2}"/>
-    <hyperlink ref="X28" r:id="rId16" xr:uid="{116CD7FA-45D6-45D0-9F78-90290FDE7EC3}"/>
-    <hyperlink ref="M3" r:id="rId17" xr:uid="{B6C5C0C4-A5CD-4989-9129-C8A7A85B04B8}"/>
-    <hyperlink ref="X3" r:id="rId18" xr:uid="{2F3B3A48-891E-47E7-8670-CEDB6572CA2B}"/>
-    <hyperlink ref="M4" r:id="rId19" xr:uid="{6A74C82A-96E6-471E-8814-621213BF313E}"/>
-    <hyperlink ref="X4" r:id="rId20" xr:uid="{FD29A6B0-0DCE-4017-BE5D-844FE8F434EA}"/>
-    <hyperlink ref="M5" r:id="rId21" xr:uid="{06767FBB-30D3-4571-B179-8F6EB3FEC4B4}"/>
-    <hyperlink ref="X5" r:id="rId22" xr:uid="{8840BE2F-FC00-482D-8632-9DB48E041BCA}"/>
-    <hyperlink ref="M6" r:id="rId23" xr:uid="{0A59FE27-88F7-4F24-A496-311F958815C8}"/>
-    <hyperlink ref="X6" r:id="rId24" xr:uid="{8DC3250D-4424-4A6C-B68D-FEC080B637FA}"/>
-    <hyperlink ref="M7" r:id="rId25" xr:uid="{4DC610F6-9A84-4368-BDF1-FF9BB2560852}"/>
-    <hyperlink ref="X7" r:id="rId26" xr:uid="{0FC8FA66-5837-4A59-BD4F-2E68649B972A}"/>
-    <hyperlink ref="M8" r:id="rId27" xr:uid="{88F825E6-41C8-4F6A-96AE-F0685382C2FB}"/>
-    <hyperlink ref="X8" r:id="rId28" xr:uid="{BF022674-73DC-417D-AA01-42951A83A5A9}"/>
-    <hyperlink ref="M9" r:id="rId29" xr:uid="{FA4C93BE-D55C-4CEF-901E-0EE7890E7319}"/>
-    <hyperlink ref="X9" r:id="rId30" xr:uid="{FE2E5242-2733-429A-B446-49922A127C38}"/>
-    <hyperlink ref="M10" r:id="rId31" xr:uid="{38AAA3EB-9E30-46B7-9C48-8E21BCE16101}"/>
-    <hyperlink ref="X10" r:id="rId32" xr:uid="{465D83FD-48FF-48EE-A4AA-EE7AF90F5BBD}"/>
-    <hyperlink ref="X11" r:id="rId33" xr:uid="{A8D2FF8B-A2A9-4B6F-B217-2E14C6EE9235}"/>
-    <hyperlink ref="M11" r:id="rId34" xr:uid="{175F9C8E-DB2C-48B2-B5D8-B249A4302B95}"/>
-    <hyperlink ref="X12" r:id="rId35" xr:uid="{E8D52455-2D02-474B-887B-F66CB5AB7BF3}"/>
-    <hyperlink ref="M12" r:id="rId36" xr:uid="{E9C6333C-597D-41EE-B1FC-1EE6178B208F}"/>
-    <hyperlink ref="X13" r:id="rId37" xr:uid="{8F2202D7-9DB8-441F-A802-398ADF2EFB9B}"/>
-    <hyperlink ref="M13" r:id="rId38" xr:uid="{5D30A358-A0BD-4F64-98E8-9F16E791B106}"/>
-    <hyperlink ref="X14" r:id="rId39" xr:uid="{104DBC51-97D1-4A7F-9676-DA2144C8BCF2}"/>
-    <hyperlink ref="M14" r:id="rId40" xr:uid="{D24A006E-62D8-4CFC-ADF2-379D45B10FF0}"/>
+    <hyperlink ref="X16" r:id="rId3" xr:uid="{19361FA6-9504-453F-92E7-DF6E9F4FA63D}"/>
+    <hyperlink ref="X17" r:id="rId4" xr:uid="{F402E61A-6BC9-41B2-87DF-C3A27E532E13}"/>
+    <hyperlink ref="X18" r:id="rId5" xr:uid="{43A3EAE1-5CC3-4836-A288-2BF5FC280717}"/>
+    <hyperlink ref="X19" r:id="rId6" xr:uid="{6F5EC072-9F18-4EC5-8DB2-2DF2CBF01CB0}"/>
+    <hyperlink ref="X20" r:id="rId7" xr:uid="{4CA5FEE5-0C07-4808-9248-B660743F3774}"/>
+    <hyperlink ref="X21" r:id="rId8" xr:uid="{ED490A4D-F92A-47BE-9867-4314A59BC6B7}"/>
+    <hyperlink ref="X22" r:id="rId9" xr:uid="{46880446-6A4E-403B-ADFA-CE8197023B30}"/>
+    <hyperlink ref="X23" r:id="rId10" xr:uid="{9524D2D4-0229-4303-A39E-B5869A5AB6F9}"/>
+    <hyperlink ref="X24" r:id="rId11" xr:uid="{918DE3BD-31B5-4450-94FD-FF0C378CE62A}"/>
+    <hyperlink ref="X25" r:id="rId12" xr:uid="{6DCC4064-F791-487D-8795-51EDAB204E8F}"/>
+    <hyperlink ref="X26" r:id="rId13" xr:uid="{CDB54460-A79F-4C90-B70B-EEBEE40D5E15}"/>
+    <hyperlink ref="X27" r:id="rId14" xr:uid="{020E49A6-F847-4012-A984-5906C66B24C2}"/>
+    <hyperlink ref="X28" r:id="rId15" xr:uid="{116CD7FA-45D6-45D0-9F78-90290FDE7EC3}"/>
+    <hyperlink ref="M3" r:id="rId16" xr:uid="{B6C5C0C4-A5CD-4989-9129-C8A7A85B04B8}"/>
+    <hyperlink ref="X3" r:id="rId17" xr:uid="{2F3B3A48-891E-47E7-8670-CEDB6572CA2B}"/>
+    <hyperlink ref="M4" r:id="rId18" xr:uid="{6A74C82A-96E6-471E-8814-621213BF313E}"/>
+    <hyperlink ref="X4" r:id="rId19" xr:uid="{FD29A6B0-0DCE-4017-BE5D-844FE8F434EA}"/>
+    <hyperlink ref="M5" r:id="rId20" xr:uid="{06767FBB-30D3-4571-B179-8F6EB3FEC4B4}"/>
+    <hyperlink ref="X5" r:id="rId21" xr:uid="{8840BE2F-FC00-482D-8632-9DB48E041BCA}"/>
+    <hyperlink ref="M6" r:id="rId22" xr:uid="{0A59FE27-88F7-4F24-A496-311F958815C8}"/>
+    <hyperlink ref="X6" r:id="rId23" xr:uid="{8DC3250D-4424-4A6C-B68D-FEC080B637FA}"/>
+    <hyperlink ref="M7" r:id="rId24" xr:uid="{4DC610F6-9A84-4368-BDF1-FF9BB2560852}"/>
+    <hyperlink ref="X7" r:id="rId25" xr:uid="{0FC8FA66-5837-4A59-BD4F-2E68649B972A}"/>
+    <hyperlink ref="M8" r:id="rId26" xr:uid="{88F825E6-41C8-4F6A-96AE-F0685382C2FB}"/>
+    <hyperlink ref="X8" r:id="rId27" xr:uid="{BF022674-73DC-417D-AA01-42951A83A5A9}"/>
+    <hyperlink ref="M9" r:id="rId28" xr:uid="{FA4C93BE-D55C-4CEF-901E-0EE7890E7319}"/>
+    <hyperlink ref="X9" r:id="rId29" xr:uid="{FE2E5242-2733-429A-B446-49922A127C38}"/>
+    <hyperlink ref="M10" r:id="rId30" xr:uid="{38AAA3EB-9E30-46B7-9C48-8E21BCE16101}"/>
+    <hyperlink ref="X10" r:id="rId31" xr:uid="{465D83FD-48FF-48EE-A4AA-EE7AF90F5BBD}"/>
+    <hyperlink ref="X11" r:id="rId32" xr:uid="{A8D2FF8B-A2A9-4B6F-B217-2E14C6EE9235}"/>
+    <hyperlink ref="M11" r:id="rId33" xr:uid="{175F9C8E-DB2C-48B2-B5D8-B249A4302B95}"/>
+    <hyperlink ref="X12" r:id="rId34" xr:uid="{E8D52455-2D02-474B-887B-F66CB5AB7BF3}"/>
+    <hyperlink ref="M12" r:id="rId35" xr:uid="{E9C6333C-597D-41EE-B1FC-1EE6178B208F}"/>
+    <hyperlink ref="X13" r:id="rId36" xr:uid="{8F2202D7-9DB8-441F-A802-398ADF2EFB9B}"/>
+    <hyperlink ref="M13" r:id="rId37" xr:uid="{5D30A358-A0BD-4F64-98E8-9F16E791B106}"/>
+    <hyperlink ref="X14" r:id="rId38" xr:uid="{104DBC51-97D1-4A7F-9676-DA2144C8BCF2}"/>
+    <hyperlink ref="M14" r:id="rId39" xr:uid="{D24A006E-62D8-4CFC-ADF2-379D45B10FF0}"/>
+    <hyperlink ref="X15" r:id="rId40" xr:uid="{D310A4E7-C9AA-43B0-8463-E957DE6367C0}"/>
+    <hyperlink ref="M15" r:id="rId41" xr:uid="{663D5588-CAD1-437B-8677-1C84B795019D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9008,8 +9118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BB1AD0-E1E7-4AA3-8FBD-385271ECBB27}">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9650,7 +9760,7 @@
         <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C11" t="s">
         <v>346</v>
@@ -9683,7 +9793,7 @@
         <v>335</v>
       </c>
       <c r="M11" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="N11">
         <v>9876543210</v>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D674765A-CB21-4591-8CF9-38BFA9ED5F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829C108B-2530-4D90-918E-84EDA0C1C9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="883" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="883" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditConsignmentUAT" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="569">
   <si>
     <t>RunToTest</t>
   </si>
@@ -1729,6 +1729,15 @@
   </si>
   <si>
     <t>PROD00031010</t>
+  </si>
+  <si>
+    <t>PROD00021010</t>
+  </si>
+  <si>
+    <t>PROD00011007</t>
+  </si>
+  <si>
+    <t>PROD00031011</t>
   </si>
 </sst>
 </file>
@@ -9409,10 +9418,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE03A24-5145-4BFC-B798-CD5C2D481D00}">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10169,7 +10178,7 @@
     </row>
     <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>563</v>
@@ -10241,6 +10250,83 @@
         <v>30</v>
       </c>
       <c r="Z16" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H17" s="1">
+        <v>400</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1">
+        <v>40</v>
+      </c>
+      <c r="O17" s="1">
+        <v>45</v>
+      </c>
+      <c r="P17" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="S17" s="1">
+        <v>30</v>
+      </c>
+      <c r="T17" s="1">
+        <v>50</v>
+      </c>
+      <c r="U17" s="1">
+        <v>60</v>
+      </c>
+      <c r="V17" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+      <c r="W17" s="1">
+        <v>60</v>
+      </c>
+      <c r="X17" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z17" s="1">
         <v>5.0255000000000001</v>
       </c>
     </row>
@@ -10307,8 +10393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1FC442-2A76-4913-8893-A0FD6FAA9326}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="M11" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="P11" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11365,7 +11451,7 @@
     </row>
     <row r="15" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>564</v>
@@ -11437,8 +11523,76 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M16" s="2"/>
+    <row r="16" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>567</v>
+      </c>
+      <c r="C16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" t="s">
+        <v>342</v>
+      </c>
+      <c r="F16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" t="s">
+        <v>359</v>
+      </c>
+      <c r="O16" t="s">
+        <v>343</v>
+      </c>
+      <c r="P16" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q16">
+        <v>123</v>
+      </c>
+      <c r="R16">
+        <v>987545555555555</v>
+      </c>
+      <c r="S16" t="s">
+        <v>124</v>
+      </c>
+      <c r="T16">
+        <v>1.11188888888888E+18</v>
+      </c>
+      <c r="U16" t="s">
+        <v>128</v>
+      </c>
+      <c r="V16" t="s">
+        <v>129</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
       <c r="X16" s="3" t="s">
         <v>116</v>
       </c>
@@ -11544,45 +11698,46 @@
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{358998FA-15FF-431B-99C1-DF0C84EFB86F}"/>
     <hyperlink ref="X2" r:id="rId2" xr:uid="{AE14EEEB-3B83-40AE-9BDF-EA985C28F832}"/>
-    <hyperlink ref="X16" r:id="rId3" xr:uid="{19361FA6-9504-453F-92E7-DF6E9F4FA63D}"/>
-    <hyperlink ref="X17" r:id="rId4" xr:uid="{F402E61A-6BC9-41B2-87DF-C3A27E532E13}"/>
-    <hyperlink ref="X18" r:id="rId5" xr:uid="{43A3EAE1-5CC3-4836-A288-2BF5FC280717}"/>
-    <hyperlink ref="X19" r:id="rId6" xr:uid="{6F5EC072-9F18-4EC5-8DB2-2DF2CBF01CB0}"/>
-    <hyperlink ref="X20" r:id="rId7" xr:uid="{4CA5FEE5-0C07-4808-9248-B660743F3774}"/>
-    <hyperlink ref="X21" r:id="rId8" xr:uid="{ED490A4D-F92A-47BE-9867-4314A59BC6B7}"/>
-    <hyperlink ref="X22" r:id="rId9" xr:uid="{46880446-6A4E-403B-ADFA-CE8197023B30}"/>
-    <hyperlink ref="X23" r:id="rId10" xr:uid="{9524D2D4-0229-4303-A39E-B5869A5AB6F9}"/>
-    <hyperlink ref="X24" r:id="rId11" xr:uid="{918DE3BD-31B5-4450-94FD-FF0C378CE62A}"/>
-    <hyperlink ref="X25" r:id="rId12" xr:uid="{6DCC4064-F791-487D-8795-51EDAB204E8F}"/>
-    <hyperlink ref="X26" r:id="rId13" xr:uid="{CDB54460-A79F-4C90-B70B-EEBEE40D5E15}"/>
-    <hyperlink ref="X27" r:id="rId14" xr:uid="{020E49A6-F847-4012-A984-5906C66B24C2}"/>
-    <hyperlink ref="X28" r:id="rId15" xr:uid="{116CD7FA-45D6-45D0-9F78-90290FDE7EC3}"/>
-    <hyperlink ref="M3" r:id="rId16" xr:uid="{B6C5C0C4-A5CD-4989-9129-C8A7A85B04B8}"/>
-    <hyperlink ref="X3" r:id="rId17" xr:uid="{2F3B3A48-891E-47E7-8670-CEDB6572CA2B}"/>
-    <hyperlink ref="M4" r:id="rId18" xr:uid="{6A74C82A-96E6-471E-8814-621213BF313E}"/>
-    <hyperlink ref="X4" r:id="rId19" xr:uid="{FD29A6B0-0DCE-4017-BE5D-844FE8F434EA}"/>
-    <hyperlink ref="M5" r:id="rId20" xr:uid="{06767FBB-30D3-4571-B179-8F6EB3FEC4B4}"/>
-    <hyperlink ref="X5" r:id="rId21" xr:uid="{8840BE2F-FC00-482D-8632-9DB48E041BCA}"/>
-    <hyperlink ref="M6" r:id="rId22" xr:uid="{0A59FE27-88F7-4F24-A496-311F958815C8}"/>
-    <hyperlink ref="X6" r:id="rId23" xr:uid="{8DC3250D-4424-4A6C-B68D-FEC080B637FA}"/>
-    <hyperlink ref="M7" r:id="rId24" xr:uid="{4DC610F6-9A84-4368-BDF1-FF9BB2560852}"/>
-    <hyperlink ref="X7" r:id="rId25" xr:uid="{0FC8FA66-5837-4A59-BD4F-2E68649B972A}"/>
-    <hyperlink ref="M8" r:id="rId26" xr:uid="{88F825E6-41C8-4F6A-96AE-F0685382C2FB}"/>
-    <hyperlink ref="X8" r:id="rId27" xr:uid="{BF022674-73DC-417D-AA01-42951A83A5A9}"/>
-    <hyperlink ref="M9" r:id="rId28" xr:uid="{FA4C93BE-D55C-4CEF-901E-0EE7890E7319}"/>
-    <hyperlink ref="X9" r:id="rId29" xr:uid="{FE2E5242-2733-429A-B446-49922A127C38}"/>
-    <hyperlink ref="M10" r:id="rId30" xr:uid="{38AAA3EB-9E30-46B7-9C48-8E21BCE16101}"/>
-    <hyperlink ref="X10" r:id="rId31" xr:uid="{465D83FD-48FF-48EE-A4AA-EE7AF90F5BBD}"/>
-    <hyperlink ref="X11" r:id="rId32" xr:uid="{A8D2FF8B-A2A9-4B6F-B217-2E14C6EE9235}"/>
-    <hyperlink ref="M11" r:id="rId33" xr:uid="{175F9C8E-DB2C-48B2-B5D8-B249A4302B95}"/>
-    <hyperlink ref="X12" r:id="rId34" xr:uid="{E8D52455-2D02-474B-887B-F66CB5AB7BF3}"/>
-    <hyperlink ref="M12" r:id="rId35" xr:uid="{E9C6333C-597D-41EE-B1FC-1EE6178B208F}"/>
-    <hyperlink ref="X13" r:id="rId36" xr:uid="{8F2202D7-9DB8-441F-A802-398ADF2EFB9B}"/>
-    <hyperlink ref="M13" r:id="rId37" xr:uid="{5D30A358-A0BD-4F64-98E8-9F16E791B106}"/>
-    <hyperlink ref="X14" r:id="rId38" xr:uid="{104DBC51-97D1-4A7F-9676-DA2144C8BCF2}"/>
-    <hyperlink ref="M14" r:id="rId39" xr:uid="{D24A006E-62D8-4CFC-ADF2-379D45B10FF0}"/>
-    <hyperlink ref="X15" r:id="rId40" xr:uid="{EEBAAFBA-790C-4DDF-B14F-973B95084BB4}"/>
-    <hyperlink ref="M15" r:id="rId41" xr:uid="{3F639266-ADC2-4A0F-BD83-A1AB3881E65F}"/>
+    <hyperlink ref="X17" r:id="rId3" xr:uid="{F402E61A-6BC9-41B2-87DF-C3A27E532E13}"/>
+    <hyperlink ref="X18" r:id="rId4" xr:uid="{43A3EAE1-5CC3-4836-A288-2BF5FC280717}"/>
+    <hyperlink ref="X19" r:id="rId5" xr:uid="{6F5EC072-9F18-4EC5-8DB2-2DF2CBF01CB0}"/>
+    <hyperlink ref="X20" r:id="rId6" xr:uid="{4CA5FEE5-0C07-4808-9248-B660743F3774}"/>
+    <hyperlink ref="X21" r:id="rId7" xr:uid="{ED490A4D-F92A-47BE-9867-4314A59BC6B7}"/>
+    <hyperlink ref="X22" r:id="rId8" xr:uid="{46880446-6A4E-403B-ADFA-CE8197023B30}"/>
+    <hyperlink ref="X23" r:id="rId9" xr:uid="{9524D2D4-0229-4303-A39E-B5869A5AB6F9}"/>
+    <hyperlink ref="X24" r:id="rId10" xr:uid="{918DE3BD-31B5-4450-94FD-FF0C378CE62A}"/>
+    <hyperlink ref="X25" r:id="rId11" xr:uid="{6DCC4064-F791-487D-8795-51EDAB204E8F}"/>
+    <hyperlink ref="X26" r:id="rId12" xr:uid="{CDB54460-A79F-4C90-B70B-EEBEE40D5E15}"/>
+    <hyperlink ref="X27" r:id="rId13" xr:uid="{020E49A6-F847-4012-A984-5906C66B24C2}"/>
+    <hyperlink ref="X28" r:id="rId14" xr:uid="{116CD7FA-45D6-45D0-9F78-90290FDE7EC3}"/>
+    <hyperlink ref="M3" r:id="rId15" xr:uid="{B6C5C0C4-A5CD-4989-9129-C8A7A85B04B8}"/>
+    <hyperlink ref="X3" r:id="rId16" xr:uid="{2F3B3A48-891E-47E7-8670-CEDB6572CA2B}"/>
+    <hyperlink ref="M4" r:id="rId17" xr:uid="{6A74C82A-96E6-471E-8814-621213BF313E}"/>
+    <hyperlink ref="X4" r:id="rId18" xr:uid="{FD29A6B0-0DCE-4017-BE5D-844FE8F434EA}"/>
+    <hyperlink ref="M5" r:id="rId19" xr:uid="{06767FBB-30D3-4571-B179-8F6EB3FEC4B4}"/>
+    <hyperlink ref="X5" r:id="rId20" xr:uid="{8840BE2F-FC00-482D-8632-9DB48E041BCA}"/>
+    <hyperlink ref="M6" r:id="rId21" xr:uid="{0A59FE27-88F7-4F24-A496-311F958815C8}"/>
+    <hyperlink ref="X6" r:id="rId22" xr:uid="{8DC3250D-4424-4A6C-B68D-FEC080B637FA}"/>
+    <hyperlink ref="M7" r:id="rId23" xr:uid="{4DC610F6-9A84-4368-BDF1-FF9BB2560852}"/>
+    <hyperlink ref="X7" r:id="rId24" xr:uid="{0FC8FA66-5837-4A59-BD4F-2E68649B972A}"/>
+    <hyperlink ref="M8" r:id="rId25" xr:uid="{88F825E6-41C8-4F6A-96AE-F0685382C2FB}"/>
+    <hyperlink ref="X8" r:id="rId26" xr:uid="{BF022674-73DC-417D-AA01-42951A83A5A9}"/>
+    <hyperlink ref="M9" r:id="rId27" xr:uid="{FA4C93BE-D55C-4CEF-901E-0EE7890E7319}"/>
+    <hyperlink ref="X9" r:id="rId28" xr:uid="{FE2E5242-2733-429A-B446-49922A127C38}"/>
+    <hyperlink ref="M10" r:id="rId29" xr:uid="{38AAA3EB-9E30-46B7-9C48-8E21BCE16101}"/>
+    <hyperlink ref="X10" r:id="rId30" xr:uid="{465D83FD-48FF-48EE-A4AA-EE7AF90F5BBD}"/>
+    <hyperlink ref="X11" r:id="rId31" xr:uid="{A8D2FF8B-A2A9-4B6F-B217-2E14C6EE9235}"/>
+    <hyperlink ref="M11" r:id="rId32" xr:uid="{175F9C8E-DB2C-48B2-B5D8-B249A4302B95}"/>
+    <hyperlink ref="X12" r:id="rId33" xr:uid="{E8D52455-2D02-474B-887B-F66CB5AB7BF3}"/>
+    <hyperlink ref="M12" r:id="rId34" xr:uid="{E9C6333C-597D-41EE-B1FC-1EE6178B208F}"/>
+    <hyperlink ref="X13" r:id="rId35" xr:uid="{8F2202D7-9DB8-441F-A802-398ADF2EFB9B}"/>
+    <hyperlink ref="M13" r:id="rId36" xr:uid="{5D30A358-A0BD-4F64-98E8-9F16E791B106}"/>
+    <hyperlink ref="X14" r:id="rId37" xr:uid="{104DBC51-97D1-4A7F-9676-DA2144C8BCF2}"/>
+    <hyperlink ref="M14" r:id="rId38" xr:uid="{D24A006E-62D8-4CFC-ADF2-379D45B10FF0}"/>
+    <hyperlink ref="X15" r:id="rId39" xr:uid="{EEBAAFBA-790C-4DDF-B14F-973B95084BB4}"/>
+    <hyperlink ref="M15" r:id="rId40" xr:uid="{3F639266-ADC2-4A0F-BD83-A1AB3881E65F}"/>
+    <hyperlink ref="X16" r:id="rId41" xr:uid="{8D52F66F-F853-4C97-8FCB-310C0712816A}"/>
+    <hyperlink ref="M16" r:id="rId42" xr:uid="{4A84D3DC-9E57-4918-A6C6-54B0B826E194}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11592,10 +11747,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BB1AD0-E1E7-4AA3-8FBD-385271ECBB27}">
   <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="W15" sqref="W15"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12688,7 +12843,7 @@
     </row>
     <row r="15" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>565</v>
@@ -12790,10 +12945,109 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="O16" s="2"/>
+    <row r="16" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>568</v>
+      </c>
+      <c r="C16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" t="s">
+        <v>347</v>
+      </c>
+      <c r="E16" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L16" t="s">
+        <v>335</v>
+      </c>
+      <c r="M16" t="s">
+        <v>480</v>
+      </c>
+      <c r="N16">
+        <v>9876543210</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P16">
+        <v>107</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>156</v>
+      </c>
+      <c r="R16" t="s">
+        <v>129</v>
+      </c>
+      <c r="S16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>25</v>
+      </c>
+      <c r="V16">
+        <v>30</v>
+      </c>
+      <c r="W16">
+        <v>35</v>
+      </c>
+      <c r="X16">
+        <v>1.52</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z16">
+        <v>6</v>
+      </c>
+      <c r="AA16">
+        <v>8</v>
+      </c>
+      <c r="AB16">
+        <v>7</v>
+      </c>
+      <c r="AC16">
+        <v>1.256</v>
+      </c>
+      <c r="AD16">
+        <v>5</v>
+      </c>
+      <c r="AE16">
+        <v>8</v>
+      </c>
+      <c r="AF16">
+        <v>12</v>
+      </c>
+      <c r="AG16">
+        <v>1.78</v>
+      </c>
+      <c r="AH16">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J17" s="2"/>
@@ -13326,6 +13580,8 @@
     <hyperlink ref="O14" r:id="rId26" xr:uid="{C9854A30-1431-4A71-91D0-7578FC50B844}"/>
     <hyperlink ref="J15" r:id="rId27" xr:uid="{04633D87-9E4C-4B18-851E-1CAF73816960}"/>
     <hyperlink ref="O15" r:id="rId28" xr:uid="{6EEABB60-7AB3-42D9-9ADF-9E10D159DB0B}"/>
+    <hyperlink ref="J16" r:id="rId29" xr:uid="{63E0615C-2480-4542-AA8D-B37B335F03DE}"/>
+    <hyperlink ref="O16" r:id="rId30" xr:uid="{EFA3265C-6B58-4700-B674-7A79F60486D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829C108B-2530-4D90-918E-84EDA0C1C9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB317A72-83A1-4860-B210-199DA1B014CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="883" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="883" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditConsignmentUAT" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="597">
   <si>
     <t>RunToTest</t>
   </si>
@@ -1738,6 +1738,90 @@
   </si>
   <si>
     <t>PROD00031011</t>
+  </si>
+  <si>
+    <t>UAT42092279</t>
+  </si>
+  <si>
+    <t>UAT08000140</t>
+  </si>
+  <si>
+    <t>Nasreen48</t>
+  </si>
+  <si>
+    <t>TestLast52</t>
+  </si>
+  <si>
+    <t>UAT42092280</t>
+  </si>
+  <si>
+    <t>UAT42092281</t>
+  </si>
+  <si>
+    <t>UAT42092282</t>
+  </si>
+  <si>
+    <t>UAT42092283</t>
+  </si>
+  <si>
+    <t>PROD00011008</t>
+  </si>
+  <si>
+    <t>UAT08000141</t>
+  </si>
+  <si>
+    <t>UAT07000152</t>
+  </si>
+  <si>
+    <t>FNAutomation45</t>
+  </si>
+  <si>
+    <t>LNAutomation46</t>
+  </si>
+  <si>
+    <t>TestLast54</t>
+  </si>
+  <si>
+    <t>Nasreen49</t>
+  </si>
+  <si>
+    <t>UAT08000142</t>
+  </si>
+  <si>
+    <t>Nasreen50</t>
+  </si>
+  <si>
+    <t>TestLast55</t>
+  </si>
+  <si>
+    <t>UAT07000153</t>
+  </si>
+  <si>
+    <t>UAT08000143</t>
+  </si>
+  <si>
+    <t>Nasreen51</t>
+  </si>
+  <si>
+    <t>TestLast56</t>
+  </si>
+  <si>
+    <t>ackermans update</t>
+  </si>
+  <si>
+    <t>Ackerman</t>
+  </si>
+  <si>
+    <t>UAT42092284</t>
+  </si>
+  <si>
+    <t>PROD00021011</t>
+  </si>
+  <si>
+    <t>PROD00011009</t>
+  </si>
+  <si>
+    <t>PROD00031012</t>
   </si>
 </sst>
 </file>
@@ -2080,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8405AF85-5464-4890-B270-0726F40F5518}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,7 +2453,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>405</v>
@@ -2379,8 +2463,16 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
-        <v>406</v>
+      <c r="B31" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -2390,11 +2482,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B155" sqref="B155"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9324,7 +9416,7 @@
     </row>
     <row r="155" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>556</v>
@@ -9405,6 +9497,522 @@
         <v>60</v>
       </c>
       <c r="AB155" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I156" s="1">
+        <v>456</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L156" s="1">
+        <v>1</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N156" s="1">
+        <v>60</v>
+      </c>
+      <c r="O156" s="1">
+        <v>50</v>
+      </c>
+      <c r="P156" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S156" s="1">
+        <v>1</v>
+      </c>
+      <c r="T156" s="1">
+        <v>35</v>
+      </c>
+      <c r="U156" s="1">
+        <v>40</v>
+      </c>
+      <c r="V156" s="1">
+        <v>52</v>
+      </c>
+      <c r="W156" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X156" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y156" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z156" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA156" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB156" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I157" s="1">
+        <v>456</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L157" s="1">
+        <v>1</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N157" s="1">
+        <v>60</v>
+      </c>
+      <c r="O157" s="1">
+        <v>50</v>
+      </c>
+      <c r="P157" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S157" s="1">
+        <v>1</v>
+      </c>
+      <c r="T157" s="1">
+        <v>35</v>
+      </c>
+      <c r="U157" s="1">
+        <v>40</v>
+      </c>
+      <c r="V157" s="1">
+        <v>52</v>
+      </c>
+      <c r="W157" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X157" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y157" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z157" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA157" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB157" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I158" s="1">
+        <v>456</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L158" s="1">
+        <v>1</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N158" s="1">
+        <v>60</v>
+      </c>
+      <c r="O158" s="1">
+        <v>50</v>
+      </c>
+      <c r="P158" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S158" s="1">
+        <v>1</v>
+      </c>
+      <c r="T158" s="1">
+        <v>35</v>
+      </c>
+      <c r="U158" s="1">
+        <v>40</v>
+      </c>
+      <c r="V158" s="1">
+        <v>52</v>
+      </c>
+      <c r="W158" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X158" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y158" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z158" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA158" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB158" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I159" s="1">
+        <v>456</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L159" s="1">
+        <v>1</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N159" s="1">
+        <v>60</v>
+      </c>
+      <c r="O159" s="1">
+        <v>50</v>
+      </c>
+      <c r="P159" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S159" s="1">
+        <v>1</v>
+      </c>
+      <c r="T159" s="1">
+        <v>35</v>
+      </c>
+      <c r="U159" s="1">
+        <v>40</v>
+      </c>
+      <c r="V159" s="1">
+        <v>52</v>
+      </c>
+      <c r="W159" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X159" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y159" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z159" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA159" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB159" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I160" s="1">
+        <v>456</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L160" s="1">
+        <v>1</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N160" s="1">
+        <v>60</v>
+      </c>
+      <c r="O160" s="1">
+        <v>50</v>
+      </c>
+      <c r="P160" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q160" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S160" s="1">
+        <v>1</v>
+      </c>
+      <c r="T160" s="1">
+        <v>35</v>
+      </c>
+      <c r="U160" s="1">
+        <v>40</v>
+      </c>
+      <c r="V160" s="1">
+        <v>52</v>
+      </c>
+      <c r="W160" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X160" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y160" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z160" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA160" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB160" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I161" s="1">
+        <v>456</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L161" s="1">
+        <v>1</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N161" s="1">
+        <v>60</v>
+      </c>
+      <c r="O161" s="1">
+        <v>50</v>
+      </c>
+      <c r="P161" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q161" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S161" s="1">
+        <v>1</v>
+      </c>
+      <c r="T161" s="1">
+        <v>35</v>
+      </c>
+      <c r="U161" s="1">
+        <v>40</v>
+      </c>
+      <c r="V161" s="1">
+        <v>52</v>
+      </c>
+      <c r="W161" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X161" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y161" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z161" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA161" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB161" s="1">
         <v>8.0779999999999994</v>
       </c>
     </row>
@@ -9418,10 +10026,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE03A24-5145-4BFC-B798-CD5C2D481D00}">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10255,7 +10863,7 @@
     </row>
     <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>566</v>
@@ -10327,6 +10935,83 @@
         <v>30</v>
       </c>
       <c r="Z17" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H18" s="1">
+        <v>400</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3</v>
+      </c>
+      <c r="N18" s="1">
+        <v>40</v>
+      </c>
+      <c r="O18" s="1">
+        <v>45</v>
+      </c>
+      <c r="P18" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="S18" s="1">
+        <v>30</v>
+      </c>
+      <c r="T18" s="1">
+        <v>50</v>
+      </c>
+      <c r="U18" s="1">
+        <v>60</v>
+      </c>
+      <c r="V18" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+      <c r="W18" s="1">
+        <v>60</v>
+      </c>
+      <c r="X18" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z18" s="1">
         <v>5.0255000000000001</v>
       </c>
     </row>
@@ -10393,8 +11078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1FC442-2A76-4913-8893-A0FD6FAA9326}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="P11" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11525,7 +12210,7 @@
     </row>
     <row r="16" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>567</v>
@@ -11597,73 +12282,209 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="13:24" x14ac:dyDescent="0.25">
-      <c r="M17" s="2"/>
+    <row r="17" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>577</v>
+      </c>
+      <c r="C17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17" t="s">
+        <v>332</v>
+      </c>
+      <c r="G17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" t="s">
+        <v>359</v>
+      </c>
+      <c r="O17" t="s">
+        <v>343</v>
+      </c>
+      <c r="P17" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q17">
+        <v>123</v>
+      </c>
+      <c r="R17">
+        <v>987545555555555</v>
+      </c>
+      <c r="S17" t="s">
+        <v>124</v>
+      </c>
+      <c r="T17">
+        <v>1.11188888888888E+18</v>
+      </c>
+      <c r="U17" t="s">
+        <v>128</v>
+      </c>
+      <c r="V17" t="s">
+        <v>129</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
       <c r="X17" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="13:24" x14ac:dyDescent="0.25">
-      <c r="M18" s="2"/>
+    <row r="18" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>595</v>
+      </c>
+      <c r="C18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" t="s">
+        <v>332</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" t="s">
+        <v>359</v>
+      </c>
+      <c r="O18" t="s">
+        <v>343</v>
+      </c>
+      <c r="P18" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q18">
+        <v>123</v>
+      </c>
+      <c r="R18">
+        <v>987545555555555</v>
+      </c>
+      <c r="S18" t="s">
+        <v>124</v>
+      </c>
+      <c r="T18">
+        <v>1.11188888888888E+18</v>
+      </c>
+      <c r="U18" t="s">
+        <v>128</v>
+      </c>
+      <c r="V18" t="s">
+        <v>129</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
       <c r="X18" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M19" s="2"/>
       <c r="X19" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M20" s="2"/>
       <c r="X20" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M21" s="2"/>
       <c r="X21" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M22" s="2"/>
       <c r="X22" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M23" s="2"/>
       <c r="X23" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M24" s="2"/>
       <c r="X24" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M25" s="2"/>
       <c r="X25" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M26" s="2"/>
       <c r="X26" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M27" s="2"/>
       <c r="X27" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M28" s="2"/>
       <c r="X28" s="3" t="s">
         <v>116</v>
@@ -11698,46 +12519,48 @@
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{358998FA-15FF-431B-99C1-DF0C84EFB86F}"/>
     <hyperlink ref="X2" r:id="rId2" xr:uid="{AE14EEEB-3B83-40AE-9BDF-EA985C28F832}"/>
-    <hyperlink ref="X17" r:id="rId3" xr:uid="{F402E61A-6BC9-41B2-87DF-C3A27E532E13}"/>
-    <hyperlink ref="X18" r:id="rId4" xr:uid="{43A3EAE1-5CC3-4836-A288-2BF5FC280717}"/>
-    <hyperlink ref="X19" r:id="rId5" xr:uid="{6F5EC072-9F18-4EC5-8DB2-2DF2CBF01CB0}"/>
-    <hyperlink ref="X20" r:id="rId6" xr:uid="{4CA5FEE5-0C07-4808-9248-B660743F3774}"/>
-    <hyperlink ref="X21" r:id="rId7" xr:uid="{ED490A4D-F92A-47BE-9867-4314A59BC6B7}"/>
-    <hyperlink ref="X22" r:id="rId8" xr:uid="{46880446-6A4E-403B-ADFA-CE8197023B30}"/>
-    <hyperlink ref="X23" r:id="rId9" xr:uid="{9524D2D4-0229-4303-A39E-B5869A5AB6F9}"/>
-    <hyperlink ref="X24" r:id="rId10" xr:uid="{918DE3BD-31B5-4450-94FD-FF0C378CE62A}"/>
-    <hyperlink ref="X25" r:id="rId11" xr:uid="{6DCC4064-F791-487D-8795-51EDAB204E8F}"/>
-    <hyperlink ref="X26" r:id="rId12" xr:uid="{CDB54460-A79F-4C90-B70B-EEBEE40D5E15}"/>
-    <hyperlink ref="X27" r:id="rId13" xr:uid="{020E49A6-F847-4012-A984-5906C66B24C2}"/>
-    <hyperlink ref="X28" r:id="rId14" xr:uid="{116CD7FA-45D6-45D0-9F78-90290FDE7EC3}"/>
-    <hyperlink ref="M3" r:id="rId15" xr:uid="{B6C5C0C4-A5CD-4989-9129-C8A7A85B04B8}"/>
-    <hyperlink ref="X3" r:id="rId16" xr:uid="{2F3B3A48-891E-47E7-8670-CEDB6572CA2B}"/>
-    <hyperlink ref="M4" r:id="rId17" xr:uid="{6A74C82A-96E6-471E-8814-621213BF313E}"/>
-    <hyperlink ref="X4" r:id="rId18" xr:uid="{FD29A6B0-0DCE-4017-BE5D-844FE8F434EA}"/>
-    <hyperlink ref="M5" r:id="rId19" xr:uid="{06767FBB-30D3-4571-B179-8F6EB3FEC4B4}"/>
-    <hyperlink ref="X5" r:id="rId20" xr:uid="{8840BE2F-FC00-482D-8632-9DB48E041BCA}"/>
-    <hyperlink ref="M6" r:id="rId21" xr:uid="{0A59FE27-88F7-4F24-A496-311F958815C8}"/>
-    <hyperlink ref="X6" r:id="rId22" xr:uid="{8DC3250D-4424-4A6C-B68D-FEC080B637FA}"/>
-    <hyperlink ref="M7" r:id="rId23" xr:uid="{4DC610F6-9A84-4368-BDF1-FF9BB2560852}"/>
-    <hyperlink ref="X7" r:id="rId24" xr:uid="{0FC8FA66-5837-4A59-BD4F-2E68649B972A}"/>
-    <hyperlink ref="M8" r:id="rId25" xr:uid="{88F825E6-41C8-4F6A-96AE-F0685382C2FB}"/>
-    <hyperlink ref="X8" r:id="rId26" xr:uid="{BF022674-73DC-417D-AA01-42951A83A5A9}"/>
-    <hyperlink ref="M9" r:id="rId27" xr:uid="{FA4C93BE-D55C-4CEF-901E-0EE7890E7319}"/>
-    <hyperlink ref="X9" r:id="rId28" xr:uid="{FE2E5242-2733-429A-B446-49922A127C38}"/>
-    <hyperlink ref="M10" r:id="rId29" xr:uid="{38AAA3EB-9E30-46B7-9C48-8E21BCE16101}"/>
-    <hyperlink ref="X10" r:id="rId30" xr:uid="{465D83FD-48FF-48EE-A4AA-EE7AF90F5BBD}"/>
-    <hyperlink ref="X11" r:id="rId31" xr:uid="{A8D2FF8B-A2A9-4B6F-B217-2E14C6EE9235}"/>
-    <hyperlink ref="M11" r:id="rId32" xr:uid="{175F9C8E-DB2C-48B2-B5D8-B249A4302B95}"/>
-    <hyperlink ref="X12" r:id="rId33" xr:uid="{E8D52455-2D02-474B-887B-F66CB5AB7BF3}"/>
-    <hyperlink ref="M12" r:id="rId34" xr:uid="{E9C6333C-597D-41EE-B1FC-1EE6178B208F}"/>
-    <hyperlink ref="X13" r:id="rId35" xr:uid="{8F2202D7-9DB8-441F-A802-398ADF2EFB9B}"/>
-    <hyperlink ref="M13" r:id="rId36" xr:uid="{5D30A358-A0BD-4F64-98E8-9F16E791B106}"/>
-    <hyperlink ref="X14" r:id="rId37" xr:uid="{104DBC51-97D1-4A7F-9676-DA2144C8BCF2}"/>
-    <hyperlink ref="M14" r:id="rId38" xr:uid="{D24A006E-62D8-4CFC-ADF2-379D45B10FF0}"/>
-    <hyperlink ref="X15" r:id="rId39" xr:uid="{EEBAAFBA-790C-4DDF-B14F-973B95084BB4}"/>
-    <hyperlink ref="M15" r:id="rId40" xr:uid="{3F639266-ADC2-4A0F-BD83-A1AB3881E65F}"/>
-    <hyperlink ref="X16" r:id="rId41" xr:uid="{8D52F66F-F853-4C97-8FCB-310C0712816A}"/>
-    <hyperlink ref="M16" r:id="rId42" xr:uid="{4A84D3DC-9E57-4918-A6C6-54B0B826E194}"/>
+    <hyperlink ref="X19" r:id="rId3" xr:uid="{6F5EC072-9F18-4EC5-8DB2-2DF2CBF01CB0}"/>
+    <hyperlink ref="X20" r:id="rId4" xr:uid="{4CA5FEE5-0C07-4808-9248-B660743F3774}"/>
+    <hyperlink ref="X21" r:id="rId5" xr:uid="{ED490A4D-F92A-47BE-9867-4314A59BC6B7}"/>
+    <hyperlink ref="X22" r:id="rId6" xr:uid="{46880446-6A4E-403B-ADFA-CE8197023B30}"/>
+    <hyperlink ref="X23" r:id="rId7" xr:uid="{9524D2D4-0229-4303-A39E-B5869A5AB6F9}"/>
+    <hyperlink ref="X24" r:id="rId8" xr:uid="{918DE3BD-31B5-4450-94FD-FF0C378CE62A}"/>
+    <hyperlink ref="X25" r:id="rId9" xr:uid="{6DCC4064-F791-487D-8795-51EDAB204E8F}"/>
+    <hyperlink ref="X26" r:id="rId10" xr:uid="{CDB54460-A79F-4C90-B70B-EEBEE40D5E15}"/>
+    <hyperlink ref="X27" r:id="rId11" xr:uid="{020E49A6-F847-4012-A984-5906C66B24C2}"/>
+    <hyperlink ref="X28" r:id="rId12" xr:uid="{116CD7FA-45D6-45D0-9F78-90290FDE7EC3}"/>
+    <hyperlink ref="M3" r:id="rId13" xr:uid="{B6C5C0C4-A5CD-4989-9129-C8A7A85B04B8}"/>
+    <hyperlink ref="X3" r:id="rId14" xr:uid="{2F3B3A48-891E-47E7-8670-CEDB6572CA2B}"/>
+    <hyperlink ref="M4" r:id="rId15" xr:uid="{6A74C82A-96E6-471E-8814-621213BF313E}"/>
+    <hyperlink ref="X4" r:id="rId16" xr:uid="{FD29A6B0-0DCE-4017-BE5D-844FE8F434EA}"/>
+    <hyperlink ref="M5" r:id="rId17" xr:uid="{06767FBB-30D3-4571-B179-8F6EB3FEC4B4}"/>
+    <hyperlink ref="X5" r:id="rId18" xr:uid="{8840BE2F-FC00-482D-8632-9DB48E041BCA}"/>
+    <hyperlink ref="M6" r:id="rId19" xr:uid="{0A59FE27-88F7-4F24-A496-311F958815C8}"/>
+    <hyperlink ref="X6" r:id="rId20" xr:uid="{8DC3250D-4424-4A6C-B68D-FEC080B637FA}"/>
+    <hyperlink ref="M7" r:id="rId21" xr:uid="{4DC610F6-9A84-4368-BDF1-FF9BB2560852}"/>
+    <hyperlink ref="X7" r:id="rId22" xr:uid="{0FC8FA66-5837-4A59-BD4F-2E68649B972A}"/>
+    <hyperlink ref="M8" r:id="rId23" xr:uid="{88F825E6-41C8-4F6A-96AE-F0685382C2FB}"/>
+    <hyperlink ref="X8" r:id="rId24" xr:uid="{BF022674-73DC-417D-AA01-42951A83A5A9}"/>
+    <hyperlink ref="M9" r:id="rId25" xr:uid="{FA4C93BE-D55C-4CEF-901E-0EE7890E7319}"/>
+    <hyperlink ref="X9" r:id="rId26" xr:uid="{FE2E5242-2733-429A-B446-49922A127C38}"/>
+    <hyperlink ref="M10" r:id="rId27" xr:uid="{38AAA3EB-9E30-46B7-9C48-8E21BCE16101}"/>
+    <hyperlink ref="X10" r:id="rId28" xr:uid="{465D83FD-48FF-48EE-A4AA-EE7AF90F5BBD}"/>
+    <hyperlink ref="X11" r:id="rId29" xr:uid="{A8D2FF8B-A2A9-4B6F-B217-2E14C6EE9235}"/>
+    <hyperlink ref="M11" r:id="rId30" xr:uid="{175F9C8E-DB2C-48B2-B5D8-B249A4302B95}"/>
+    <hyperlink ref="X12" r:id="rId31" xr:uid="{E8D52455-2D02-474B-887B-F66CB5AB7BF3}"/>
+    <hyperlink ref="M12" r:id="rId32" xr:uid="{E9C6333C-597D-41EE-B1FC-1EE6178B208F}"/>
+    <hyperlink ref="X13" r:id="rId33" xr:uid="{8F2202D7-9DB8-441F-A802-398ADF2EFB9B}"/>
+    <hyperlink ref="M13" r:id="rId34" xr:uid="{5D30A358-A0BD-4F64-98E8-9F16E791B106}"/>
+    <hyperlink ref="X14" r:id="rId35" xr:uid="{104DBC51-97D1-4A7F-9676-DA2144C8BCF2}"/>
+    <hyperlink ref="M14" r:id="rId36" xr:uid="{D24A006E-62D8-4CFC-ADF2-379D45B10FF0}"/>
+    <hyperlink ref="X15" r:id="rId37" xr:uid="{EEBAAFBA-790C-4DDF-B14F-973B95084BB4}"/>
+    <hyperlink ref="M15" r:id="rId38" xr:uid="{3F639266-ADC2-4A0F-BD83-A1AB3881E65F}"/>
+    <hyperlink ref="X16" r:id="rId39" xr:uid="{8D52F66F-F853-4C97-8FCB-310C0712816A}"/>
+    <hyperlink ref="M16" r:id="rId40" xr:uid="{4A84D3DC-9E57-4918-A6C6-54B0B826E194}"/>
+    <hyperlink ref="X17" r:id="rId41" xr:uid="{BFA76D03-2585-476E-898A-F5F922BC46E5}"/>
+    <hyperlink ref="M17" r:id="rId42" xr:uid="{16210C17-6031-4E1F-AE50-0E24CA5629DA}"/>
+    <hyperlink ref="X18" r:id="rId43" xr:uid="{0B572359-839B-4310-978B-6BBC7F979A14}"/>
+    <hyperlink ref="M18" r:id="rId44" xr:uid="{D2A299A0-66F4-4BD3-84BE-226C3A273254}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11747,10 +12570,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BB1AD0-E1E7-4AA3-8FBD-385271ECBB27}">
   <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12947,7 +13770,7 @@
     </row>
     <row r="16" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>568</v>
@@ -13049,52 +13872,151 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>596</v>
+      </c>
+      <c r="C17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E17" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L17" t="s">
+        <v>335</v>
+      </c>
+      <c r="M17" t="s">
+        <v>480</v>
+      </c>
+      <c r="N17">
+        <v>9876543210</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P17">
+        <v>107</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>156</v>
+      </c>
+      <c r="R17" t="s">
+        <v>129</v>
+      </c>
+      <c r="S17" t="s">
+        <v>148</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>25</v>
+      </c>
+      <c r="V17">
+        <v>30</v>
+      </c>
+      <c r="W17">
+        <v>35</v>
+      </c>
+      <c r="X17">
+        <v>1.52</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z17">
+        <v>6</v>
+      </c>
+      <c r="AA17">
+        <v>8</v>
+      </c>
+      <c r="AB17">
+        <v>7</v>
+      </c>
+      <c r="AC17">
+        <v>1.256</v>
+      </c>
+      <c r="AD17">
+        <v>5</v>
+      </c>
+      <c r="AE17">
+        <v>8</v>
+      </c>
+      <c r="AF17">
+        <v>12</v>
+      </c>
+      <c r="AG17">
+        <v>1.78</v>
+      </c>
+      <c r="AH17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="O26" s="2"/>
@@ -13582,6 +14504,8 @@
     <hyperlink ref="O15" r:id="rId28" xr:uid="{6EEABB60-7AB3-42D9-9ADF-9E10D159DB0B}"/>
     <hyperlink ref="J16" r:id="rId29" xr:uid="{63E0615C-2480-4542-AA8D-B37B335F03DE}"/>
     <hyperlink ref="O16" r:id="rId30" xr:uid="{EFA3265C-6B58-4700-B674-7A79F60486D1}"/>
+    <hyperlink ref="J17" r:id="rId31" xr:uid="{419411F4-24F0-413D-93F6-36DC97548B7E}"/>
+    <hyperlink ref="O17" r:id="rId32" xr:uid="{F15D5250-51EE-4C2C-AC0B-9FC693A02FB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13591,9 +14515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X43" sqref="X43"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16722,7 +17646,7 @@
     </row>
     <row r="43" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
         <v>557</v>
@@ -16794,96 +17718,300 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
+      <c r="B44" t="s">
+        <v>570</v>
+      </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" t="s">
+        <v>571</v>
+      </c>
+      <c r="I44" t="s">
+        <v>572</v>
+      </c>
+      <c r="J44" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L44" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N44" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="s">
+        <v>121</v>
       </c>
       <c r="Q44">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R44">
+        <v>987545555555555</v>
+      </c>
+      <c r="S44" t="s">
+        <v>124</v>
+      </c>
+      <c r="T44">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U44" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V44" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X44" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>28</v>
       </c>
+      <c r="B45" t="s">
+        <v>578</v>
+      </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" t="s">
+        <v>583</v>
+      </c>
+      <c r="I45" t="s">
+        <v>582</v>
+      </c>
+      <c r="J45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L45" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N45" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O45" t="s">
+        <v>119</v>
+      </c>
+      <c r="P45" t="s">
+        <v>121</v>
       </c>
       <c r="Q45">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R45">
+        <v>987545555555555</v>
+      </c>
+      <c r="S45" t="s">
+        <v>124</v>
+      </c>
+      <c r="T45">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U45" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V45" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X45" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
+      <c r="B46" t="s">
+        <v>584</v>
+      </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" t="s">
+        <v>585</v>
+      </c>
+      <c r="I46" t="s">
+        <v>586</v>
+      </c>
+      <c r="J46" t="s">
+        <v>111</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L46" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N46" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O46" t="s">
+        <v>119</v>
+      </c>
+      <c r="P46" t="s">
+        <v>121</v>
       </c>
       <c r="Q46">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R46">
+        <v>987545555555555</v>
+      </c>
+      <c r="S46" t="s">
+        <v>124</v>
+      </c>
+      <c r="T46">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U46" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V46" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X46" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>588</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" t="s">
+        <v>589</v>
+      </c>
+      <c r="I47" t="s">
+        <v>590</v>
+      </c>
+      <c r="J47" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L47" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N47" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O47" t="s">
+        <v>592</v>
+      </c>
+      <c r="P47" t="s">
+        <v>591</v>
       </c>
       <c r="Q47">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R47">
+        <v>987545555555555</v>
+      </c>
+      <c r="S47" t="s">
+        <v>124</v>
+      </c>
+      <c r="T47">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U47" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V47" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W47">
         <v>1</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -17606,9 +18734,17 @@
     <hyperlink ref="X42" r:id="rId82" xr:uid="{552A02B3-D49B-44BD-99DC-743CAEBCAFC0}"/>
     <hyperlink ref="M43" r:id="rId83" xr:uid="{92371490-F6A0-4B2B-B00A-A4210C4C6429}"/>
     <hyperlink ref="X43" r:id="rId84" xr:uid="{7AAC4D96-3021-49CC-8026-8BEA0A2305DB}"/>
+    <hyperlink ref="M44" r:id="rId85" xr:uid="{E9994A83-6762-4BEF-8FA6-4B238BAA3E92}"/>
+    <hyperlink ref="X44" r:id="rId86" xr:uid="{0C6FF9D2-AE73-4EE1-AF88-B1740AF7F05E}"/>
+    <hyperlink ref="M45" r:id="rId87" xr:uid="{0BD05F5C-6F26-4A88-AFB3-76541AE4FC07}"/>
+    <hyperlink ref="X45" r:id="rId88" xr:uid="{49E4AB86-F24A-46E1-893F-F8F4E8F9AD2A}"/>
+    <hyperlink ref="M46" r:id="rId89" xr:uid="{B779C708-9EDD-405D-AC98-51E319A258A0}"/>
+    <hyperlink ref="X46" r:id="rId90" xr:uid="{29181FD7-9901-4D8E-AA7A-B44AAD23B24C}"/>
+    <hyperlink ref="M47" r:id="rId91" xr:uid="{A5571465-83CE-445E-AE59-5B1FC441F5CC}"/>
+    <hyperlink ref="X47" r:id="rId92" xr:uid="{D2CBEA55-774A-4378-9AB7-3483612636C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId85"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId93"/>
 </worksheet>
 </file>
 
@@ -17616,10 +18752,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="L53" sqref="L53"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21565,7 +22701,7 @@
     </row>
     <row r="53" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
         <v>560</v>
@@ -21667,32 +22803,212 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>28</v>
       </c>
+      <c r="B54" t="s">
+        <v>579</v>
+      </c>
       <c r="C54" t="s">
-        <v>94</v>
-      </c>
-      <c r="N54" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K54" t="s">
+        <v>580</v>
+      </c>
+      <c r="L54" t="s">
+        <v>581</v>
+      </c>
+      <c r="M54">
+        <v>9876543210</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O54">
+        <v>107</v>
+      </c>
+      <c r="P54" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>129</v>
+      </c>
+      <c r="R54" t="s">
+        <v>148</v>
       </c>
       <c r="S54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+      <c r="V54">
+        <v>8</v>
+      </c>
+      <c r="W54">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X54" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y54">
+        <v>4</v>
+      </c>
+      <c r="Z54">
+        <v>25</v>
+      </c>
+      <c r="AA54">
+        <v>30</v>
+      </c>
+      <c r="AB54">
+        <v>35</v>
+      </c>
+      <c r="AC54">
+        <v>1.52</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE54">
+        <v>6</v>
+      </c>
+      <c r="AF54">
+        <v>8</v>
+      </c>
+      <c r="AG54">
+        <v>7</v>
+      </c>
+      <c r="AH54">
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>587</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
-      </c>
-      <c r="N55" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" t="s">
+        <v>138</v>
+      </c>
+      <c r="H55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I55" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K55" t="s">
+        <v>580</v>
+      </c>
+      <c r="L55" t="s">
+        <v>581</v>
+      </c>
+      <c r="M55">
+        <v>9876543210</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O55">
+        <v>107</v>
+      </c>
+      <c r="P55" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>129</v>
+      </c>
+      <c r="R55" t="s">
+        <v>148</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="U55">
+        <v>3</v>
+      </c>
+      <c r="V55">
+        <v>8</v>
+      </c>
+      <c r="W55">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X55" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y55">
+        <v>4</v>
+      </c>
+      <c r="Z55">
+        <v>25</v>
+      </c>
+      <c r="AA55">
+        <v>30</v>
+      </c>
+      <c r="AB55">
+        <v>35</v>
+      </c>
+      <c r="AC55">
+        <v>1.52</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE55">
+        <v>6</v>
+      </c>
+      <c r="AF55">
+        <v>8</v>
+      </c>
+      <c r="AG55">
+        <v>7</v>
+      </c>
+      <c r="AH55">
+        <v>1.256</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
@@ -22053,8 +23369,12 @@
     <hyperlink ref="N52" r:id="rId102" xr:uid="{F601775B-54D2-4852-9183-760261AE8600}"/>
     <hyperlink ref="J53" r:id="rId103" xr:uid="{0524E97B-2EF5-45CF-A6D2-2CB78441EA3E}"/>
     <hyperlink ref="N53" r:id="rId104" xr:uid="{1672E4F8-A0C7-4892-948F-3804FD09B451}"/>
+    <hyperlink ref="J54" r:id="rId105" xr:uid="{9086E77A-0458-4165-86A1-F580E4D393A8}"/>
+    <hyperlink ref="N54" r:id="rId106" xr:uid="{D649F6E5-0712-403E-A895-F91CFB247C00}"/>
+    <hyperlink ref="J55" r:id="rId107" xr:uid="{CD6B7F90-0B25-4671-BA70-2FF79541E331}"/>
+    <hyperlink ref="N55" r:id="rId108" xr:uid="{2C8C8B36-C7CD-4435-B066-D81B892B824F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId105"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId109"/>
 </worksheet>
 </file>
--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nasreen\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB522AB-C0A8-40A1-B0D0-EC87EAEDFF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33903696-E1D7-4209-8E93-E5D8B4463E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="883" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditConsignmentUAT" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="ConsignmentInbound2Prod" sheetId="9" r:id="rId5"/>
     <sheet name="consignmentInbound" sheetId="5" r:id="rId6"/>
     <sheet name="ConsignmentInbound2" sheetId="6" r:id="rId7"/>
+    <sheet name="ExternalOutboundConsignment" sheetId="11" r:id="rId8"/>
+    <sheet name="ExternalInboundConsignment" sheetId="12" r:id="rId9"/>
+    <sheet name="AutoGenOutboundConsignmentID" sheetId="13" r:id="rId10"/>
+    <sheet name="AutoGenInboundConsignmentID" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4259" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4423" uniqueCount="583">
   <si>
     <t>RunToTest</t>
   </si>
@@ -1662,12 +1666,6 @@
     <t>UAT08000138</t>
   </si>
   <si>
-    <t>TestLast50</t>
-  </si>
-  <si>
-    <t>Nasreen46</t>
-  </si>
-  <si>
     <t>UAT42092271</t>
   </si>
   <si>
@@ -1702,6 +1700,90 @@
   </si>
   <si>
     <t>UAT42092277</t>
+  </si>
+  <si>
+    <t>UAT42092278</t>
+  </si>
+  <si>
+    <t>UAT07000151</t>
+  </si>
+  <si>
+    <t>FNAutomation44</t>
+  </si>
+  <si>
+    <t>LNAutomation45</t>
+  </si>
+  <si>
+    <t>RAM Business</t>
+  </si>
+  <si>
+    <t>Nasreen49</t>
+  </si>
+  <si>
+    <t>TestLast53</t>
+  </si>
+  <si>
+    <t>UAT07000152</t>
+  </si>
+  <si>
+    <t>FNAutomation45</t>
+  </si>
+  <si>
+    <t>LNAutomation46</t>
+  </si>
+  <si>
+    <t>TEALID</t>
+  </si>
+  <si>
+    <t>UAT00211000</t>
+  </si>
+  <si>
+    <t>TFG JEWELLERY</t>
+  </si>
+  <si>
+    <t>ValueForCarriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test External Outbound Consignment </t>
+  </si>
+  <si>
+    <t>SUAT00211</t>
+  </si>
+  <si>
+    <t>UAT00311000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test External Inbound Consignment </t>
+  </si>
+  <si>
+    <t>Nasreen.khan@ram.co.za</t>
+  </si>
+  <si>
+    <t>UAT00311001</t>
+  </si>
+  <si>
+    <t>UAT00211001</t>
+  </si>
+  <si>
+    <t>PTY</t>
+  </si>
+  <si>
+    <t>VSPIO980</t>
+  </si>
+  <si>
+    <t>Handle with care</t>
+  </si>
+  <si>
+    <t>UAT00211002</t>
+  </si>
+  <si>
+    <t>UAT00311002</t>
+  </si>
+  <si>
+    <t>UAT00211003</t>
+  </si>
+  <si>
+    <t>UAT00311003</t>
   </si>
 </sst>
 </file>
@@ -2046,27 +2128,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8405AF85-5464-4890-B270-0726F40F5518}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2107,7 +2189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2115,7 +2197,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2123,7 +2205,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2131,7 +2213,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2139,7 +2221,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2147,7 +2229,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2155,7 +2237,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2163,7 +2245,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2171,7 +2253,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2179,7 +2261,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2187,7 +2269,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2195,7 +2277,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2203,7 +2285,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2211,7 +2293,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2219,7 +2301,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2227,7 +2309,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2235,7 +2317,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2243,7 +2325,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2251,7 +2333,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2259,7 +2341,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2267,7 +2349,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2275,7 +2357,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2283,7 +2365,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2291,7 +2373,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2299,7 +2381,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2307,7 +2389,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2315,7 +2397,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2323,23 +2405,23 @@
         <v>403</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2348,43 +2430,227 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FC1C13-C824-403B-9D53-20D6779A371A}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D2">
+        <v>5987</v>
+      </c>
+      <c r="E2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DB4D28-FC49-475E-AA62-F174607D5A6F}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{B134F33A-B540-46BB-B001-7F01EC2B5B63}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{2E8B2445-E27C-4574-BA95-480D8A5E10C5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB154"/>
+  <dimension ref="A1:AB156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
+      <selection pane="bottomLeft" activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="11.42578125" style="1" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="10.42578125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" customWidth="1"/>
+    <col min="14" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="12.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" style="1"/>
+    <col min="20" max="20" width="11.44140625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="9.109375" style="1"/>
+    <col min="23" max="23" width="10.44140625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2470,7 +2736,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -2505,7 +2771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -2540,7 +2806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2575,7 +2841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -2610,7 +2876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -2645,7 +2911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2680,7 +2946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -2715,7 +2981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -2750,7 +3016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -2785,7 +3051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2820,7 +3086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -2855,7 +3121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -2890,7 +3156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -2925,7 +3191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2960,7 +3226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -2995,7 +3261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -3030,7 +3296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -3065,7 +3331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -3100,7 +3366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -3135,7 +3401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -3170,7 +3436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -3205,7 +3471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -3240,7 +3506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -3275,7 +3541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -3310,7 +3576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3345,7 +3611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -3380,7 +3646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -3415,7 +3681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -3450,7 +3716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -3485,7 +3751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -3520,7 +3786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -3555,7 +3821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -3590,7 +3856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3625,7 +3891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -3660,7 +3926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -3695,7 +3961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -3730,7 +3996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -3765,7 +4031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
@@ -3800,7 +4066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -3835,7 +4101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
@@ -3870,7 +4136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
@@ -3905,7 +4171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
@@ -3940,7 +4206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
@@ -3975,7 +4241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
@@ -4010,7 +4276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -4045,7 +4311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
@@ -4080,7 +4346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>28</v>
       </c>
@@ -4115,7 +4381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
@@ -4150,7 +4416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -4185,7 +4451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -4220,7 +4486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -4255,7 +4521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -4290,7 +4556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>28</v>
       </c>
@@ -4325,7 +4591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>28</v>
       </c>
@@ -4360,7 +4626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>28</v>
       </c>
@@ -4395,7 +4661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>28</v>
       </c>
@@ -4430,7 +4696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
@@ -4465,7 +4731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>28</v>
       </c>
@@ -4500,7 +4766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
@@ -4535,7 +4801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>28</v>
       </c>
@@ -4570,7 +4836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>28</v>
       </c>
@@ -4605,7 +4871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>28</v>
       </c>
@@ -4640,7 +4906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>28</v>
       </c>
@@ -4675,7 +4941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>28</v>
       </c>
@@ -4710,7 +4976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>28</v>
       </c>
@@ -4745,7 +5011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>28</v>
       </c>
@@ -4780,7 +5046,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>28</v>
       </c>
@@ -4815,7 +5081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>28</v>
       </c>
@@ -4850,7 +5116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
@@ -4885,7 +5151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>28</v>
       </c>
@@ -4920,7 +5186,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>28</v>
       </c>
@@ -4961,7 +5227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>28</v>
       </c>
@@ -5002,7 +5268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>28</v>
       </c>
@@ -5043,7 +5309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>28</v>
       </c>
@@ -5084,7 +5350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>28</v>
       </c>
@@ -5125,7 +5391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>28</v>
       </c>
@@ -5166,7 +5432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>28</v>
       </c>
@@ -5207,7 +5473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
@@ -5248,7 +5514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
@@ -5289,7 +5555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5330,7 +5596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -5371,7 +5637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -5412,7 +5678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -5453,7 +5719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -5494,7 +5760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -5535,7 +5801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>28</v>
       </c>
@@ -5576,7 +5842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>28</v>
       </c>
@@ -5617,7 +5883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>28</v>
       </c>
@@ -5658,7 +5924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>28</v>
       </c>
@@ -5699,7 +5965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>28</v>
       </c>
@@ -5740,7 +6006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>28</v>
       </c>
@@ -5781,7 +6047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>28</v>
       </c>
@@ -5822,7 +6088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
@@ -5863,7 +6129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>28</v>
       </c>
@@ -5904,7 +6170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
@@ -5945,7 +6211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>28</v>
       </c>
@@ -5986,7 +6252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>28</v>
       </c>
@@ -6027,7 +6293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>28</v>
       </c>
@@ -6068,7 +6334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>28</v>
       </c>
@@ -6109,7 +6375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>28</v>
       </c>
@@ -6150,7 +6416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>28</v>
       </c>
@@ -6191,7 +6457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>28</v>
       </c>
@@ -6232,7 +6498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>28</v>
       </c>
@@ -6273,7 +6539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>28</v>
       </c>
@@ -6314,7 +6580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>28</v>
       </c>
@@ -6355,7 +6621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>28</v>
       </c>
@@ -6396,7 +6662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>28</v>
       </c>
@@ -6437,7 +6703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>28</v>
       </c>
@@ -6478,7 +6744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>28</v>
       </c>
@@ -6519,7 +6785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>28</v>
       </c>
@@ -6560,7 +6826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>28</v>
       </c>
@@ -6601,7 +6867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>28</v>
       </c>
@@ -6642,7 +6908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>28</v>
       </c>
@@ -6683,7 +6949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>28</v>
       </c>
@@ -6724,7 +6990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>28</v>
       </c>
@@ -6765,7 +7031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>28</v>
       </c>
@@ -6806,7 +7072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>28</v>
       </c>
@@ -6847,7 +7113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>28</v>
       </c>
@@ -6888,7 +7154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>28</v>
       </c>
@@ -6929,7 +7195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>28</v>
       </c>
@@ -6970,7 +7236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>28</v>
       </c>
@@ -7011,7 +7277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>28</v>
       </c>
@@ -7052,7 +7318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>28</v>
       </c>
@@ -7093,7 +7359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>28</v>
       </c>
@@ -7134,7 +7400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>28</v>
       </c>
@@ -7175,7 +7441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>28</v>
       </c>
@@ -7216,7 +7482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>28</v>
       </c>
@@ -7257,7 +7523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>28</v>
       </c>
@@ -7298,7 +7564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>28</v>
       </c>
@@ -7339,7 +7605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>28</v>
       </c>
@@ -7380,7 +7646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>28</v>
       </c>
@@ -7421,7 +7687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>28</v>
       </c>
@@ -7480,7 +7746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>28</v>
       </c>
@@ -7566,7 +7832,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="135" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>28</v>
       </c>
@@ -7652,7 +7918,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="136" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>28</v>
       </c>
@@ -7738,7 +8004,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="137" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>28</v>
       </c>
@@ -7824,7 +8090,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>28</v>
       </c>
@@ -7910,7 +8176,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="139" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>28</v>
       </c>
@@ -7996,7 +8262,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="140" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>28</v>
       </c>
@@ -8082,7 +8348,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="141" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>28</v>
       </c>
@@ -8168,7 +8434,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="142" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>28</v>
       </c>
@@ -8254,7 +8520,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="143" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>28</v>
       </c>
@@ -8340,7 +8606,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="144" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>28</v>
       </c>
@@ -8426,7 +8692,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="145" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>28</v>
       </c>
@@ -8512,7 +8778,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>28</v>
       </c>
@@ -8598,7 +8864,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="147" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>28</v>
       </c>
@@ -8684,12 +8950,12 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="148" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>94</v>
@@ -8770,12 +9036,12 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="149" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>94</v>
@@ -8856,12 +9122,12 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="150" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>94</v>
@@ -8942,12 +9208,12 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>94</v>
@@ -9028,12 +9294,12 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="152" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>94</v>
@@ -9114,12 +9380,12 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="153" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>94</v>
@@ -9200,12 +9466,12 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="154" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>94</v>
@@ -9283,6 +9549,178 @@
         <v>60</v>
       </c>
       <c r="AB154" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I155" s="1">
+        <v>456</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L155" s="1">
+        <v>1</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N155" s="1">
+        <v>60</v>
+      </c>
+      <c r="O155" s="1">
+        <v>50</v>
+      </c>
+      <c r="P155" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q155" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S155" s="1">
+        <v>1</v>
+      </c>
+      <c r="T155" s="1">
+        <v>35</v>
+      </c>
+      <c r="U155" s="1">
+        <v>40</v>
+      </c>
+      <c r="V155" s="1">
+        <v>52</v>
+      </c>
+      <c r="W155" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X155" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y155" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z155" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA155" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB155" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I156" s="1">
+        <v>456</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L156" s="1">
+        <v>1</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N156" s="1">
+        <v>60</v>
+      </c>
+      <c r="O156" s="1">
+        <v>50</v>
+      </c>
+      <c r="P156" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S156" s="1">
+        <v>1</v>
+      </c>
+      <c r="T156" s="1">
+        <v>35</v>
+      </c>
+      <c r="U156" s="1">
+        <v>40</v>
+      </c>
+      <c r="V156" s="1">
+        <v>52</v>
+      </c>
+      <c r="W156" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X156" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y156" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z156" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA156" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB156" s="1">
         <v>8.0779999999999994</v>
       </c>
     </row>
@@ -9302,24 +9740,24 @@
       <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9399,7 +9837,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -9434,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -9469,7 +9907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -9504,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -9539,7 +9977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -9574,7 +10012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -9609,7 +10047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -9644,7 +10082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -9679,7 +10117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -9714,7 +10152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -9749,7 +10187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -9823,7 +10261,7 @@
         <v>5.0255000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -9900,7 +10338,7 @@
         <v>5.0255000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>519</v>
       </c>
@@ -9977,7 +10415,7 @@
         <v>5.0255000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>91</v>
       </c>
@@ -10054,59 +10492,59 @@
         <v>5.0255000000000001</v>
       </c>
     </row>
-    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10121,23 +10559,23 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" customWidth="1"/>
-    <col min="6" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="13" width="18.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="20" width="15.28515625" customWidth="1"/>
-    <col min="21" max="21" width="22.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" customWidth="1"/>
+    <col min="6" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="13" width="18.88671875" style="1" customWidth="1"/>
+    <col min="14" max="16" width="18.44140625" customWidth="1"/>
+    <col min="17" max="20" width="15.33203125" customWidth="1"/>
+    <col min="21" max="21" width="22.44140625" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10211,7 +10649,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -10285,7 +10723,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -10359,7 +10797,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -10433,7 +10871,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -10507,7 +10945,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -10581,7 +11019,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -10655,7 +11093,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -10729,7 +11167,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -10803,7 +11241,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -10877,7 +11315,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -10951,7 +11389,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -11025,7 +11463,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -11099,7 +11537,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -11173,115 +11611,115 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M15" s="2"/>
       <c r="X15" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M16" s="2"/>
       <c r="X16" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:24" x14ac:dyDescent="0.3">
       <c r="M17" s="2"/>
       <c r="X17" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:24" x14ac:dyDescent="0.3">
       <c r="M18" s="2"/>
       <c r="X18" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:24" x14ac:dyDescent="0.3">
       <c r="M19" s="2"/>
       <c r="X19" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:24" x14ac:dyDescent="0.3">
       <c r="M20" s="2"/>
       <c r="X20" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:24" x14ac:dyDescent="0.3">
       <c r="M21" s="2"/>
       <c r="X21" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="13:24" x14ac:dyDescent="0.3">
       <c r="M22" s="2"/>
       <c r="X22" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="13:24" x14ac:dyDescent="0.3">
       <c r="M23" s="2"/>
       <c r="X23" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="13:24" x14ac:dyDescent="0.3">
       <c r="M24" s="2"/>
       <c r="X24" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="13:24" x14ac:dyDescent="0.3">
       <c r="M25" s="2"/>
       <c r="X25" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="13:24" x14ac:dyDescent="0.3">
       <c r="M26" s="2"/>
       <c r="X26" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="13:24" x14ac:dyDescent="0.3">
       <c r="M27" s="2"/>
       <c r="X27" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="13:24" x14ac:dyDescent="0.3">
       <c r="M28" s="2"/>
       <c r="X28" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{358998FA-15FF-431B-99C1-DF0C84EFB86F}"/>
@@ -11339,22 +11777,22 @@
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="11" width="18.85546875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="1" customWidth="1"/>
-    <col min="16" max="19" width="15.28515625" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="11" width="18.88671875" style="1" customWidth="1"/>
+    <col min="12" max="14" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="1" customWidth="1"/>
+    <col min="16" max="19" width="15.33203125" customWidth="1"/>
+    <col min="20" max="20" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11458,7 +11896,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -11518,7 +11956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -11580,7 +12018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -11642,7 +12080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -11704,7 +12142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -11766,7 +12204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -11828,7 +12266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -11890,7 +12328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -11952,7 +12390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -12014,7 +12452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -12115,7 +12553,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -12219,7 +12657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -12323,7 +12761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -12427,67 +12865,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -12498,7 +12936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -12509,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -12520,7 +12958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -12531,7 +12969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -12542,7 +12980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -12553,7 +12991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -12564,7 +13002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -12575,7 +13013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -12586,7 +13024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -12597,7 +13035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -12608,7 +13046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -12619,7 +13057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -12630,7 +13068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -12641,7 +13079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -12652,7 +13090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -12663,7 +13101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -12674,7 +13112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -12685,7 +13123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -12696,7 +13134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -12707,7 +13145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -12718,7 +13156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -12729,7 +13167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -12740,7 +13178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -12751,7 +13189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -12762,7 +13200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -12773,7 +13211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -12784,7 +13222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -12795,7 +13233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -12806,7 +13244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -12817,7 +13255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -12828,7 +13266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -12839,7 +13277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -12850,7 +13288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -12861,7 +13299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -12872,7 +13310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -12883,7 +13321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -12894,7 +13332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -12905,7 +13343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -12916,7 +13354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -12927,7 +13365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -12975,28 +13413,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" customWidth="1"/>
-    <col min="6" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="13" width="18.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="20" width="15.28515625" customWidth="1"/>
-    <col min="21" max="21" width="22.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" customWidth="1"/>
+    <col min="6" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="13" width="18.88671875" style="1" customWidth="1"/>
+    <col min="14" max="16" width="18.44140625" customWidth="1"/>
+    <col min="17" max="20" width="15.33203125" customWidth="1"/>
+    <col min="21" max="21" width="22.44140625" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13070,7 +13508,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -13144,7 +13582,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -13218,7 +13656,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -13292,7 +13730,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -13366,7 +13804,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -13440,7 +13878,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -13514,7 +13952,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -13588,7 +14026,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -13662,7 +14100,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -13736,7 +14174,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -13810,7 +14248,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -13884,7 +14322,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -13958,7 +14396,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -14032,7 +14470,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -14106,7 +14544,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -14180,7 +14618,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -14254,7 +14692,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -14328,7 +14766,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14402,7 +14840,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -14476,7 +14914,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -14550,7 +14988,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -14624,7 +15062,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -14698,7 +15136,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -14772,7 +15210,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -14846,7 +15284,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -14920,7 +15358,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -14994,7 +15432,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -15068,7 +15506,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -15142,7 +15580,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -15216,7 +15654,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -15290,7 +15728,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -15364,7 +15802,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -15438,7 +15876,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -15512,7 +15950,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -15586,7 +16024,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -15660,7 +16098,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -15734,7 +16172,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -15808,7 +16246,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -15882,7 +16320,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -15956,7 +16394,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -16030,7 +16468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -16053,10 +16491,10 @@
         <v>107</v>
       </c>
       <c r="H42" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="I42" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="J42" t="s">
         <v>111</v>
@@ -16077,7 +16515,7 @@
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>121</v>
+        <v>559</v>
       </c>
       <c r="Q42">
         <v>123</v>
@@ -16104,7 +16542,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -16127,7 +16565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -16150,7 +16588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -16173,7 +16611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -16196,7 +16634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -16219,7 +16657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -16242,7 +16680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -16265,7 +16703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -16288,7 +16726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -16311,7 +16749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -16334,7 +16772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -16357,7 +16795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -16380,7 +16818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -16403,7 +16841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -16426,7 +16864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -16449,7 +16887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -16472,7 +16910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -16495,7 +16933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -16518,7 +16956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -16541,7 +16979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -16567,7 +17005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -16593,7 +17031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -16619,7 +17057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -16645,7 +17083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -16671,7 +17109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -16697,7 +17135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -16723,7 +17161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -16749,7 +17187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -16775,7 +17213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -16801,7 +17239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -16827,7 +17265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -16947,31 +17385,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="1" customWidth="1"/>
-    <col min="15" max="18" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="10" width="18.88671875" style="1" customWidth="1"/>
+    <col min="11" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15" max="18" width="15.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" customWidth="1"/>
     <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="26" max="27" width="11.7109375" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" customWidth="1"/>
+    <col min="26" max="27" width="11.6640625" customWidth="1"/>
+    <col min="28" max="28" width="10.5546875" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17075,7 +17513,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -17134,7 +17572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -17193,7 +17631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -17252,7 +17690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -17311,7 +17749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -17370,7 +17808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -17429,7 +17867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -17488,7 +17926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -17547,7 +17985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -17606,7 +18044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -17665,7 +18103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -17724,7 +18162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -17783,7 +18221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -17842,7 +18280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -17901,7 +18339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -17960,7 +18398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -18019,7 +18457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -18078,7 +18516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -18137,7 +18575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -18196,7 +18634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -18255,7 +18693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -18314,7 +18752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -18373,7 +18811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -18432,7 +18870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -18491,7 +18929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -18550,7 +18988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -18609,7 +19047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -18668,7 +19106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -18727,7 +19165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -18786,7 +19224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -18845,7 +19283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -18904,7 +19342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -18963,7 +19401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -19022,7 +19460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -19126,7 +19564,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -19230,7 +19668,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -19334,7 +19772,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -19438,7 +19876,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -19542,7 +19980,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -19646,7 +20084,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -19750,7 +20188,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -19854,7 +20292,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -19958,7 +20396,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -20062,7 +20500,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -20166,7 +20604,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -20270,7 +20708,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -20374,12 +20812,12 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="48" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C48" t="s">
         <v>125</v>
@@ -20478,12 +20916,12 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C49" t="s">
         <v>125</v>
@@ -20582,12 +21020,12 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C50" t="s">
         <v>125</v>
@@ -20686,12 +21124,12 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C51" t="s">
         <v>125</v>
@@ -20790,12 +21228,12 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C52" t="s">
         <v>125</v>
@@ -20894,35 +21332,215 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>28</v>
       </c>
+      <c r="B53" t="s">
+        <v>556</v>
+      </c>
       <c r="C53" t="s">
-        <v>94</v>
-      </c>
-      <c r="N53" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" t="s">
+        <v>141</v>
+      </c>
+      <c r="I53" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K53" t="s">
+        <v>557</v>
+      </c>
+      <c r="L53" t="s">
+        <v>558</v>
+      </c>
+      <c r="M53">
+        <v>9876543210</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O53">
+        <v>107</v>
+      </c>
+      <c r="P53" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>129</v>
+      </c>
+      <c r="R53" t="s">
+        <v>148</v>
       </c>
       <c r="S53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>3</v>
+      </c>
+      <c r="V53">
+        <v>8</v>
+      </c>
+      <c r="W53">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X53" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y53">
+        <v>4</v>
+      </c>
+      <c r="Z53">
+        <v>25</v>
+      </c>
+      <c r="AA53">
+        <v>30</v>
+      </c>
+      <c r="AB53">
+        <v>35</v>
+      </c>
+      <c r="AC53">
+        <v>1.52</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE53">
+        <v>6</v>
+      </c>
+      <c r="AF53">
+        <v>8</v>
+      </c>
+      <c r="AG53">
+        <v>7</v>
+      </c>
+      <c r="AH53">
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B54" t="s">
+        <v>562</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
-      </c>
-      <c r="N54" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" t="s">
+        <v>565</v>
+      </c>
+      <c r="G54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K54" t="s">
+        <v>563</v>
+      </c>
+      <c r="L54" t="s">
+        <v>564</v>
+      </c>
+      <c r="M54">
+        <v>9876543210</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O54">
+        <v>107</v>
+      </c>
+      <c r="P54" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>129</v>
+      </c>
+      <c r="R54" t="s">
+        <v>148</v>
       </c>
       <c r="S54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+      <c r="V54">
+        <v>8</v>
+      </c>
+      <c r="W54">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X54" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y54">
+        <v>4</v>
+      </c>
+      <c r="Z54">
+        <v>25</v>
+      </c>
+      <c r="AA54">
+        <v>30</v>
+      </c>
+      <c r="AB54">
+        <v>35</v>
+      </c>
+      <c r="AC54">
+        <v>1.52</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE54">
+        <v>6</v>
+      </c>
+      <c r="AF54">
+        <v>8</v>
+      </c>
+      <c r="AG54">
+        <v>7</v>
+      </c>
+      <c r="AH54">
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -20936,7 +21554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -20950,7 +21568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -20964,7 +21582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -20978,7 +21596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -20992,7 +21610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -21006,7 +21624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -21020,7 +21638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -21034,7 +21652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -21048,7 +21666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -21062,7 +21680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -21076,7 +21694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -21090,7 +21708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -21104,7 +21722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -21118,7 +21736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -21132,7 +21750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -21146,7 +21764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -21160,7 +21778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -21174,7 +21792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -21292,8 +21910,360 @@
     <hyperlink ref="N51" r:id="rId100" xr:uid="{61926440-6191-435F-97C3-CA87285D14E2}"/>
     <hyperlink ref="J52" r:id="rId101" xr:uid="{C9DC470D-3865-40D5-A918-8DD23DD7623B}"/>
     <hyperlink ref="N52" r:id="rId102" xr:uid="{F601775B-54D2-4852-9183-760261AE8600}"/>
+    <hyperlink ref="J53" r:id="rId103" xr:uid="{BF79723D-379D-45E7-9DF6-DEE403D4AD41}"/>
+    <hyperlink ref="N53" r:id="rId104" xr:uid="{255CED8A-E5BC-4527-BF46-30A74545D586}"/>
+    <hyperlink ref="J54" r:id="rId105" xr:uid="{662F4EA2-7CA0-47DA-A30F-D6083B43578D}"/>
+    <hyperlink ref="N54" r:id="rId106" xr:uid="{F3147A81-02A2-427F-95DC-49580580B558}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId103"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId107"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9603E3-1555-46FB-BCC7-D3A0DADC829D}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3B5C8-4477-4678-9556-D1FB6FFD9127}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G2" t="s">
+        <v>572</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G3" t="s">
+        <v>572</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G4" t="s">
+        <v>572</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G5" t="s">
+        <v>572</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{C2768231-A8C9-4400-9124-FBDF58A8BB1E}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{6DE8ADA7-4056-41C2-BE37-99E81A501A29}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{7BF3755E-1F7F-4ED8-978E-FAD443657123}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{441CEC14-AA60-4E5D-B547-0FB4BEFA2330}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nasreen\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33903696-E1D7-4209-8E93-E5D8B4463E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C8CF1A-F9F7-4127-92BC-FAFFE5BA31CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditConsignmentUAT" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4423" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="609">
   <si>
     <t>RunToTest</t>
   </si>
@@ -1784,6 +1784,84 @@
   </si>
   <si>
     <t>UAT00311003</t>
+  </si>
+  <si>
+    <t>UAT07100153</t>
+  </si>
+  <si>
+    <t>UAT42092279</t>
+  </si>
+  <si>
+    <t>UAT08000139</t>
+  </si>
+  <si>
+    <t>UAT08000140</t>
+  </si>
+  <si>
+    <t>UAT07100154</t>
+  </si>
+  <si>
+    <t>UAT07100155</t>
+  </si>
+  <si>
+    <t>UAT00311004</t>
+  </si>
+  <si>
+    <t>UAT42092300</t>
+  </si>
+  <si>
+    <t>UAT00211005</t>
+  </si>
+  <si>
+    <t>UAT00211006</t>
+  </si>
+  <si>
+    <t>UAT00211007</t>
+  </si>
+  <si>
+    <t>UAT00211008</t>
+  </si>
+  <si>
+    <t>UAT00211009</t>
+  </si>
+  <si>
+    <t>UAT00211010</t>
+  </si>
+  <si>
+    <t>UAT00311010</t>
+  </si>
+  <si>
+    <t>UAT00211011</t>
+  </si>
+  <si>
+    <t>UAT00311011</t>
+  </si>
+  <si>
+    <t>UAT42092301</t>
+  </si>
+  <si>
+    <t>UAT07100156</t>
+  </si>
+  <si>
+    <t>UAT00211012</t>
+  </si>
+  <si>
+    <t>UAT00311012</t>
+  </si>
+  <si>
+    <t>UAT42092302</t>
+  </si>
+  <si>
+    <t>UAT08000141</t>
+  </si>
+  <si>
+    <t>UAT07100157</t>
+  </si>
+  <si>
+    <t>UAT00211013</t>
+  </si>
+  <si>
+    <t>UAT00311013</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2594,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2620,11 +2698,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB156"/>
+  <dimension ref="A1:AB160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A155" sqref="A155"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9640,7 +9718,7 @@
     </row>
     <row r="156" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>555</v>
@@ -9721,6 +9799,350 @@
         <v>60</v>
       </c>
       <c r="AB156" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I157" s="1">
+        <v>456</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L157" s="1">
+        <v>1</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N157" s="1">
+        <v>60</v>
+      </c>
+      <c r="O157" s="1">
+        <v>50</v>
+      </c>
+      <c r="P157" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S157" s="1">
+        <v>1</v>
+      </c>
+      <c r="T157" s="1">
+        <v>35</v>
+      </c>
+      <c r="U157" s="1">
+        <v>40</v>
+      </c>
+      <c r="V157" s="1">
+        <v>52</v>
+      </c>
+      <c r="W157" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X157" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y157" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z157" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA157" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB157" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I158" s="1">
+        <v>456</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L158" s="1">
+        <v>1</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N158" s="1">
+        <v>60</v>
+      </c>
+      <c r="O158" s="1">
+        <v>50</v>
+      </c>
+      <c r="P158" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S158" s="1">
+        <v>1</v>
+      </c>
+      <c r="T158" s="1">
+        <v>35</v>
+      </c>
+      <c r="U158" s="1">
+        <v>40</v>
+      </c>
+      <c r="V158" s="1">
+        <v>52</v>
+      </c>
+      <c r="W158" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X158" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y158" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z158" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA158" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB158" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I159" s="1">
+        <v>456</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L159" s="1">
+        <v>1</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N159" s="1">
+        <v>60</v>
+      </c>
+      <c r="O159" s="1">
+        <v>50</v>
+      </c>
+      <c r="P159" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S159" s="1">
+        <v>1</v>
+      </c>
+      <c r="T159" s="1">
+        <v>35</v>
+      </c>
+      <c r="U159" s="1">
+        <v>40</v>
+      </c>
+      <c r="V159" s="1">
+        <v>52</v>
+      </c>
+      <c r="W159" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X159" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y159" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z159" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA159" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB159" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I160" s="1">
+        <v>456</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L160" s="1">
+        <v>1</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N160" s="1">
+        <v>60</v>
+      </c>
+      <c r="O160" s="1">
+        <v>50</v>
+      </c>
+      <c r="P160" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q160" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S160" s="1">
+        <v>1</v>
+      </c>
+      <c r="T160" s="1">
+        <v>35</v>
+      </c>
+      <c r="U160" s="1">
+        <v>40</v>
+      </c>
+      <c r="V160" s="1">
+        <v>52</v>
+      </c>
+      <c r="W160" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X160" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y160" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z160" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA160" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB160" s="1">
         <v>8.0779999999999994</v>
       </c>
     </row>
@@ -13413,9 +13835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16470,7 +16892,7 @@
     </row>
     <row r="42" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>542</v>
@@ -16542,96 +16964,300 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
+      <c r="B43" t="s">
+        <v>585</v>
+      </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" t="s">
+        <v>560</v>
+      </c>
+      <c r="I43" t="s">
+        <v>561</v>
+      </c>
+      <c r="J43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L43" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N43" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O43" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" t="s">
+        <v>559</v>
       </c>
       <c r="Q43">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R43">
+        <v>987545555555555</v>
+      </c>
+      <c r="S43" t="s">
+        <v>124</v>
+      </c>
+      <c r="T43">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U43" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V43" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X43" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
+      <c r="B44" t="s">
+        <v>586</v>
+      </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" t="s">
+        <v>560</v>
+      </c>
+      <c r="I44" t="s">
+        <v>561</v>
+      </c>
+      <c r="J44" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L44" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N44" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="s">
+        <v>559</v>
       </c>
       <c r="Q44">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R44">
+        <v>987545555555555</v>
+      </c>
+      <c r="S44" t="s">
+        <v>124</v>
+      </c>
+      <c r="T44">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U44" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V44" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X44" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
+      <c r="B45" t="s">
+        <v>586</v>
+      </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" t="s">
+        <v>560</v>
+      </c>
+      <c r="I45" t="s">
+        <v>561</v>
+      </c>
+      <c r="J45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L45" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N45" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O45" t="s">
+        <v>119</v>
+      </c>
+      <c r="P45" t="s">
+        <v>559</v>
       </c>
       <c r="Q45">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R45">
+        <v>987545555555555</v>
+      </c>
+      <c r="S45" t="s">
+        <v>124</v>
+      </c>
+      <c r="T45">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U45" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V45" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X45" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>605</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" t="s">
+        <v>560</v>
+      </c>
+      <c r="I46" t="s">
+        <v>561</v>
+      </c>
+      <c r="J46" t="s">
+        <v>111</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L46" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N46" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O46" t="s">
+        <v>119</v>
+      </c>
+      <c r="P46" t="s">
+        <v>559</v>
       </c>
       <c r="Q46">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R46">
+        <v>987545555555555</v>
+      </c>
+      <c r="S46" t="s">
+        <v>124</v>
+      </c>
+      <c r="T46">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U46" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V46" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W46">
         <v>1</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -17375,9 +18001,17 @@
     <hyperlink ref="X41" r:id="rId80" xr:uid="{B54F2C96-A187-4B3D-BEC5-5A0E0F62E2B9}"/>
     <hyperlink ref="M42" r:id="rId81" xr:uid="{1A7F4856-F6A5-4EE0-B2BB-076779DA75E3}"/>
     <hyperlink ref="X42" r:id="rId82" xr:uid="{552A02B3-D49B-44BD-99DC-743CAEBCAFC0}"/>
+    <hyperlink ref="M43" r:id="rId83" xr:uid="{2BEE92F8-DE31-48A9-8813-98E7FE7DE461}"/>
+    <hyperlink ref="X43" r:id="rId84" xr:uid="{B092815E-F7D9-4F0A-A205-23973769F2D4}"/>
+    <hyperlink ref="M44" r:id="rId85" xr:uid="{F18420CC-7B4B-4AB1-B662-A1570A846DB8}"/>
+    <hyperlink ref="X44" r:id="rId86" xr:uid="{44DEDF77-7BDA-457D-B05C-2F662405AA86}"/>
+    <hyperlink ref="M45" r:id="rId87" xr:uid="{14E59667-257B-4A45-8F5B-25EF91D92398}"/>
+    <hyperlink ref="X45" r:id="rId88" xr:uid="{0EDC542C-B3ED-43F4-B652-FBF1C7088B2B}"/>
+    <hyperlink ref="M46" r:id="rId89" xr:uid="{A88B78A8-C71D-4D49-8AFE-B6009577BA10}"/>
+    <hyperlink ref="X46" r:id="rId90" xr:uid="{1DFFD102-6D13-428F-804F-686AEACE2B40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId83"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId91"/>
 </worksheet>
 </file>
 
@@ -17386,9 +18020,9 @@
   <dimension ref="A1:AH73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21438,7 +22072,7 @@
     </row>
     <row r="54" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
         <v>562</v>
@@ -21540,74 +22174,524 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>28</v>
       </c>
+      <c r="B55" t="s">
+        <v>583</v>
+      </c>
       <c r="C55" t="s">
-        <v>94</v>
-      </c>
-      <c r="N55" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" t="s">
+        <v>565</v>
+      </c>
+      <c r="G55" t="s">
+        <v>138</v>
+      </c>
+      <c r="H55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I55" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K55" t="s">
+        <v>563</v>
+      </c>
+      <c r="L55" t="s">
+        <v>564</v>
+      </c>
+      <c r="M55">
+        <v>9876543210</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O55">
+        <v>107</v>
+      </c>
+      <c r="P55" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>129</v>
+      </c>
+      <c r="R55" t="s">
+        <v>148</v>
       </c>
       <c r="S55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="U55">
+        <v>3</v>
+      </c>
+      <c r="V55">
+        <v>8</v>
+      </c>
+      <c r="W55">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X55" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y55">
+        <v>4</v>
+      </c>
+      <c r="Z55">
+        <v>25</v>
+      </c>
+      <c r="AA55">
+        <v>30</v>
+      </c>
+      <c r="AB55">
+        <v>35</v>
+      </c>
+      <c r="AC55">
+        <v>1.52</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE55">
+        <v>6</v>
+      </c>
+      <c r="AF55">
+        <v>8</v>
+      </c>
+      <c r="AG55">
+        <v>7</v>
+      </c>
+      <c r="AH55">
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>28</v>
       </c>
+      <c r="B56" t="s">
+        <v>587</v>
+      </c>
       <c r="C56" t="s">
-        <v>94</v>
-      </c>
-      <c r="N56" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" t="s">
+        <v>565</v>
+      </c>
+      <c r="G56" t="s">
+        <v>138</v>
+      </c>
+      <c r="H56" t="s">
+        <v>141</v>
+      </c>
+      <c r="I56" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K56" t="s">
+        <v>563</v>
+      </c>
+      <c r="L56" t="s">
+        <v>564</v>
+      </c>
+      <c r="M56">
+        <v>9876543210</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O56">
+        <v>107</v>
+      </c>
+      <c r="P56" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>129</v>
+      </c>
+      <c r="R56" t="s">
+        <v>148</v>
       </c>
       <c r="S56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <v>3</v>
+      </c>
+      <c r="V56">
+        <v>8</v>
+      </c>
+      <c r="W56">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X56" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y56">
+        <v>4</v>
+      </c>
+      <c r="Z56">
+        <v>25</v>
+      </c>
+      <c r="AA56">
+        <v>30</v>
+      </c>
+      <c r="AB56">
+        <v>35</v>
+      </c>
+      <c r="AC56">
+        <v>1.52</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE56">
+        <v>6</v>
+      </c>
+      <c r="AF56">
+        <v>8</v>
+      </c>
+      <c r="AG56">
+        <v>7</v>
+      </c>
+      <c r="AH56">
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>28</v>
       </c>
+      <c r="B57" t="s">
+        <v>588</v>
+      </c>
       <c r="C57" t="s">
-        <v>94</v>
-      </c>
-      <c r="N57" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" t="s">
+        <v>565</v>
+      </c>
+      <c r="G57" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" t="s">
+        <v>141</v>
+      </c>
+      <c r="I57" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K57" t="s">
+        <v>563</v>
+      </c>
+      <c r="L57" t="s">
+        <v>564</v>
+      </c>
+      <c r="M57">
+        <v>9876543210</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O57">
+        <v>107</v>
+      </c>
+      <c r="P57" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>129</v>
+      </c>
+      <c r="R57" t="s">
+        <v>148</v>
       </c>
       <c r="S57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
+        <v>3</v>
+      </c>
+      <c r="V57">
+        <v>8</v>
+      </c>
+      <c r="W57">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X57" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y57">
+        <v>4</v>
+      </c>
+      <c r="Z57">
+        <v>25</v>
+      </c>
+      <c r="AA57">
+        <v>30</v>
+      </c>
+      <c r="AB57">
+        <v>35</v>
+      </c>
+      <c r="AC57">
+        <v>1.52</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE57">
+        <v>6</v>
+      </c>
+      <c r="AF57">
+        <v>8</v>
+      </c>
+      <c r="AG57">
+        <v>7</v>
+      </c>
+      <c r="AH57">
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>28</v>
       </c>
+      <c r="B58" t="s">
+        <v>601</v>
+      </c>
       <c r="C58" t="s">
-        <v>94</v>
-      </c>
-      <c r="N58" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" t="s">
+        <v>565</v>
+      </c>
+      <c r="G58" t="s">
+        <v>138</v>
+      </c>
+      <c r="H58" t="s">
+        <v>141</v>
+      </c>
+      <c r="I58" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K58" t="s">
+        <v>563</v>
+      </c>
+      <c r="L58" t="s">
+        <v>564</v>
+      </c>
+      <c r="M58">
+        <v>9876543210</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O58">
+        <v>107</v>
+      </c>
+      <c r="P58" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>129</v>
+      </c>
+      <c r="R58" t="s">
+        <v>148</v>
       </c>
       <c r="S58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
+        <v>3</v>
+      </c>
+      <c r="V58">
+        <v>8</v>
+      </c>
+      <c r="W58">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X58" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y58">
+        <v>4</v>
+      </c>
+      <c r="Z58">
+        <v>25</v>
+      </c>
+      <c r="AA58">
+        <v>30</v>
+      </c>
+      <c r="AB58">
+        <v>35</v>
+      </c>
+      <c r="AC58">
+        <v>1.52</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE58">
+        <v>6</v>
+      </c>
+      <c r="AF58">
+        <v>8</v>
+      </c>
+      <c r="AG58">
+        <v>7</v>
+      </c>
+      <c r="AH58">
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B59" t="s">
+        <v>606</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
-      </c>
-      <c r="N59" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D59" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" t="s">
+        <v>565</v>
+      </c>
+      <c r="G59" t="s">
+        <v>138</v>
+      </c>
+      <c r="H59" t="s">
+        <v>141</v>
+      </c>
+      <c r="I59" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K59" t="s">
+        <v>563</v>
+      </c>
+      <c r="L59" t="s">
+        <v>564</v>
+      </c>
+      <c r="M59">
+        <v>9876543210</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O59">
+        <v>107</v>
+      </c>
+      <c r="P59" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>129</v>
+      </c>
+      <c r="R59" t="s">
+        <v>148</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>3</v>
+      </c>
+      <c r="V59">
+        <v>8</v>
+      </c>
+      <c r="W59">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X59" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y59">
+        <v>4</v>
+      </c>
+      <c r="Z59">
+        <v>25</v>
+      </c>
+      <c r="AA59">
+        <v>30</v>
+      </c>
+      <c r="AB59">
+        <v>35</v>
+      </c>
+      <c r="AC59">
+        <v>1.52</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE59">
+        <v>6</v>
+      </c>
+      <c r="AF59">
+        <v>8</v>
+      </c>
+      <c r="AG59">
+        <v>7</v>
+      </c>
+      <c r="AH59">
+        <v>1.256</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.3">
@@ -21914,18 +22998,28 @@
     <hyperlink ref="N53" r:id="rId104" xr:uid="{255CED8A-E5BC-4527-BF46-30A74545D586}"/>
     <hyperlink ref="J54" r:id="rId105" xr:uid="{662F4EA2-7CA0-47DA-A30F-D6083B43578D}"/>
     <hyperlink ref="N54" r:id="rId106" xr:uid="{F3147A81-02A2-427F-95DC-49580580B558}"/>
+    <hyperlink ref="J55" r:id="rId107" xr:uid="{D45CE002-3EAC-4D63-982F-D65B6629C8AB}"/>
+    <hyperlink ref="N55" r:id="rId108" xr:uid="{E0434404-5AC2-49E1-A114-DAE28E5E26D4}"/>
+    <hyperlink ref="J56" r:id="rId109" xr:uid="{FF8D0597-9645-449F-823C-9F9B29154E0B}"/>
+    <hyperlink ref="N56" r:id="rId110" xr:uid="{A38058FE-FC56-4661-BB0C-1C9F6385FA0A}"/>
+    <hyperlink ref="J57" r:id="rId111" xr:uid="{F25BBA15-027E-4285-8783-4A2061FFA880}"/>
+    <hyperlink ref="N57" r:id="rId112" xr:uid="{33953300-7632-4C41-8997-BDBD0E782D9D}"/>
+    <hyperlink ref="J58" r:id="rId113" xr:uid="{43FEE378-A61D-4D50-9FD6-9D48C614E96B}"/>
+    <hyperlink ref="N58" r:id="rId114" xr:uid="{8CCDF921-B77B-4122-995E-94A0A1FF951E}"/>
+    <hyperlink ref="J59" r:id="rId115" xr:uid="{03EF0337-BA47-4651-BF5E-FF10B9718507}"/>
+    <hyperlink ref="N59" r:id="rId116" xr:uid="{401EE075-CA01-4A77-9342-0F388E1FEA15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId107"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId117"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9603E3-1555-46FB-BCC7-D3A0DADC829D}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22059,7 +23153,7 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>581</v>
@@ -22083,6 +23177,296 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -22093,10 +23477,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3B5C8-4477-4678-9556-D1FB6FFD9127}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22230,7 +23614,7 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>582</v>
@@ -22254,6 +23638,180 @@
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G6" t="s">
+        <v>572</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G7" t="s">
+        <v>572</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G8" t="s">
+        <v>572</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G9" t="s">
+        <v>572</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G10" t="s">
+        <v>572</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G11" t="s">
+        <v>572</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>573</v>
       </c>
     </row>
@@ -22263,6 +23821,12 @@
     <hyperlink ref="I3" r:id="rId2" xr:uid="{6DE8ADA7-4056-41C2-BE37-99E81A501A29}"/>
     <hyperlink ref="I4" r:id="rId3" xr:uid="{7BF3755E-1F7F-4ED8-978E-FAD443657123}"/>
     <hyperlink ref="I5" r:id="rId4" xr:uid="{441CEC14-AA60-4E5D-B547-0FB4BEFA2330}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{2C4D8BCC-4640-413A-8FF7-7AB220499432}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{37948B21-DF3C-4CC2-9085-CC2619654ABC}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{4C3D81F5-F7B2-4429-B845-6197AD65790E}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{D49BDF56-CE40-4F57-91B8-97A21B63D5C5}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{9D48AA53-9D34-4665-8C22-2F207E85409C}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{7719280A-E8E2-4960-AC66-9044E3BD3E94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nasreen\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C8CF1A-F9F7-4127-92BC-FAFFE5BA31CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AD1900-F5C2-46CF-B312-2D9CEEB4ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditConsignmentUAT" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4774" uniqueCount="614">
   <si>
     <t>RunToTest</t>
   </si>
@@ -1862,13 +1862,28 @@
   </si>
   <si>
     <t>UAT00311013</t>
+  </si>
+  <si>
+    <t>UAT00311014</t>
+  </si>
+  <si>
+    <t>UAT00211014</t>
+  </si>
+  <si>
+    <t>UAT07100158</t>
+  </si>
+  <si>
+    <t>UAT08000142</t>
+  </si>
+  <si>
+    <t>UAT42092303</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2210,7 +2225,7 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
@@ -2226,7 +2241,7 @@
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2267,7 +2282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2275,7 +2290,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2283,7 +2298,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2291,7 +2306,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2299,7 +2314,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2307,7 +2322,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2315,7 +2330,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2323,7 +2338,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2331,7 +2346,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2339,7 +2354,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2347,7 +2362,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2355,7 +2370,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2363,7 +2378,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2371,7 +2386,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2379,7 +2394,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2387,7 +2402,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2395,7 +2410,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2403,7 +2418,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2411,7 +2426,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2419,7 +2434,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2427,7 +2442,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2435,7 +2450,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2443,7 +2458,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2451,7 +2466,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2459,7 +2474,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2467,7 +2482,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2475,7 +2490,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2483,7 +2498,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2491,7 +2506,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -2499,7 +2514,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2520,7 +2535,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.77734375" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
@@ -2532,7 +2547,7 @@
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2558,7 +2573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -2597,7 +2612,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.5546875" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
@@ -2609,7 +2624,7 @@
     <col min="8" max="8" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2650,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -2661,7 +2676,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>91</v>
       </c>
@@ -2698,14 +2713,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB160"/>
+  <dimension ref="A1:AB161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B160" sqref="B160"/>
+      <selection pane="bottomLeft" activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -2728,7 +2743,7 @@
     <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2814,7 +2829,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -2849,7 +2864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -2884,7 +2899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2919,7 +2934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -2954,7 +2969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -2989,7 +3004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3024,7 +3039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -3059,7 +3074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -3094,7 +3109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -3129,7 +3144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -3164,7 +3179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -3199,7 +3214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -3234,7 +3249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -3269,7 +3284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -3304,7 +3319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -3339,7 +3354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -3374,7 +3389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -3409,7 +3424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -3444,7 +3459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -3479,7 +3494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -3514,7 +3529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -3549,7 +3564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -3584,7 +3599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -3619,7 +3634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -3654,7 +3669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3689,7 +3704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -3724,7 +3739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -3759,7 +3774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -3794,7 +3809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -3829,7 +3844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -3864,7 +3879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -3899,7 +3914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -3934,7 +3949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3969,7 +3984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -4004,7 +4019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -4039,7 +4054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -4074,7 +4089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -4109,7 +4124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
@@ -4144,7 +4159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="13.5" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -4179,7 +4194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
@@ -4214,7 +4229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="13.5" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
@@ -4249,7 +4264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
@@ -4284,7 +4299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
@@ -4319,7 +4334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="13.5" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,7 +4369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -4389,7 +4404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="13.5" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
@@ -4424,7 +4439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>28</v>
       </c>
@@ -4459,7 +4474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="13.5" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
@@ -4494,7 +4509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -4529,7 +4544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="13.5" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -4564,7 +4579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -4599,7 +4614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="13.5" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -4634,7 +4649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>28</v>
       </c>
@@ -4669,7 +4684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="13.5" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>28</v>
       </c>
@@ -4704,7 +4719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>28</v>
       </c>
@@ -4739,7 +4754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="13.5" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>28</v>
       </c>
@@ -4774,7 +4789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="13.5" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
@@ -4809,7 +4824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="13.5" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>28</v>
       </c>
@@ -4844,7 +4859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="13.5" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
@@ -4879,7 +4894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="13.5" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>28</v>
       </c>
@@ -4914,7 +4929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="13.5" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>28</v>
       </c>
@@ -4949,7 +4964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="13.5" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>28</v>
       </c>
@@ -4984,7 +4999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="13.5" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>28</v>
       </c>
@@ -5019,7 +5034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="13.5" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>28</v>
       </c>
@@ -5054,7 +5069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="12.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>28</v>
       </c>
@@ -5089,7 +5104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="13.5" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>28</v>
       </c>
@@ -5124,7 +5139,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="13.5" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>28</v>
       </c>
@@ -5159,7 +5174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="13.5" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>28</v>
       </c>
@@ -5194,7 +5209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="13.5" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
@@ -5229,7 +5244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="13.5" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>28</v>
       </c>
@@ -5264,7 +5279,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="13.5" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>28</v>
       </c>
@@ -5305,7 +5320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="13.5" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>28</v>
       </c>
@@ -5346,7 +5361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="13.5" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>28</v>
       </c>
@@ -5387,7 +5402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="13.5" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>28</v>
       </c>
@@ -5428,7 +5443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="13.5" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>28</v>
       </c>
@@ -5469,7 +5484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="13.5" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>28</v>
       </c>
@@ -5510,7 +5525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="13.5" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>28</v>
       </c>
@@ -5551,7 +5566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="13.5" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
@@ -5592,7 +5607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="13.5" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
@@ -5633,7 +5648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="13.5" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5674,7 +5689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="13.5" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -5715,7 +5730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="13.5" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -5756,7 +5771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="13.5" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -5797,7 +5812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="13.5" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -5838,7 +5853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="13.5" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -5879,7 +5894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="13.5" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>28</v>
       </c>
@@ -5920,7 +5935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="13.5" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>28</v>
       </c>
@@ -5961,7 +5976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="13.5" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>28</v>
       </c>
@@ -6002,7 +6017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="13.5" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>28</v>
       </c>
@@ -6043,7 +6058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="13.5" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>28</v>
       </c>
@@ -6084,7 +6099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="13.5" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>28</v>
       </c>
@@ -6125,7 +6140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="13.5" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>28</v>
       </c>
@@ -6166,7 +6181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="13.5" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
@@ -6207,7 +6222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="13.5" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>28</v>
       </c>
@@ -6248,7 +6263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="13.5" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
@@ -6289,7 +6304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="13.5" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>28</v>
       </c>
@@ -6330,7 +6345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="13.5" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>28</v>
       </c>
@@ -6371,7 +6386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="13.5" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>28</v>
       </c>
@@ -6412,7 +6427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="13.5" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>28</v>
       </c>
@@ -6453,7 +6468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="13.5" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>28</v>
       </c>
@@ -6494,7 +6509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="13.5" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>28</v>
       </c>
@@ -6535,7 +6550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="13.5" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>28</v>
       </c>
@@ -6576,7 +6591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="13.5" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>28</v>
       </c>
@@ -6617,7 +6632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="13.5" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>28</v>
       </c>
@@ -6658,7 +6673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="13.5" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>28</v>
       </c>
@@ -6699,7 +6714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="13.5" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>28</v>
       </c>
@@ -6740,7 +6755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="13.5" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>28</v>
       </c>
@@ -6781,7 +6796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="13.5" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>28</v>
       </c>
@@ -6822,7 +6837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="13.5" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>28</v>
       </c>
@@ -6863,7 +6878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="13.5" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>28</v>
       </c>
@@ -6904,7 +6919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="13.5" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>28</v>
       </c>
@@ -6945,7 +6960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="13.5" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>28</v>
       </c>
@@ -6986,7 +7001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="13.5" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>28</v>
       </c>
@@ -7027,7 +7042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="13.5" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>28</v>
       </c>
@@ -7068,7 +7083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="13.5" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>28</v>
       </c>
@@ -7109,7 +7124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="13.5" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>28</v>
       </c>
@@ -7150,7 +7165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
         <v>28</v>
       </c>
@@ -7191,7 +7206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
         <v>28</v>
       </c>
@@ -7232,7 +7247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
         <v>28</v>
       </c>
@@ -7273,7 +7288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
         <v>28</v>
       </c>
@@ -7314,7 +7329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13">
       <c r="A122" s="1" t="s">
         <v>28</v>
       </c>
@@ -7355,7 +7370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13">
       <c r="A123" s="1" t="s">
         <v>28</v>
       </c>
@@ -7396,7 +7411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13">
       <c r="A124" s="1" t="s">
         <v>28</v>
       </c>
@@ -7437,7 +7452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13">
       <c r="A125" s="1" t="s">
         <v>28</v>
       </c>
@@ -7478,7 +7493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13">
       <c r="A126" s="1" t="s">
         <v>28</v>
       </c>
@@ -7519,7 +7534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13">
       <c r="A127" s="1" t="s">
         <v>28</v>
       </c>
@@ -7560,7 +7575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13">
       <c r="A128" s="1" t="s">
         <v>28</v>
       </c>
@@ -7601,7 +7616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28">
       <c r="A129" s="1" t="s">
         <v>28</v>
       </c>
@@ -7642,7 +7657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28">
       <c r="A130" s="1" t="s">
         <v>28</v>
       </c>
@@ -7683,7 +7698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28">
       <c r="A131" s="1" t="s">
         <v>28</v>
       </c>
@@ -7724,7 +7739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" ht="25.5" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>28</v>
       </c>
@@ -7765,7 +7780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28">
       <c r="A133" s="1" t="s">
         <v>28</v>
       </c>
@@ -7824,7 +7839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28">
       <c r="A134" s="1" t="s">
         <v>28</v>
       </c>
@@ -7910,7 +7925,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="135" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" ht="16.5" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>28</v>
       </c>
@@ -7996,7 +8011,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="136" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" ht="16.5" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>28</v>
       </c>
@@ -8082,7 +8097,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="137" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" ht="16.5" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>28</v>
       </c>
@@ -8168,7 +8183,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" ht="16.5" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>28</v>
       </c>
@@ -8254,7 +8269,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="139" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" ht="16.5" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>28</v>
       </c>
@@ -8340,7 +8355,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="140" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" ht="16.5" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>28</v>
       </c>
@@ -8426,7 +8441,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="141" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" ht="16.5" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>28</v>
       </c>
@@ -8512,7 +8527,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="142" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" ht="16.5" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>28</v>
       </c>
@@ -8598,7 +8613,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="143" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" ht="16.5" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>28</v>
       </c>
@@ -8684,7 +8699,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="144" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" ht="16.5" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>28</v>
       </c>
@@ -8770,7 +8785,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="145" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" ht="16.5" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>28</v>
       </c>
@@ -8856,7 +8871,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" ht="16.5" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>28</v>
       </c>
@@ -8942,7 +8957,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="147" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" ht="16.5" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>28</v>
       </c>
@@ -9028,7 +9043,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="148" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" ht="16.5" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>28</v>
       </c>
@@ -9114,7 +9129,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="149" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" ht="16.5" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>28</v>
       </c>
@@ -9200,7 +9215,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="150" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" ht="16.5" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>28</v>
       </c>
@@ -9286,7 +9301,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" ht="16.5" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>28</v>
       </c>
@@ -9372,7 +9387,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="152" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" ht="16.5" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>28</v>
       </c>
@@ -9458,7 +9473,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="153" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:28" ht="16.5" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>28</v>
       </c>
@@ -9544,7 +9559,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="154" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:28" ht="16.5" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>28</v>
       </c>
@@ -9630,7 +9645,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="155" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:28" ht="16.5" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>28</v>
       </c>
@@ -9716,7 +9731,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="156" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:28" ht="16.5" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>28</v>
       </c>
@@ -9802,7 +9817,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="157" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:28" ht="12" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>28</v>
       </c>
@@ -9888,7 +9903,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="158" spans="1:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:28" ht="11.4" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>28</v>
       </c>
@@ -9974,7 +9989,7 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="159" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:28" ht="12" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>28</v>
       </c>
@@ -10060,9 +10075,9 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="160" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:28" ht="12" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>604</v>
@@ -10143,6 +10158,92 @@
         <v>60</v>
       </c>
       <c r="AB160" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" ht="16.5" customHeight="1">
+      <c r="A161" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I161" s="1">
+        <v>456</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L161" s="1">
+        <v>1</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N161" s="1">
+        <v>60</v>
+      </c>
+      <c r="O161" s="1">
+        <v>50</v>
+      </c>
+      <c r="P161" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q161" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S161" s="1">
+        <v>1</v>
+      </c>
+      <c r="T161" s="1">
+        <v>35</v>
+      </c>
+      <c r="U161" s="1">
+        <v>40</v>
+      </c>
+      <c r="V161" s="1">
+        <v>52</v>
+      </c>
+      <c r="W161" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X161" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y161" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z161" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA161" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB161" s="1">
         <v>8.0779999999999994</v>
       </c>
     </row>
@@ -10162,7 +10263,7 @@
       <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -10179,7 +10280,7 @@
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10259,7 +10360,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -10294,7 +10395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="28.8">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -10329,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -10364,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="28.8">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -10399,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="28.8">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -10434,7 +10535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="28.8">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -10469,7 +10570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="28.8">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -10504,7 +10605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="28.8">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -10539,7 +10640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="28.8">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -10574,7 +10675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="28.8">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -10609,7 +10710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="28.8">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -10683,7 +10784,7 @@
         <v>5.0255000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="28.8">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -10760,7 +10861,7 @@
         <v>5.0255000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="28.8">
       <c r="A14" s="1" t="s">
         <v>519</v>
       </c>
@@ -10837,7 +10938,7 @@
         <v>5.0255000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="28.8">
       <c r="A15" s="1" t="s">
         <v>91</v>
       </c>
@@ -10914,59 +11015,59 @@
         <v>5.0255000000000001</v>
       </c>
     </row>
-    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="13.5" customHeight="1"/>
+    <row r="42" ht="13.5" customHeight="1"/>
+    <row r="45" ht="13.5" customHeight="1"/>
+    <row r="47" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10981,7 +11082,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
@@ -10997,7 +11098,7 @@
     <col min="24" max="24" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11071,7 +11172,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="43.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -11145,7 +11246,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="43.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -11219,7 +11320,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="43.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -11293,7 +11394,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="43.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -11367,7 +11468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="43.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -11441,7 +11542,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="43.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -11515,7 +11616,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="43.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -11589,7 +11690,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="43.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -11663,7 +11764,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="43.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -11737,7 +11838,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="43.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -11811,7 +11912,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="43.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -11885,7 +11986,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="43.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -11959,7 +12060,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="43.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -12033,115 +12134,115 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="M15" s="2"/>
       <c r="X15" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="M16" s="2"/>
       <c r="X16" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="13:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="13:24">
       <c r="M17" s="2"/>
       <c r="X17" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="13:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:24">
       <c r="M18" s="2"/>
       <c r="X18" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="13:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="13:24">
       <c r="M19" s="2"/>
       <c r="X19" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="13:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="13:24">
       <c r="M20" s="2"/>
       <c r="X20" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="13:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="13:24">
       <c r="M21" s="2"/>
       <c r="X21" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="13:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="13:24">
       <c r="M22" s="2"/>
       <c r="X22" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="13:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="13:24">
       <c r="M23" s="2"/>
       <c r="X23" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="13:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="13:24">
       <c r="M24" s="2"/>
       <c r="X24" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="13:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="13:24">
       <c r="M25" s="2"/>
       <c r="X25" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="13:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="13:24">
       <c r="M26" s="2"/>
       <c r="X26" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="13:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="13:24">
       <c r="M27" s="2"/>
       <c r="X27" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="13:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="13:24">
       <c r="M28" s="2"/>
       <c r="X28" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="13.5" customHeight="1"/>
+    <row r="42" ht="13.5" customHeight="1"/>
+    <row r="45" ht="13.5" customHeight="1"/>
+    <row r="47" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{358998FA-15FF-431B-99C1-DF0C84EFB86F}"/>
@@ -12199,7 +12300,7 @@
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
@@ -12214,7 +12315,7 @@
     <col min="20" max="20" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="43.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12318,7 +12419,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="28.8">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -12378,7 +12479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="43.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -12440,7 +12541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="43.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -12502,7 +12603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="43.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -12564,7 +12665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="43.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -12626,7 +12727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="43.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -12688,7 +12789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="43.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -12750,7 +12851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="43.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -12812,7 +12913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" ht="43.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -12874,7 +12975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="43.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -12975,7 +13076,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="43.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -13079,7 +13180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="43.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -13183,7 +13284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="43.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -13287,67 +13388,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="10:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:15">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="10:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:15">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="10:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:15">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="10:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:15">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="10:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:15">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="10:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:15">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="10:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:15">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="10:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:15">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="10:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:15">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="10:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="10:15">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -13358,7 +13459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -13369,7 +13470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -13380,7 +13481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -13391,7 +13492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -13402,7 +13503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -13413,7 +13514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -13424,7 +13525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -13435,7 +13536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -13446,7 +13547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -13457,7 +13558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -13468,7 +13569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -13479,7 +13580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -13490,7 +13591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -13501,7 +13602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -13512,7 +13613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -13523,7 +13624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -13534,7 +13635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -13545,7 +13646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -13556,7 +13657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -13567,7 +13668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -13578,7 +13679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -13589,7 +13690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -13600,7 +13701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -13611,7 +13712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -13622,7 +13723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -13633,7 +13734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -13644,7 +13745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -13655,7 +13756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -13666,7 +13767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -13677,7 +13778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -13688,7 +13789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -13699,7 +13800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -13710,7 +13811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -13721,7 +13822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -13732,7 +13833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -13743,7 +13844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -13754,7 +13855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -13765,7 +13866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -13776,7 +13877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -13787,7 +13888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -13837,10 +13938,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
@@ -13856,7 +13957,7 @@
     <col min="24" max="24" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13930,7 +14031,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="43.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -14004,7 +14105,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="43.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -14078,7 +14179,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="43.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -14152,7 +14253,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="43.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -14226,7 +14327,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="43.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -14300,7 +14401,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="43.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -14374,7 +14475,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="43.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -14448,7 +14549,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="43.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -14522,7 +14623,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="43.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -14596,7 +14697,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="43.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -14670,7 +14771,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="43.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -14744,7 +14845,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="43.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -14818,7 +14919,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="43.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -14892,7 +14993,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="43.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -14966,7 +15067,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="43.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -15040,7 +15141,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="43.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -15114,7 +15215,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="43.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -15188,7 +15289,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="43.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -15262,7 +15363,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="43.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -15336,7 +15437,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="43.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -15410,7 +15511,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="43.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -15484,7 +15585,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="43.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -15558,7 +15659,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="43.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -15632,7 +15733,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="43.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -15706,7 +15807,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="43.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -15780,7 +15881,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="43.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -15854,7 +15955,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="43.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -15928,7 +16029,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="43.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -16002,7 +16103,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="43.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -16076,7 +16177,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="43.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -16150,7 +16251,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="43.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -16224,7 +16325,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="43.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -16298,7 +16399,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="43.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -16372,7 +16473,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="43.2">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -16446,7 +16547,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="43.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -16520,7 +16621,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="43.2">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -16594,7 +16695,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="43.2">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -16668,7 +16769,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="43.2">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -16742,7 +16843,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="43.2">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -16816,7 +16917,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="43.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -16890,7 +16991,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="43.2">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -16964,7 +17065,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="43.2">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -17038,7 +17139,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="43.2">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -17112,7 +17213,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="43.2">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -17186,9 +17287,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="43.2">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
         <v>605</v>
@@ -17260,30 +17361,81 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="43.2">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>612</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" t="s">
+        <v>560</v>
+      </c>
+      <c r="I47" t="s">
+        <v>561</v>
+      </c>
+      <c r="J47" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L47" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N47" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="O47" t="s">
+        <v>119</v>
+      </c>
+      <c r="P47" t="s">
+        <v>559</v>
       </c>
       <c r="Q47">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="R47">
+        <v>987545555555555</v>
+      </c>
+      <c r="S47" t="s">
+        <v>124</v>
+      </c>
+      <c r="T47">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="U47" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V47" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="W47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X47" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -17306,7 +17458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="13.5" customHeight="1">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -17329,7 +17481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -17352,7 +17504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="13.5" customHeight="1">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -17375,7 +17527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -17398,7 +17550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="13.5" customHeight="1">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -17421,7 +17573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -17444,7 +17596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="13.5" customHeight="1">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -17467,7 +17619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -17490,7 +17642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="13.5" customHeight="1">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -17513,7 +17665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="13.5" customHeight="1">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -17536,7 +17688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="13.5" customHeight="1">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -17559,7 +17711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="13.5" customHeight="1">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -17582,7 +17734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="13.5" customHeight="1">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -17605,7 +17757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="13.5" customHeight="1">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -17631,7 +17783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="13.5" customHeight="1">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -17657,7 +17809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="13.5" customHeight="1">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -17683,7 +17835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="13.5" customHeight="1">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -17709,7 +17861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="12.75" customHeight="1">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -17735,7 +17887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="13.5" customHeight="1">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -17761,7 +17913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="13.5" customHeight="1">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -17787,7 +17939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="13.5" customHeight="1">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -17813,7 +17965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="13.5" customHeight="1">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -17839,7 +17991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="13.5" customHeight="1">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -17865,7 +18017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="13.5" customHeight="1">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -17891,7 +18043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="13.5" customHeight="1">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -18009,9 +18161,11 @@
     <hyperlink ref="X45" r:id="rId88" xr:uid="{0EDC542C-B3ED-43F4-B652-FBF1C7088B2B}"/>
     <hyperlink ref="M46" r:id="rId89" xr:uid="{A88B78A8-C71D-4D49-8AFE-B6009577BA10}"/>
     <hyperlink ref="X46" r:id="rId90" xr:uid="{1DFFD102-6D13-428F-804F-686AEACE2B40}"/>
+    <hyperlink ref="M47" r:id="rId91" xr:uid="{A07E3BAE-761A-43F3-8DF5-3267927C3FC5}"/>
+    <hyperlink ref="X47" r:id="rId92" xr:uid="{09106F3E-4F91-4531-B1CB-25EE2EE28B10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId91"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId93"/>
 </worksheet>
 </file>
 
@@ -18022,10 +18176,10 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
@@ -18043,7 +18197,7 @@
     <col min="29" max="29" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="43.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18147,7 +18301,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="28.8">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -18206,7 +18360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="28.8">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -18265,7 +18419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="28.8">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -18324,7 +18478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="28.8">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -18383,7 +18537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="28.8">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -18442,7 +18596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="28.8">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -18501,7 +18655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="28.8">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -18560,7 +18714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="28.8">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -18619,7 +18773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" ht="28.8">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -18678,7 +18832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="28.8">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -18737,7 +18891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="28.8">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -18796,7 +18950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="28.8">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -18855,7 +19009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="28.8">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -18914,7 +19068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" ht="28.8">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -18973,7 +19127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" ht="28.8">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -19032,7 +19186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="28.8">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -19091,7 +19245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="28.8">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -19150,7 +19304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="28.8">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -19209,7 +19363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="28.8">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -19268,7 +19422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="28.8">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -19327,7 +19481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="28.8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -19386,7 +19540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="28.8">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -19445,7 +19599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="28.8">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -19504,7 +19658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="28.8">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -19563,7 +19717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="28.8">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -19622,7 +19776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="28.8">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -19681,7 +19835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="28.8">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -19740,7 +19894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="28.8">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -19799,7 +19953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="28.8">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -19858,7 +20012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="28.8">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -19917,7 +20071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="28.8">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -19976,7 +20130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" ht="28.8">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -20035,7 +20189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" ht="28.8">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -20094,7 +20248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" ht="28.8">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -20198,7 +20352,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" ht="28.8">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -20302,7 +20456,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" ht="28.8">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -20406,7 +20560,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" ht="28.8">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -20510,7 +20664,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" ht="28.8">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -20614,7 +20768,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" ht="28.8">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -20718,7 +20872,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" ht="28.8">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -20822,7 +20976,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" ht="28.8">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -20926,7 +21080,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" ht="28.8">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -21030,7 +21184,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" ht="28.8">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -21134,7 +21288,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" ht="28.8">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -21238,7 +21392,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" ht="28.8">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -21342,7 +21496,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" ht="28.8">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -21446,7 +21600,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="48" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" ht="28.8">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -21550,7 +21704,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" ht="28.8">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -21654,7 +21808,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" ht="28.8">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -21758,7 +21912,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" ht="28.8">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -21862,7 +22016,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" ht="28.8">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -21966,7 +22120,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" ht="28.8">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -22070,7 +22224,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" ht="28.8">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -22174,7 +22328,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" ht="28.8">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -22278,7 +22432,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" ht="28.8">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -22382,7 +22536,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" ht="28.8">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -22486,7 +22640,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" ht="28.8">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -22590,9 +22744,9 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" ht="28.8">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
         <v>606</v>
@@ -22694,21 +22848,111 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" ht="28.8">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
+        <v>611</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
-      </c>
-      <c r="N60" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" t="s">
+        <v>565</v>
+      </c>
+      <c r="G60" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" t="s">
+        <v>141</v>
+      </c>
+      <c r="I60" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K60" t="s">
+        <v>563</v>
+      </c>
+      <c r="L60" t="s">
+        <v>564</v>
+      </c>
+      <c r="M60">
+        <v>9876543210</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O60">
+        <v>107</v>
+      </c>
+      <c r="P60" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>129</v>
+      </c>
+      <c r="R60" t="s">
+        <v>148</v>
       </c>
       <c r="S60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="V60">
+        <v>8</v>
+      </c>
+      <c r="W60">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X60" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y60">
+        <v>4</v>
+      </c>
+      <c r="Z60">
+        <v>25</v>
+      </c>
+      <c r="AA60">
+        <v>30</v>
+      </c>
+      <c r="AB60">
+        <v>35</v>
+      </c>
+      <c r="AC60">
+        <v>1.52</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE60">
+        <v>6</v>
+      </c>
+      <c r="AF60">
+        <v>8</v>
+      </c>
+      <c r="AG60">
+        <v>7</v>
+      </c>
+      <c r="AH60">
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -22722,7 +22966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -22736,7 +22980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -22750,7 +22994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -22764,7 +23008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -22778,7 +23022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -22792,7 +23036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -22806,7 +23050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -22820,7 +23064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -22834,7 +23078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -22848,7 +23092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -22862,7 +23106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -22876,7 +23120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -23008,21 +23252,23 @@
     <hyperlink ref="N58" r:id="rId114" xr:uid="{8CCDF921-B77B-4122-995E-94A0A1FF951E}"/>
     <hyperlink ref="J59" r:id="rId115" xr:uid="{03EF0337-BA47-4651-BF5E-FF10B9718507}"/>
     <hyperlink ref="N59" r:id="rId116" xr:uid="{401EE075-CA01-4A77-9342-0F388E1FEA15}"/>
+    <hyperlink ref="J60" r:id="rId117" xr:uid="{48BE3090-7226-4724-B6F4-D419EA519963}"/>
+    <hyperlink ref="N60" r:id="rId118" xr:uid="{08E6B8B7-01C6-459F-A417-7EB763D152B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId117"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId119"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9603E3-1555-46FB-BCC7-D3A0DADC829D}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
@@ -23035,7 +23281,7 @@
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23064,7 +23310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -23093,7 +23339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -23122,7 +23368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -23151,7 +23397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -23180,7 +23426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -23209,7 +23455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -23238,7 +23484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -23267,7 +23513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -23296,7 +23542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -23325,7 +23571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -23354,7 +23600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -23383,7 +23629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -23412,7 +23658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -23441,9 +23687,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>607</v>
@@ -23467,6 +23713,35 @@
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -23477,13 +23752,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3B5C8-4477-4678-9556-D1FB6FFD9127}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
@@ -23496,7 +23771,7 @@
     <col min="9" max="9" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23525,7 +23800,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -23554,7 +23829,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -23583,7 +23858,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -23612,7 +23887,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -23641,7 +23916,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -23670,7 +23945,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -23699,7 +23974,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -23728,7 +24003,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -23757,7 +24032,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -23786,9 +24061,9 @@
         <v>573</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>608</v>
@@ -23812,6 +24087,35 @@
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G12" t="s">
+        <v>572</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>573</v>
       </c>
     </row>
@@ -23827,6 +24131,7 @@
     <hyperlink ref="I9" r:id="rId8" xr:uid="{D49BDF56-CE40-4F57-91B8-97A21B63D5C5}"/>
     <hyperlink ref="I10" r:id="rId9" xr:uid="{9D48AA53-9D34-4665-8C22-2F207E85409C}"/>
     <hyperlink ref="I11" r:id="rId10" xr:uid="{7719280A-E8E2-4960-AC66-9044E3BD3E94}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{2D6541A8-F67A-4B24-BCC7-B9F404542341}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nasreen\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FA3916-DA7B-4A93-8BA8-C27185C811F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55493691-20F8-4434-80AA-132D85ECF0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5477" uniqueCount="710">
   <si>
     <t>RunToTest</t>
   </si>
@@ -2097,13 +2097,82 @@
   </si>
   <si>
     <t>UAT42092310</t>
+  </si>
+  <si>
+    <t>UAT00211025</t>
+  </si>
+  <si>
+    <t>UAT00311024</t>
+  </si>
+  <si>
+    <t>UAT00311025</t>
+  </si>
+  <si>
+    <t>UAT00211026</t>
+  </si>
+  <si>
+    <t>UAT00211027</t>
+  </si>
+  <si>
+    <t>UAT00311026</t>
+  </si>
+  <si>
+    <t>UAT00311027</t>
+  </si>
+  <si>
+    <t>UAT00211028</t>
+  </si>
+  <si>
+    <t>UAT00211029</t>
+  </si>
+  <si>
+    <t>UAT00311028</t>
+  </si>
+  <si>
+    <t>UAT00311029</t>
+  </si>
+  <si>
+    <t>UAT00211030</t>
+  </si>
+  <si>
+    <t>UAT00211031</t>
+  </si>
+  <si>
+    <t>UAT00311030</t>
+  </si>
+  <si>
+    <t>UAT00311031</t>
+  </si>
+  <si>
+    <t>UAT00211032</t>
+  </si>
+  <si>
+    <t>UAT00211033</t>
+  </si>
+  <si>
+    <t>UAT00311032</t>
+  </si>
+  <si>
+    <t>UAT00211034</t>
+  </si>
+  <si>
+    <t>UAT00311033</t>
+  </si>
+  <si>
+    <t>UAT42092311</t>
+  </si>
+  <si>
+    <t>UAT08000205</t>
+  </si>
+  <si>
+    <t>UAT07100165</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2127,6 +2196,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3430,11 +3505,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB168"/>
+  <dimension ref="A1:AB169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
+      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11482,7 +11557,7 @@
     </row>
     <row r="168" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>686</v>
@@ -11566,7 +11641,94 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
+    <row r="169" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I169" s="1">
+        <v>456</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L169" s="1">
+        <v>1</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N169" s="1">
+        <v>60</v>
+      </c>
+      <c r="O169" s="1">
+        <v>50</v>
+      </c>
+      <c r="P169" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q169" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S169" s="1">
+        <v>1</v>
+      </c>
+      <c r="T169" s="1">
+        <v>35</v>
+      </c>
+      <c r="U169" s="1">
+        <v>40</v>
+      </c>
+      <c r="V169" s="1">
+        <v>52</v>
+      </c>
+      <c r="W169" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X169" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y169" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z169" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA169" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB169" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -15256,8 +15418,8 @@
   <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19215,7 +19377,7 @@
     </row>
     <row r="54" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
         <v>685</v>
@@ -19290,27 +19452,81 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>708</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" t="s">
+        <v>138</v>
+      </c>
+      <c r="I55" t="s">
+        <v>628</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="M55" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="O55" t="s">
-        <v>7</v>
+        <v>635</v>
+      </c>
+      <c r="P55" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>634</v>
       </c>
       <c r="R55">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="S55">
+        <v>987545555555555</v>
+      </c>
+      <c r="T55" t="s">
+        <v>124</v>
+      </c>
+      <c r="U55">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="V55" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="W55" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="X55">
         <v>1</v>
+      </c>
+      <c r="Y55" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
@@ -19764,6 +19980,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="Y2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -19876,9 +20093,12 @@
     <hyperlink ref="N54" r:id="rId109" xr:uid="{1593390C-4A32-4700-9569-A05328674680}"/>
     <hyperlink ref="Y54" r:id="rId110" xr:uid="{8A5DCCDC-5C1F-4F87-A1A7-010844493805}"/>
     <hyperlink ref="J54" r:id="rId111" xr:uid="{D42AA61D-51F3-4175-BD0F-EF82D94645C4}"/>
+    <hyperlink ref="N55" r:id="rId112" xr:uid="{0A3F27B0-B7FD-44A6-83DC-64B2ECC56C9F}"/>
+    <hyperlink ref="Y55" r:id="rId113" xr:uid="{0DAA3ABA-409B-4A13-9F40-AB200B438B84}"/>
+    <hyperlink ref="J55" r:id="rId114" xr:uid="{BC9085C3-F829-4E14-B74E-09FADBB3DD1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId112"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId115"/>
 </worksheet>
 </file>
 
@@ -19887,9 +20107,9 @@
   <dimension ref="A1:AH73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25187,7 +25407,7 @@
     </row>
     <row r="66" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
         <v>684</v>
@@ -25289,18 +25509,108 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B67" t="s">
+        <v>709</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
-      </c>
-      <c r="N67" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D67" t="s">
+        <v>620</v>
+      </c>
+      <c r="E67" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" t="s">
+        <v>565</v>
+      </c>
+      <c r="G67" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" t="s">
+        <v>141</v>
+      </c>
+      <c r="I67" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K67" t="s">
+        <v>563</v>
+      </c>
+      <c r="L67" t="s">
+        <v>564</v>
+      </c>
+      <c r="M67">
+        <v>9876543210</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O67">
+        <v>107</v>
+      </c>
+      <c r="P67" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>129</v>
+      </c>
+      <c r="R67" t="s">
+        <v>148</v>
       </c>
       <c r="S67">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="T67">
+        <v>2</v>
+      </c>
+      <c r="U67">
+        <v>3</v>
+      </c>
+      <c r="V67">
+        <v>8</v>
+      </c>
+      <c r="W67">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X67" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y67">
+        <v>4</v>
+      </c>
+      <c r="Z67">
+        <v>25</v>
+      </c>
+      <c r="AA67">
+        <v>30</v>
+      </c>
+      <c r="AB67">
+        <v>35</v>
+      </c>
+      <c r="AC67">
+        <v>1.52</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE67">
+        <v>6</v>
+      </c>
+      <c r="AF67">
+        <v>8</v>
+      </c>
+      <c r="AG67">
+        <v>7</v>
+      </c>
+      <c r="AH67">
+        <v>1.256</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.3">
@@ -25388,6 +25698,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="N2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
@@ -25519,18 +25830,20 @@
     <hyperlink ref="N65" r:id="rId128" xr:uid="{5F2072A9-21D2-4E8F-8791-E59398EC698A}"/>
     <hyperlink ref="J66" r:id="rId129" xr:uid="{968DECEE-3551-4B41-A29B-023462FE3382}"/>
     <hyperlink ref="N66" r:id="rId130" xr:uid="{B61DC99B-8EAC-45B7-8B5E-D788FFFDAEB8}"/>
+    <hyperlink ref="J67" r:id="rId131" xr:uid="{05F8855C-632D-4E75-BE32-1A961C835E8F}"/>
+    <hyperlink ref="N67" r:id="rId132" xr:uid="{23EF91F0-13FA-459D-AFB4-64D40670DA93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId131"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId133"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9603E3-1555-46FB-BCC7-D3A0DADC829D}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26273,7 +26586,7 @@
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>680</v>
@@ -26300,7 +26613,327 @@
         <v>23</v>
       </c>
     </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -26308,10 +26941,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3B5C8-4477-4678-9556-D1FB6FFD9127}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26938,7 +27571,7 @@
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>683</v>
@@ -26965,7 +27598,298 @@
         <v>573</v>
       </c>
     </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G23" t="s">
+        <v>572</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G24" t="s">
+        <v>572</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G25" t="s">
+        <v>572</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G26" t="s">
+        <v>572</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G27" t="s">
+        <v>572</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G28" t="s">
+        <v>572</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G29" t="s">
+        <v>572</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G30" t="s">
+        <v>572</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G31" t="s">
+        <v>572</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G32" t="s">
+        <v>572</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{C2768231-A8C9-4400-9124-FBDF58A8BB1E}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{6DE8ADA7-4056-41C2-BE37-99E81A501A29}"/>
@@ -26988,6 +27912,16 @@
     <hyperlink ref="I20" r:id="rId19" xr:uid="{F57EFF08-1DC2-4447-86C9-18A2D1967518}"/>
     <hyperlink ref="I21" r:id="rId20" xr:uid="{187764DE-37DB-4910-AF84-92B7498564A7}"/>
     <hyperlink ref="I22" r:id="rId21" xr:uid="{84B3C421-5D87-4D24-ACBA-EE38E5792155}"/>
+    <hyperlink ref="I23" r:id="rId22" xr:uid="{FEA5BB28-6E71-40B3-B23C-DDCF788343E6}"/>
+    <hyperlink ref="I24" r:id="rId23" xr:uid="{57601AD3-CB08-480D-8E05-A1A8C60BCD23}"/>
+    <hyperlink ref="I25" r:id="rId24" xr:uid="{668B4173-3FA5-4F3C-B0A7-40A412F5432A}"/>
+    <hyperlink ref="I26" r:id="rId25" xr:uid="{644F407A-9878-4C0B-A916-A1D0800B8609}"/>
+    <hyperlink ref="I27" r:id="rId26" xr:uid="{CA3CF186-5E1F-47D1-B5E6-0639847284D2}"/>
+    <hyperlink ref="I28" r:id="rId27" xr:uid="{BB482E04-1CD9-40A4-98AA-D66038D42B60}"/>
+    <hyperlink ref="I29" r:id="rId28" xr:uid="{D5871AF0-34C7-4011-A341-8692B25EE158}"/>
+    <hyperlink ref="I30" r:id="rId29" xr:uid="{236CE2F5-6E4B-40CD-8F52-CB629AC0022C}"/>
+    <hyperlink ref="I31" r:id="rId30" xr:uid="{94A78AD9-85E4-4D23-A67E-F4490D88EBEE}"/>
+    <hyperlink ref="I32" r:id="rId31" xr:uid="{4FD57286-A904-4322-ACE9-28E1790DB000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nasreen\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55493691-20F8-4434-80AA-132D85ECF0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5F1F3E-75A8-4FEF-B770-4FF057DC7EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditConsignmentUAT" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5477" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5534" uniqueCount="715">
   <si>
     <t>RunToTest</t>
   </si>
@@ -2166,6 +2166,21 @@
   </si>
   <si>
     <t>UAT07100165</t>
+  </si>
+  <si>
+    <t>UAT42092312</t>
+  </si>
+  <si>
+    <t>UAT08000206</t>
+  </si>
+  <si>
+    <t>UAT07100166</t>
+  </si>
+  <si>
+    <t>UAT00211035</t>
+  </si>
+  <si>
+    <t>UAT00311034</t>
   </si>
 </sst>
 </file>
@@ -3400,7 +3415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DB4D28-FC49-475E-AA62-F174607D5A6F}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3505,11 +3520,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB169"/>
+  <dimension ref="A1:AB170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
+      <selection pane="bottomLeft" activeCell="B169" sqref="B169:B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11643,7 +11658,7 @@
     </row>
     <row r="169" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>707</v>
@@ -11724,6 +11739,92 @@
         <v>60</v>
       </c>
       <c r="AB169" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I170" s="1">
+        <v>456</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L170" s="1">
+        <v>1</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N170" s="1">
+        <v>60</v>
+      </c>
+      <c r="O170" s="1">
+        <v>50</v>
+      </c>
+      <c r="P170" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q170" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S170" s="1">
+        <v>1</v>
+      </c>
+      <c r="T170" s="1">
+        <v>35</v>
+      </c>
+      <c r="U170" s="1">
+        <v>40</v>
+      </c>
+      <c r="V170" s="1">
+        <v>52</v>
+      </c>
+      <c r="W170" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X170" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y170" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z170" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA170" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB170" s="1">
         <v>8.0779999999999994</v>
       </c>
     </row>
@@ -15419,7 +15520,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54:B55"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19454,7 +19555,7 @@
     </row>
     <row r="55" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
         <v>708</v>
@@ -19529,27 +19630,81 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B56" t="s">
+        <v>711</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" t="s">
+        <v>107</v>
+      </c>
+      <c r="H56" t="s">
+        <v>138</v>
+      </c>
+      <c r="I56" t="s">
+        <v>628</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="M56" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="O56" t="s">
-        <v>7</v>
+        <v>635</v>
+      </c>
+      <c r="P56" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>634</v>
       </c>
       <c r="R56">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="S56">
+        <v>987545555555555</v>
+      </c>
+      <c r="T56" t="s">
+        <v>124</v>
+      </c>
+      <c r="U56">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="V56" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="W56" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="X56">
         <v>1</v>
+      </c>
+      <c r="Y56" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -20096,9 +20251,12 @@
     <hyperlink ref="N55" r:id="rId112" xr:uid="{0A3F27B0-B7FD-44A6-83DC-64B2ECC56C9F}"/>
     <hyperlink ref="Y55" r:id="rId113" xr:uid="{0DAA3ABA-409B-4A13-9F40-AB200B438B84}"/>
     <hyperlink ref="J55" r:id="rId114" xr:uid="{BC9085C3-F829-4E14-B74E-09FADBB3DD1C}"/>
+    <hyperlink ref="N56" r:id="rId115" xr:uid="{8018F2B8-3C1F-4558-AC7D-641379C97953}"/>
+    <hyperlink ref="Y56" r:id="rId116" xr:uid="{6362D110-B0BF-463F-8CA8-9055ABC779B1}"/>
+    <hyperlink ref="J56" r:id="rId117" xr:uid="{826158C2-2516-46CF-8F92-51141C046A9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId115"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId118"/>
 </worksheet>
 </file>
 
@@ -20109,7 +20267,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66:B67"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25511,7 +25669,7 @@
     </row>
     <row r="67" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
         <v>709</v>
@@ -25613,18 +25771,108 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
+        <v>712</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
-      </c>
-      <c r="N68" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D68" t="s">
+        <v>620</v>
+      </c>
+      <c r="E68" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" t="s">
+        <v>565</v>
+      </c>
+      <c r="G68" t="s">
+        <v>138</v>
+      </c>
+      <c r="H68" t="s">
+        <v>141</v>
+      </c>
+      <c r="I68" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K68" t="s">
+        <v>563</v>
+      </c>
+      <c r="L68" t="s">
+        <v>564</v>
+      </c>
+      <c r="M68">
+        <v>9876543210</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O68">
+        <v>107</v>
+      </c>
+      <c r="P68" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>129</v>
+      </c>
+      <c r="R68" t="s">
+        <v>148</v>
       </c>
       <c r="S68">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="T68">
+        <v>2</v>
+      </c>
+      <c r="U68">
+        <v>3</v>
+      </c>
+      <c r="V68">
+        <v>8</v>
+      </c>
+      <c r="W68">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X68" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y68">
+        <v>4</v>
+      </c>
+      <c r="Z68">
+        <v>25</v>
+      </c>
+      <c r="AA68">
+        <v>30</v>
+      </c>
+      <c r="AB68">
+        <v>35</v>
+      </c>
+      <c r="AC68">
+        <v>1.52</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE68">
+        <v>6</v>
+      </c>
+      <c r="AF68">
+        <v>8</v>
+      </c>
+      <c r="AG68">
+        <v>7</v>
+      </c>
+      <c r="AH68">
+        <v>1.256</v>
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.3">
@@ -25832,18 +26080,20 @@
     <hyperlink ref="N66" r:id="rId130" xr:uid="{B61DC99B-8EAC-45B7-8B5E-D788FFFDAEB8}"/>
     <hyperlink ref="J67" r:id="rId131" xr:uid="{05F8855C-632D-4E75-BE32-1A961C835E8F}"/>
     <hyperlink ref="N67" r:id="rId132" xr:uid="{23EF91F0-13FA-459D-AFB4-64D40670DA93}"/>
+    <hyperlink ref="J68" r:id="rId133" xr:uid="{A0BED71D-35F1-4E1A-A251-29FFBB9A40B3}"/>
+    <hyperlink ref="N68" r:id="rId134" xr:uid="{7CCE95D8-AF90-4307-96A2-1E3E95693045}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId133"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId135"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9603E3-1555-46FB-BCC7-D3A0DADC829D}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="B37" sqref="B37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26905,7 +27155,7 @@
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>705</v>
@@ -26929,6 +27179,35 @@
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -26941,10 +27220,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3B5C8-4477-4678-9556-D1FB6FFD9127}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27861,7 +28140,7 @@
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>706</v>
@@ -27885,6 +28164,35 @@
         <v>2</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G33" t="s">
+        <v>572</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>573</v>
       </c>
     </row>
@@ -27922,6 +28230,7 @@
     <hyperlink ref="I30" r:id="rId29" xr:uid="{236CE2F5-6E4B-40CD-8F52-CB629AC0022C}"/>
     <hyperlink ref="I31" r:id="rId30" xr:uid="{94A78AD9-85E4-4D23-A67E-F4490D88EBEE}"/>
     <hyperlink ref="I32" r:id="rId31" xr:uid="{4FD57286-A904-4322-ACE9-28E1790DB000}"/>
+    <hyperlink ref="I33" r:id="rId32" xr:uid="{3CD8D259-662F-4105-8F10-B95B848AE28E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nasreen\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5F1F3E-75A8-4FEF-B770-4FF057DC7EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9127254-E9FB-4778-AEA0-1BD1CC7056EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditConsignmentUAT" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5534" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5591" uniqueCount="720">
   <si>
     <t>RunToTest</t>
   </si>
@@ -2181,6 +2181,21 @@
   </si>
   <si>
     <t>UAT00311034</t>
+  </si>
+  <si>
+    <t>UAT00311035</t>
+  </si>
+  <si>
+    <t>UAT00211036</t>
+  </si>
+  <si>
+    <t>UAT07100167</t>
+  </si>
+  <si>
+    <t>UAT08000207</t>
+  </si>
+  <si>
+    <t>UAT42092313</t>
   </si>
 </sst>
 </file>
@@ -3415,7 +3430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DB4D28-FC49-475E-AA62-F174607D5A6F}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3520,11 +3535,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB170"/>
+  <dimension ref="A1:AB171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B169" sqref="B169:B170"/>
+      <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11744,7 +11759,7 @@
     </row>
     <row r="170" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>710</v>
@@ -11825,6 +11840,92 @@
         <v>60</v>
       </c>
       <c r="AB170" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I171" s="1">
+        <v>456</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L171" s="1">
+        <v>1</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N171" s="1">
+        <v>60</v>
+      </c>
+      <c r="O171" s="1">
+        <v>50</v>
+      </c>
+      <c r="P171" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q171" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S171" s="1">
+        <v>1</v>
+      </c>
+      <c r="T171" s="1">
+        <v>35</v>
+      </c>
+      <c r="U171" s="1">
+        <v>40</v>
+      </c>
+      <c r="V171" s="1">
+        <v>52</v>
+      </c>
+      <c r="W171" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X171" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y171" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z171" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA171" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB171" s="1">
         <v>8.0779999999999994</v>
       </c>
     </row>
@@ -15520,7 +15621,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55:B56"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19632,7 +19733,7 @@
     </row>
     <row r="56" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
         <v>711</v>
@@ -19707,27 +19808,81 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B57" t="s">
+        <v>718</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" t="s">
+        <v>138</v>
+      </c>
+      <c r="I57" t="s">
+        <v>628</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="M57" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="O57" t="s">
-        <v>7</v>
+        <v>635</v>
+      </c>
+      <c r="P57" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>634</v>
       </c>
       <c r="R57">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="S57">
+        <v>987545555555555</v>
+      </c>
+      <c r="T57" t="s">
+        <v>124</v>
+      </c>
+      <c r="U57">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="V57" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="W57" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="X57">
         <v>1</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -20254,9 +20409,12 @@
     <hyperlink ref="N56" r:id="rId115" xr:uid="{8018F2B8-3C1F-4558-AC7D-641379C97953}"/>
     <hyperlink ref="Y56" r:id="rId116" xr:uid="{6362D110-B0BF-463F-8CA8-9055ABC779B1}"/>
     <hyperlink ref="J56" r:id="rId117" xr:uid="{826158C2-2516-46CF-8F92-51141C046A9E}"/>
+    <hyperlink ref="N57" r:id="rId118" xr:uid="{F62FD162-4EAD-4094-8DC3-1B994899BBA5}"/>
+    <hyperlink ref="Y57" r:id="rId119" xr:uid="{8A4C69ED-08A5-4D1E-A92D-E61D976058E7}"/>
+    <hyperlink ref="J57" r:id="rId120" xr:uid="{5A3D98A5-4678-495F-AD3C-F5F270855026}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId118"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId121"/>
 </worksheet>
 </file>
 
@@ -20267,7 +20425,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67:B68"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25773,7 +25931,7 @@
     </row>
     <row r="68" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
         <v>712</v>
@@ -25875,18 +26033,108 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B69" t="s">
+        <v>717</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
-      </c>
-      <c r="N69" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D69" t="s">
+        <v>620</v>
+      </c>
+      <c r="E69" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" t="s">
+        <v>565</v>
+      </c>
+      <c r="G69" t="s">
+        <v>138</v>
+      </c>
+      <c r="H69" t="s">
+        <v>141</v>
+      </c>
+      <c r="I69" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K69" t="s">
+        <v>563</v>
+      </c>
+      <c r="L69" t="s">
+        <v>564</v>
+      </c>
+      <c r="M69">
+        <v>9876543210</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O69">
+        <v>107</v>
+      </c>
+      <c r="P69" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>129</v>
+      </c>
+      <c r="R69" t="s">
+        <v>148</v>
       </c>
       <c r="S69">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="T69">
+        <v>2</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>8</v>
+      </c>
+      <c r="W69">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X69" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y69">
+        <v>4</v>
+      </c>
+      <c r="Z69">
+        <v>25</v>
+      </c>
+      <c r="AA69">
+        <v>30</v>
+      </c>
+      <c r="AB69">
+        <v>35</v>
+      </c>
+      <c r="AC69">
+        <v>1.52</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE69">
+        <v>6</v>
+      </c>
+      <c r="AF69">
+        <v>8</v>
+      </c>
+      <c r="AG69">
+        <v>7</v>
+      </c>
+      <c r="AH69">
+        <v>1.256</v>
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.3">
@@ -26082,18 +26330,20 @@
     <hyperlink ref="N67" r:id="rId132" xr:uid="{23EF91F0-13FA-459D-AFB4-64D40670DA93}"/>
     <hyperlink ref="J68" r:id="rId133" xr:uid="{A0BED71D-35F1-4E1A-A251-29FFBB9A40B3}"/>
     <hyperlink ref="N68" r:id="rId134" xr:uid="{7CCE95D8-AF90-4307-96A2-1E3E95693045}"/>
+    <hyperlink ref="J69" r:id="rId135" xr:uid="{AECE6C57-B7D2-4597-ABCA-B72FAA17AC00}"/>
+    <hyperlink ref="N69" r:id="rId136" xr:uid="{2E2647B1-8D69-42B2-AC10-309B125929B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId135"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId137"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9603E3-1555-46FB-BCC7-D3A0DADC829D}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B38"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27184,7 +27434,7 @@
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>713</v>
@@ -27208,6 +27458,35 @@
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -27220,10 +27499,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3B5C8-4477-4678-9556-D1FB6FFD9127}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28169,7 +28448,7 @@
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>714</v>
@@ -28193,6 +28472,35 @@
         <v>2</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G34" t="s">
+        <v>572</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>573</v>
       </c>
     </row>
@@ -28231,6 +28539,7 @@
     <hyperlink ref="I31" r:id="rId30" xr:uid="{94A78AD9-85E4-4D23-A67E-F4490D88EBEE}"/>
     <hyperlink ref="I32" r:id="rId31" xr:uid="{4FD57286-A904-4322-ACE9-28E1790DB000}"/>
     <hyperlink ref="I33" r:id="rId32" xr:uid="{3CD8D259-662F-4105-8F10-B95B848AE28E}"/>
+    <hyperlink ref="I34" r:id="rId33" xr:uid="{C54BB306-E73D-4228-890F-D8C2D7419CA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nasreen\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9127254-E9FB-4778-AEA0-1BD1CC7056EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87E55D2-99D3-443B-939F-AA9CC07F2013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditConsignmentUAT" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5591" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5648" uniqueCount="725">
   <si>
     <t>RunToTest</t>
   </si>
@@ -2196,6 +2196,21 @@
   </si>
   <si>
     <t>UAT42092313</t>
+  </si>
+  <si>
+    <t>UAT42092314</t>
+  </si>
+  <si>
+    <t>UAT08000208</t>
+  </si>
+  <si>
+    <t>UAT07100168</t>
+  </si>
+  <si>
+    <t>UAT00211037</t>
+  </si>
+  <si>
+    <t>UAT00311036</t>
   </si>
 </sst>
 </file>
@@ -3535,11 +3550,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB171"/>
+  <dimension ref="A1:AB172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
+      <selection pane="bottomLeft" activeCell="B171" sqref="B171:B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11845,7 +11860,7 @@
     </row>
     <row r="171" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>719</v>
@@ -11926,6 +11941,92 @@
         <v>60</v>
       </c>
       <c r="AB171" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I172" s="1">
+        <v>456</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L172" s="1">
+        <v>1</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N172" s="1">
+        <v>60</v>
+      </c>
+      <c r="O172" s="1">
+        <v>50</v>
+      </c>
+      <c r="P172" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q172" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S172" s="1">
+        <v>1</v>
+      </c>
+      <c r="T172" s="1">
+        <v>35</v>
+      </c>
+      <c r="U172" s="1">
+        <v>40</v>
+      </c>
+      <c r="V172" s="1">
+        <v>52</v>
+      </c>
+      <c r="W172" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X172" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y172" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z172" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA172" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB172" s="1">
         <v>8.0779999999999994</v>
       </c>
     </row>
@@ -15620,8 +15721,8 @@
   <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56:B57"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19810,7 +19911,7 @@
     </row>
     <row r="57" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
         <v>718</v>
@@ -19885,27 +19986,81 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>721</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" t="s">
+        <v>138</v>
+      </c>
+      <c r="I58" t="s">
+        <v>628</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="M58" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="O58" t="s">
-        <v>7</v>
+        <v>635</v>
+      </c>
+      <c r="P58" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>634</v>
       </c>
       <c r="R58">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="S58">
+        <v>987545555555555</v>
+      </c>
+      <c r="T58" t="s">
+        <v>124</v>
+      </c>
+      <c r="U58">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="V58" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="W58" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="X58">
         <v>1</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -20412,9 +20567,12 @@
     <hyperlink ref="N57" r:id="rId118" xr:uid="{F62FD162-4EAD-4094-8DC3-1B994899BBA5}"/>
     <hyperlink ref="Y57" r:id="rId119" xr:uid="{8A4C69ED-08A5-4D1E-A92D-E61D976058E7}"/>
     <hyperlink ref="J57" r:id="rId120" xr:uid="{5A3D98A5-4678-495F-AD3C-F5F270855026}"/>
+    <hyperlink ref="N58" r:id="rId121" xr:uid="{8EC6C513-55E6-4396-AD24-A617D3B68397}"/>
+    <hyperlink ref="Y58" r:id="rId122" xr:uid="{E83A1ABA-21D5-4CFD-97B2-37BC156C2118}"/>
+    <hyperlink ref="J58" r:id="rId123" xr:uid="{94CB88FD-65A8-4615-BF88-8B65322350EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId121"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId124"/>
 </worksheet>
 </file>
 
@@ -20425,7 +20583,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26035,7 +26193,7 @@
     </row>
     <row r="69" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
         <v>717</v>
@@ -26137,18 +26295,108 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B70" t="s">
+        <v>722</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
-      </c>
-      <c r="N70" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D70" t="s">
+        <v>620</v>
+      </c>
+      <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
+        <v>565</v>
+      </c>
+      <c r="G70" t="s">
+        <v>138</v>
+      </c>
+      <c r="H70" t="s">
+        <v>141</v>
+      </c>
+      <c r="I70" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K70" t="s">
+        <v>563</v>
+      </c>
+      <c r="L70" t="s">
+        <v>564</v>
+      </c>
+      <c r="M70">
+        <v>9876543210</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O70">
+        <v>107</v>
+      </c>
+      <c r="P70" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>129</v>
+      </c>
+      <c r="R70" t="s">
+        <v>148</v>
       </c>
       <c r="S70">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="T70">
+        <v>2</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>8</v>
+      </c>
+      <c r="W70">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X70" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y70">
+        <v>4</v>
+      </c>
+      <c r="Z70">
+        <v>25</v>
+      </c>
+      <c r="AA70">
+        <v>30</v>
+      </c>
+      <c r="AB70">
+        <v>35</v>
+      </c>
+      <c r="AC70">
+        <v>1.52</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE70">
+        <v>6</v>
+      </c>
+      <c r="AF70">
+        <v>8</v>
+      </c>
+      <c r="AG70">
+        <v>7</v>
+      </c>
+      <c r="AH70">
+        <v>1.256</v>
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.3">
@@ -26332,18 +26580,20 @@
     <hyperlink ref="N68" r:id="rId134" xr:uid="{7CCE95D8-AF90-4307-96A2-1E3E95693045}"/>
     <hyperlink ref="J69" r:id="rId135" xr:uid="{AECE6C57-B7D2-4597-ABCA-B72FAA17AC00}"/>
     <hyperlink ref="N69" r:id="rId136" xr:uid="{2E2647B1-8D69-42B2-AC10-309B125929B9}"/>
+    <hyperlink ref="J70" r:id="rId137" xr:uid="{FC6CEA55-69A8-41E4-ACD4-B846B8A25FC1}"/>
+    <hyperlink ref="N70" r:id="rId138" xr:uid="{1F815CD6-CCDC-43CA-8208-3B7E165EE77A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId137"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId139"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9603E3-1555-46FB-BCC7-D3A0DADC829D}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="B39" sqref="B39:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27463,7 +27713,7 @@
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>716</v>
@@ -27487,6 +27737,35 @@
         <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -27499,10 +27778,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3B5C8-4477-4678-9556-D1FB6FFD9127}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28477,7 +28756,7 @@
     </row>
     <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>715</v>
@@ -28501,6 +28780,35 @@
         <v>2</v>
       </c>
       <c r="I34" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G35" t="s">
+        <v>572</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>573</v>
       </c>
     </row>
@@ -28540,6 +28848,7 @@
     <hyperlink ref="I32" r:id="rId31" xr:uid="{4FD57286-A904-4322-ACE9-28E1790DB000}"/>
     <hyperlink ref="I33" r:id="rId32" xr:uid="{3CD8D259-662F-4105-8F10-B95B848AE28E}"/>
     <hyperlink ref="I34" r:id="rId33" xr:uid="{C54BB306-E73D-4228-890F-D8C2D7419CA3}"/>
+    <hyperlink ref="I35" r:id="rId34" xr:uid="{65E84FB9-8862-40DA-816C-B089358E47BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nasreen\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87E55D2-99D3-443B-939F-AA9CC07F2013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0501E5-61D2-49CF-BDEA-23191A0BBC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditConsignmentUAT" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5648" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5705" uniqueCount="730">
   <si>
     <t>RunToTest</t>
   </si>
@@ -2211,6 +2211,21 @@
   </si>
   <si>
     <t>UAT00311036</t>
+  </si>
+  <si>
+    <t>UAT00311037</t>
+  </si>
+  <si>
+    <t>UAT00211038</t>
+  </si>
+  <si>
+    <t>UAT07100169</t>
+  </si>
+  <si>
+    <t>UAT08000209</t>
+  </si>
+  <si>
+    <t>UAT42092315</t>
   </si>
 </sst>
 </file>
@@ -3550,11 +3565,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB172"/>
+  <dimension ref="A1:AB173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B171" sqref="B171:B172"/>
+      <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11946,7 +11961,7 @@
     </row>
     <row r="172" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>720</v>
@@ -12027,6 +12042,92 @@
         <v>60</v>
       </c>
       <c r="AB172" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I173" s="1">
+        <v>456</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L173" s="1">
+        <v>1</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N173" s="1">
+        <v>60</v>
+      </c>
+      <c r="O173" s="1">
+        <v>50</v>
+      </c>
+      <c r="P173" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q173" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S173" s="1">
+        <v>1</v>
+      </c>
+      <c r="T173" s="1">
+        <v>35</v>
+      </c>
+      <c r="U173" s="1">
+        <v>40</v>
+      </c>
+      <c r="V173" s="1">
+        <v>52</v>
+      </c>
+      <c r="W173" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X173" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y173" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z173" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA173" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB173" s="1">
         <v>8.0779999999999994</v>
       </c>
     </row>
@@ -15722,7 +15823,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57:B58"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19988,7 +20089,7 @@
     </row>
     <row r="58" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
         <v>721</v>
@@ -20063,27 +20164,81 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B59" t="s">
+        <v>728</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D59" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" t="s">
+        <v>138</v>
+      </c>
+      <c r="I59" t="s">
+        <v>628</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="M59" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="O59" t="s">
-        <v>7</v>
+        <v>635</v>
+      </c>
+      <c r="P59" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>634</v>
       </c>
       <c r="R59">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="S59">
+        <v>987545555555555</v>
+      </c>
+      <c r="T59" t="s">
+        <v>124</v>
+      </c>
+      <c r="U59">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="V59" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="W59" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="X59">
         <v>1</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -20570,9 +20725,12 @@
     <hyperlink ref="N58" r:id="rId121" xr:uid="{8EC6C513-55E6-4396-AD24-A617D3B68397}"/>
     <hyperlink ref="Y58" r:id="rId122" xr:uid="{E83A1ABA-21D5-4CFD-97B2-37BC156C2118}"/>
     <hyperlink ref="J58" r:id="rId123" xr:uid="{94CB88FD-65A8-4615-BF88-8B65322350EB}"/>
+    <hyperlink ref="N59" r:id="rId124" xr:uid="{C917633D-36D8-4B28-99DB-A3F493160C9A}"/>
+    <hyperlink ref="Y59" r:id="rId125" xr:uid="{45BAD256-847A-42D7-979E-05188AD8A293}"/>
+    <hyperlink ref="J59" r:id="rId126" xr:uid="{348D85BB-2640-43D8-BCD9-CA5DFB52D75B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId124"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId127"/>
 </worksheet>
 </file>
 
@@ -20581,9 +20739,9 @@
   <dimension ref="A1:AH73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69:B70"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26297,7 +26455,7 @@
     </row>
     <row r="70" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
         <v>722</v>
@@ -26399,18 +26557,108 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B71" t="s">
+        <v>727</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
-      </c>
-      <c r="N71" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D71" t="s">
+        <v>620</v>
+      </c>
+      <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
+        <v>565</v>
+      </c>
+      <c r="G71" t="s">
+        <v>138</v>
+      </c>
+      <c r="H71" t="s">
+        <v>141</v>
+      </c>
+      <c r="I71" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K71" t="s">
+        <v>563</v>
+      </c>
+      <c r="L71" t="s">
+        <v>564</v>
+      </c>
+      <c r="M71">
+        <v>9876543210</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O71">
+        <v>107</v>
+      </c>
+      <c r="P71" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>129</v>
+      </c>
+      <c r="R71" t="s">
+        <v>148</v>
       </c>
       <c r="S71">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="T71">
+        <v>2</v>
+      </c>
+      <c r="U71">
+        <v>3</v>
+      </c>
+      <c r="V71">
+        <v>8</v>
+      </c>
+      <c r="W71">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X71" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y71">
+        <v>4</v>
+      </c>
+      <c r="Z71">
+        <v>25</v>
+      </c>
+      <c r="AA71">
+        <v>30</v>
+      </c>
+      <c r="AB71">
+        <v>35</v>
+      </c>
+      <c r="AC71">
+        <v>1.52</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE71">
+        <v>6</v>
+      </c>
+      <c r="AF71">
+        <v>8</v>
+      </c>
+      <c r="AG71">
+        <v>7</v>
+      </c>
+      <c r="AH71">
+        <v>1.256</v>
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.3">
@@ -26582,18 +26830,20 @@
     <hyperlink ref="N69" r:id="rId136" xr:uid="{2E2647B1-8D69-42B2-AC10-309B125929B9}"/>
     <hyperlink ref="J70" r:id="rId137" xr:uid="{FC6CEA55-69A8-41E4-ACD4-B846B8A25FC1}"/>
     <hyperlink ref="N70" r:id="rId138" xr:uid="{1F815CD6-CCDC-43CA-8208-3B7E165EE77A}"/>
+    <hyperlink ref="J71" r:id="rId139" xr:uid="{93AC960F-21D1-46D7-89E4-C6B48370FE97}"/>
+    <hyperlink ref="N71" r:id="rId140" xr:uid="{229EF8D3-7E86-47ED-B217-3FC02E1BA0CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId139"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId141"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9603E3-1555-46FB-BCC7-D3A0DADC829D}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:B40"/>
+      <selection activeCell="B40" sqref="B40:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27742,7 +27992,7 @@
     </row>
     <row r="40" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>723</v>
@@ -27766,6 +28016,35 @@
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -27778,10 +28057,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3B5C8-4477-4678-9556-D1FB6FFD9127}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28754,7 +29033,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -28785,7 +29064,7 @@
     </row>
     <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>724</v>
@@ -28809,6 +29088,35 @@
         <v>2</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G36" t="s">
+        <v>572</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>573</v>
       </c>
     </row>
@@ -28849,6 +29157,7 @@
     <hyperlink ref="I33" r:id="rId32" xr:uid="{3CD8D259-662F-4105-8F10-B95B848AE28E}"/>
     <hyperlink ref="I34" r:id="rId33" xr:uid="{C54BB306-E73D-4228-890F-D8C2D7419CA3}"/>
     <hyperlink ref="I35" r:id="rId34" xr:uid="{65E84FB9-8862-40DA-816C-B089358E47BD}"/>
+    <hyperlink ref="I36" r:id="rId35" xr:uid="{AB873BA4-DA0C-4BE0-A14F-B7770EC5B561}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nasreen\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0501E5-61D2-49CF-BDEA-23191A0BBC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F7E926-7A01-4727-A7F6-B3405B89F239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5705" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5744" uniqueCount="733">
   <si>
     <t>RunToTest</t>
   </si>
@@ -2226,6 +2226,15 @@
   </si>
   <si>
     <t>UAT42092315</t>
+  </si>
+  <si>
+    <t>UAT42092316</t>
+  </si>
+  <si>
+    <t>UAT42092317</t>
+  </si>
+  <si>
+    <t>UAT42092318</t>
   </si>
 </sst>
 </file>
@@ -3565,11 +3574,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB173"/>
+  <dimension ref="A1:AB176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
+      <selection pane="bottomLeft" activeCell="B175" sqref="B175:B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12045,9 +12054,9 @@
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="173" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>729</v>
@@ -12128,6 +12137,264 @@
         <v>60</v>
       </c>
       <c r="AB173" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I174" s="1">
+        <v>456</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L174" s="1">
+        <v>1</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N174" s="1">
+        <v>60</v>
+      </c>
+      <c r="O174" s="1">
+        <v>50</v>
+      </c>
+      <c r="P174" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q174" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S174" s="1">
+        <v>1</v>
+      </c>
+      <c r="T174" s="1">
+        <v>35</v>
+      </c>
+      <c r="U174" s="1">
+        <v>40</v>
+      </c>
+      <c r="V174" s="1">
+        <v>52</v>
+      </c>
+      <c r="W174" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X174" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y174" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z174" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA174" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB174" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I175" s="1">
+        <v>456</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L175" s="1">
+        <v>1</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N175" s="1">
+        <v>60</v>
+      </c>
+      <c r="O175" s="1">
+        <v>50</v>
+      </c>
+      <c r="P175" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q175" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S175" s="1">
+        <v>1</v>
+      </c>
+      <c r="T175" s="1">
+        <v>35</v>
+      </c>
+      <c r="U175" s="1">
+        <v>40</v>
+      </c>
+      <c r="V175" s="1">
+        <v>52</v>
+      </c>
+      <c r="W175" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X175" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y175" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z175" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA175" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB175" s="1">
+        <v>8.0779999999999994</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I176" s="1">
+        <v>456</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L176" s="1">
+        <v>1</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N176" s="1">
+        <v>60</v>
+      </c>
+      <c r="O176" s="1">
+        <v>50</v>
+      </c>
+      <c r="P176" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q176" s="1">
+        <v>5.0255000000000001</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S176" s="1">
+        <v>1</v>
+      </c>
+      <c r="T176" s="1">
+        <v>35</v>
+      </c>
+      <c r="U176" s="1">
+        <v>40</v>
+      </c>
+      <c r="V176" s="1">
+        <v>52</v>
+      </c>
+      <c r="W176" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="X176" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y176" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z176" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA176" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB176" s="1">
         <v>8.0779999999999994</v>
       </c>
     </row>

--- a/DataFiles/excel/Login/ConsignmentDetails.xlsx
+++ b/DataFiles/excel/Login/ConsignmentDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nasreen\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F7E926-7A01-4727-A7F6-B3405B89F239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CA18ED-00A3-4B36-AD68-5CC81A3856C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditConsignmentUAT" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5744" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5789" uniqueCount="738">
   <si>
     <t>RunToTest</t>
   </si>
@@ -2235,6 +2235,21 @@
   </si>
   <si>
     <t>UAT42092318</t>
+  </si>
+  <si>
+    <t>UAT08000210</t>
+  </si>
+  <si>
+    <t>UAT07100170</t>
+  </si>
+  <si>
+    <t>UAT00211039</t>
+  </si>
+  <si>
+    <t>UAT00211040</t>
+  </si>
+  <si>
+    <t>UAT00311038</t>
   </si>
 </sst>
 </file>
@@ -3576,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B175" sqref="B175:B176"/>
     </sheetView>
@@ -16090,7 +16105,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20433,7 +20448,7 @@
     </row>
     <row r="59" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
         <v>728</v>
@@ -20508,27 +20523,81 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
+        <v>733</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="D60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" t="s">
+        <v>138</v>
+      </c>
+      <c r="I60" t="s">
+        <v>628</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="M60" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="O60" t="s">
-        <v>93</v>
+        <v>635</v>
+      </c>
+      <c r="P60" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>634</v>
       </c>
       <c r="R60">
-        <v>456</v>
+        <v>123</v>
+      </c>
+      <c r="S60">
+        <v>987545555555555</v>
+      </c>
+      <c r="T60" t="s">
+        <v>124</v>
+      </c>
+      <c r="U60">
+        <v>1.11188888888888E+18</v>
       </c>
       <c r="V60" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="W60" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="X60">
         <v>1</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -20995,9 +21064,12 @@
     <hyperlink ref="N59" r:id="rId124" xr:uid="{C917633D-36D8-4B28-99DB-A3F493160C9A}"/>
     <hyperlink ref="Y59" r:id="rId125" xr:uid="{45BAD256-847A-42D7-979E-05188AD8A293}"/>
     <hyperlink ref="J59" r:id="rId126" xr:uid="{348D85BB-2640-43D8-BCD9-CA5DFB52D75B}"/>
+    <hyperlink ref="N60" r:id="rId127" xr:uid="{AF69C319-C3BF-4409-83DB-1BE1CEBA1952}"/>
+    <hyperlink ref="Y60" r:id="rId128" xr:uid="{F2B78EC9-DDF3-48FB-A6DA-436DF3FC0200}"/>
+    <hyperlink ref="J60" r:id="rId129" xr:uid="{D9B33641-1E63-47E9-8D93-A4CC32AA3433}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId127"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId130"/>
 </worksheet>
 </file>
 
@@ -21008,7 +21080,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70:B71"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26826,7 +26898,7 @@
     </row>
     <row r="71" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
         <v>727</v>
@@ -26928,18 +27000,108 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B72" t="s">
+        <v>734</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
-      </c>
-      <c r="N72" s="1">
-        <v>456</v>
+        <v>125</v>
+      </c>
+      <c r="D72" t="s">
+        <v>620</v>
+      </c>
+      <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
+        <v>565</v>
+      </c>
+      <c r="G72" t="s">
+        <v>138</v>
+      </c>
+      <c r="H72" t="s">
+        <v>141</v>
+      </c>
+      <c r="I72" s="1">
+        <v>9848655555</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K72" t="s">
+        <v>563</v>
+      </c>
+      <c r="L72" t="s">
+        <v>564</v>
+      </c>
+      <c r="M72">
+        <v>9876543210</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O72">
+        <v>107</v>
+      </c>
+      <c r="P72" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>129</v>
+      </c>
+      <c r="R72" t="s">
+        <v>148</v>
       </c>
       <c r="S72">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>2</v>
+      </c>
+      <c r="U72">
+        <v>3</v>
+      </c>
+      <c r="V72">
+        <v>8</v>
+      </c>
+      <c r="W72">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X72" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y72">
+        <v>4</v>
+      </c>
+      <c r="Z72">
+        <v>25</v>
+      </c>
+      <c r="AA72">
+        <v>30</v>
+      </c>
+      <c r="AB72">
+        <v>35</v>
+      </c>
+      <c r="AC72">
+        <v>1.52</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE72">
+        <v>6</v>
+      </c>
+      <c r="AF72">
+        <v>8</v>
+      </c>
+      <c r="AG72">
+        <v>7</v>
+      </c>
+      <c r="AH72">
+        <v>1.256</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.3">
@@ -27099,18 +27261,20 @@
     <hyperlink ref="N70" r:id="rId138" xr:uid="{1F815CD6-CCDC-43CA-8208-3B7E165EE77A}"/>
     <hyperlink ref="J71" r:id="rId139" xr:uid="{93AC960F-21D1-46D7-89E4-C6B48370FE97}"/>
     <hyperlink ref="N71" r:id="rId140" xr:uid="{229EF8D3-7E86-47ED-B217-3FC02E1BA0CC}"/>
+    <hyperlink ref="J72" r:id="rId141" xr:uid="{1D925D3E-202C-495D-B4B5-76E71FBE9626}"/>
+    <hyperlink ref="N72" r:id="rId142" xr:uid="{7C06A02F-C8E5-4E5A-8109-2C25A664F9D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId141"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId143"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9603E3-1555-46FB-BCC7-D3A0DADC829D}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B41"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28288,7 +28452,7 @@
     </row>
     <row r="41" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>726</v>
@@ -28313,6 +28477,40 @@
       </c>
       <c r="I41" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -28324,10 +28522,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3B5C8-4477-4678-9556-D1FB6FFD9127}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29360,7 +29558,7 @@
     </row>
     <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>725</v>
@@ -29384,6 +29582,35 @@
         <v>2</v>
       </c>
       <c r="I36" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>573</v>
       </c>
     </row>
@@ -29425,6 +29652,7 @@
     <hyperlink ref="I34" r:id="rId33" xr:uid="{C54BB306-E73D-4228-890F-D8C2D7419CA3}"/>
     <hyperlink ref="I35" r:id="rId34" xr:uid="{65E84FB9-8862-40DA-816C-B089358E47BD}"/>
     <hyperlink ref="I36" r:id="rId35" xr:uid="{AB873BA4-DA0C-4BE0-A14F-B7770EC5B561}"/>
+    <hyperlink ref="I37" r:id="rId36" xr:uid="{BE9A9033-DCBB-42A4-A1BB-3ACBC240AB28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
